--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tinsight" sheetId="2" r:id="rId2"/>
+    <sheet name="Tvantage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="201">
   <si>
     <t>序号</t>
   </si>
@@ -49,12 +49,72 @@
     <t>ods_stock_code_daily_insight</t>
   </si>
   <si>
-    <t>A股股票码表</t>
-  </si>
-  <si>
     <t>当日已上市股票码表</t>
   </si>
   <si>
+    <t>ods_stock_kline_daily_insight</t>
+  </si>
+  <si>
+    <t>当日已上市股票的历史日K</t>
+  </si>
+  <si>
+    <t>ods_index_a_share_insight</t>
+  </si>
+  <si>
+    <t>大A的主要指数日K</t>
+  </si>
+  <si>
+    <t>ods_stock_limit_summary_insight</t>
+  </si>
+  <si>
+    <t>当日大A行情温度</t>
+  </si>
+  <si>
+    <t>ods_future_inside_insight</t>
+  </si>
+  <si>
+    <t>内盘主要期货数据日K</t>
+  </si>
+  <si>
+    <t>ods_stock_chouma_insight</t>
+  </si>
+  <si>
+    <t>A股的筹码分布数据</t>
+  </si>
+  <si>
+    <t>ods_shareholder_num</t>
+  </si>
+  <si>
+    <t>个股的股东数</t>
+  </si>
+  <si>
+    <t>ods_north_bound_daily</t>
+  </si>
+  <si>
+    <t>北向持仓数据</t>
+  </si>
+  <si>
+    <t>ods_astock_industry_overview</t>
+  </si>
+  <si>
+    <t>行业分类，申万三级分类</t>
+  </si>
+  <si>
+    <t>ods_astock_industry_detail</t>
+  </si>
+  <si>
+    <t>股票&amp;行业的关联</t>
+  </si>
+  <si>
+    <t>vantage</t>
+  </si>
+  <si>
+    <t>ods_us_stock_daily_vantage</t>
+  </si>
+  <si>
+    <t>美股 日K</t>
+  </si>
+  <si>
     <t>quant.ods_stock_code_daily_insight</t>
   </si>
   <si>
@@ -88,15 +148,6 @@
     <t>交易所名称</t>
   </si>
   <si>
-    <t>当日已上市股票的历史日K</t>
-  </si>
-  <si>
-    <t>大A的主要指数日K</t>
-  </si>
-  <si>
-    <t>当日大A行情温度</t>
-  </si>
-  <si>
     <t>quant.ods_stock_kline_daily_insight</t>
   </si>
   <si>
@@ -214,18 +265,6 @@
     <t xml:space="preserve">volume   </t>
   </si>
   <si>
-    <t>内盘主要期货数据日K</t>
-  </si>
-  <si>
-    <t>A股的筹码分布数据</t>
-  </si>
-  <si>
-    <t>行业分类，申万三级分类</t>
-  </si>
-  <si>
-    <t>股票&amp;行业的关联</t>
-  </si>
-  <si>
     <t>quant.ods_future_inside_insight</t>
   </si>
   <si>
@@ -418,9 +457,6 @@
     <t xml:space="preserve">l3_code        </t>
   </si>
   <si>
-    <t>个股的股东数</t>
-  </si>
-  <si>
     <t xml:space="preserve">cost_5pct                          </t>
   </si>
   <si>
@@ -538,6 +574,9 @@
     <t>限售股最小持仓成本</t>
   </si>
   <si>
+    <t>quant.ods_north_bound_daily</t>
+  </si>
+  <si>
     <t xml:space="preserve">large_shareholders_avg_cost        </t>
   </si>
   <si>
@@ -554,6 +593,45 @@
   </si>
   <si>
     <t>大流通股股东持股占总股本的比例</t>
+  </si>
+  <si>
+    <t>sh_hkshare_hold</t>
+  </si>
+  <si>
+    <t>北向资金持有股票数</t>
+  </si>
+  <si>
+    <t>pct_total_share</t>
+  </si>
+  <si>
+    <t>北向资金持有股票占比</t>
+  </si>
+  <si>
+    <t>US 日K线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name  </t>
+  </si>
+  <si>
+    <t>标的名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">open  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">high  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">low   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">close </t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
 </sst>
 </file>
@@ -566,7 +644,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +659,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.3"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1053,137 +1137,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,7 +1283,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1516,15 +1606,15 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="33.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="24.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
@@ -1543,7 +1633,7 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1556,31 +1646,162 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:1">
-      <c r="A4" s="1">
+    <row r="4" ht="20" customHeight="1" spans="1:4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:1">
-      <c r="A5" s="1">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:4">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:1">
-      <c r="A6" s="1">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" ht="20" customHeight="1"/>
-    <row r="8" ht="20" customHeight="1"/>
-    <row r="9" ht="20" customHeight="1"/>
-    <row r="10" ht="20" customHeight="1"/>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="20" customHeight="1"/>
-    <row r="13" ht="20" customHeight="1"/>
-    <row r="14" ht="20" customHeight="1"/>
-    <row r="15" ht="20" customHeight="1"/>
-    <row r="16" ht="20" customHeight="1"/>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:4">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:4">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:4">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:4">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:4">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:4">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:4">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:4">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:1">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:1">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:3">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
     <row r="17" ht="20" customHeight="1"/>
     <row r="18" ht="20" customHeight="1"/>
     <row r="19" ht="20" customHeight="1"/>
@@ -1631,13 +1852,13 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
@@ -1650,12 +1871,12 @@
   <sheetData>
     <row r="4" customHeight="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -1663,79 +1884,79 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="7:7">
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -1743,279 +1964,279 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="1">
+        <v>43</v>
+      </c>
+      <c r="K16" s="5">
         <v>1</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1">
+        <v>32</v>
+      </c>
+      <c r="F17" s="5">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="1">
+        <v>47</v>
+      </c>
+      <c r="K17" s="5">
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:13">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="1">
+      <c r="K18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3</v>
-      </c>
       <c r="L18" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1">
+        <v>56</v>
+      </c>
+      <c r="F19" s="5">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="1">
+        <v>51</v>
+      </c>
+      <c r="K19" s="5">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="1">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="1">
+        <v>56</v>
+      </c>
+      <c r="K20" s="5">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="1">
+        <v>66</v>
+      </c>
+      <c r="F21" s="5">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="1">
+        <v>61</v>
+      </c>
+      <c r="K21" s="5">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="1">
+        <v>71</v>
+      </c>
+      <c r="F22" s="5">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="1">
+        <v>66</v>
+      </c>
+      <c r="K22" s="5">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1">
+        <v>76</v>
+      </c>
+      <c r="F23" s="5">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:17">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="L28" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Q28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -2023,439 +2244,439 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:18">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:18">
+      <c r="A31" s="5">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:18">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="5">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>99</v>
+      </c>
+      <c r="R32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:18">
+      <c r="A33" s="5">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="5">
+        <v>4</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>106</v>
+      </c>
+      <c r="R33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:18">
+      <c r="A34" s="5">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="5">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="5">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M34" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>112</v>
+      </c>
+      <c r="R34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:18">
+      <c r="A35" s="5">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="5">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" t="s">
+        <v>115</v>
+      </c>
+      <c r="K35" s="5">
+        <v>6</v>
+      </c>
+      <c r="L35" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>118</v>
+      </c>
+      <c r="R35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:18">
+      <c r="A36" s="5">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="5">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="5">
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" t="s">
+        <v>123</v>
+      </c>
+      <c r="P36" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>124</v>
+      </c>
+      <c r="R36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:18">
+      <c r="A37" s="5">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="5">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" t="s">
+        <v>127</v>
+      </c>
+      <c r="K37" s="5">
+        <v>8</v>
+      </c>
+      <c r="L37" t="s">
+        <v>128</v>
+      </c>
+      <c r="M37" t="s">
+        <v>129</v>
+      </c>
+      <c r="P37" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>130</v>
+      </c>
+      <c r="R37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:18">
+      <c r="A38" s="5">
         <v>9</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="5">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" t="s">
+        <v>133</v>
+      </c>
+      <c r="K38" s="5">
+        <v>9</v>
+      </c>
+      <c r="L38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M38" t="s">
+        <v>135</v>
+      </c>
+      <c r="P38" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>136</v>
+      </c>
+      <c r="R38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="6:18">
+      <c r="F39" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:18">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:18">
-      <c r="A31" s="1">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="1">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>78</v>
-      </c>
-      <c r="M31" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:18">
-      <c r="A32" s="1">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" t="s">
-        <v>83</v>
-      </c>
-      <c r="K32" s="1">
-        <v>3</v>
-      </c>
-      <c r="L32" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" t="s">
-        <v>85</v>
-      </c>
-      <c r="P32" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>86</v>
-      </c>
-      <c r="R32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:18">
-      <c r="A33" s="1">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="1">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="1">
-        <v>4</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M33" t="s">
-        <v>92</v>
-      </c>
-      <c r="P33" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>93</v>
-      </c>
-      <c r="R33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:18">
-      <c r="A34" s="1">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" t="s">
-        <v>96</v>
-      </c>
-      <c r="K34" s="1">
-        <v>5</v>
-      </c>
-      <c r="L34" t="s">
-        <v>97</v>
-      </c>
-      <c r="M34" t="s">
-        <v>98</v>
-      </c>
-      <c r="P34" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>99</v>
-      </c>
-      <c r="R34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:18">
-      <c r="A35" s="1">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="1">
-        <v>6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" s="1">
-        <v>6</v>
-      </c>
-      <c r="L35" t="s">
-        <v>103</v>
-      </c>
-      <c r="M35" t="s">
-        <v>104</v>
-      </c>
-      <c r="P35" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>105</v>
-      </c>
-      <c r="R35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:18">
-      <c r="A36" s="1">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="1">
-        <v>7</v>
-      </c>
-      <c r="G36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="1">
-        <v>7</v>
-      </c>
-      <c r="L36" t="s">
-        <v>109</v>
-      </c>
-      <c r="M36" t="s">
-        <v>110</v>
-      </c>
-      <c r="P36" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>111</v>
-      </c>
-      <c r="R36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:18">
-      <c r="A37" s="1">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="1">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37" s="1">
-        <v>8</v>
-      </c>
-      <c r="L37" t="s">
-        <v>115</v>
-      </c>
-      <c r="M37" t="s">
-        <v>116</v>
-      </c>
-      <c r="P37" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>117</v>
-      </c>
-      <c r="R37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:18">
-      <c r="A38" s="1">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="1">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" t="s">
-        <v>120</v>
-      </c>
-      <c r="K38" s="1">
-        <v>9</v>
-      </c>
-      <c r="L38" t="s">
-        <v>121</v>
-      </c>
-      <c r="M38" t="s">
-        <v>122</v>
-      </c>
-      <c r="P38" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>123</v>
-      </c>
-      <c r="R38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="6:18">
-      <c r="F39" s="1">
+      <c r="G39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" s="5">
         <v>10</v>
       </c>
-      <c r="G39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" t="s">
-        <v>125</v>
-      </c>
-      <c r="K39" s="1">
+      <c r="L39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M39" t="s">
+        <v>140</v>
+      </c>
+      <c r="P39" s="5">
         <v>10</v>
       </c>
-      <c r="L39" t="s">
-        <v>126</v>
-      </c>
-      <c r="M39" t="s">
-        <v>127</v>
-      </c>
-      <c r="P39" s="1">
-        <v>10</v>
-      </c>
       <c r="Q39" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="R39" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:18">
       <c r="B40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="1">
+        <v>18</v>
+      </c>
+      <c r="F40" s="5">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
-      </c>
-      <c r="P40" s="1">
+        <v>143</v>
+      </c>
+      <c r="P40" s="5">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="R40" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:8">
       <c r="B41" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="1">
+        <v>145</v>
+      </c>
+      <c r="F41" s="5">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H41" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
@@ -2463,249 +2684,300 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="1">
+        <v>30</v>
+      </c>
+      <c r="F42" s="5">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="1">
+      <c r="A43" s="5">
         <v>1</v>
       </c>
-      <c r="B43" t="s">
-        <v>138</v>
+      <c r="B43" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="5">
         <v>14</v>
       </c>
-      <c r="F43" s="1">
-        <v>14</v>
-      </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="1">
+      <c r="A44" s="5">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="5">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:8">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="5">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:8">
+      <c r="A46" s="5">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="5">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:8">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="5">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:8">
+      <c r="A48" s="5">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="5">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:8">
+      <c r="A49" s="5">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="5">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="6:8">
+      <c r="F50" s="5">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="6:8">
+      <c r="F51" s="5">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="6:8">
+      <c r="F52" s="5">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:8">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="5">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:8">
+      <c r="B54" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" s="5">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>182</v>
+      </c>
+      <c r="H54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:8">
+      <c r="A55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="5">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>184</v>
+      </c>
+      <c r="H55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:8">
+      <c r="A56" s="5">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="5">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>186</v>
+      </c>
+      <c r="H56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="5">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="1">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="1">
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="5">
         <v>3</v>
       </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="1">
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59" s="5">
         <v>4</v>
       </c>
-      <c r="B46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="1">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="1">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="1">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="1">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="1">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="1">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="1">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>159</v>
-      </c>
-      <c r="H49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="6:8">
-      <c r="F50" s="1">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>161</v>
-      </c>
-      <c r="H50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="6:8">
-      <c r="F51" s="1">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>163</v>
-      </c>
-      <c r="H51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="6:8">
-      <c r="F52" s="1">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>165</v>
-      </c>
-      <c r="H52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="6:8">
-      <c r="F53" s="1">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>167</v>
-      </c>
-      <c r="H53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="6:8">
-      <c r="F54" s="1">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>169</v>
-      </c>
-      <c r="H54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="6:8">
-      <c r="F55" s="1">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="6:8">
-      <c r="F56" s="1">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>173</v>
-      </c>
-      <c r="H56" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="6:6">
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" customHeight="1" spans="6:6">
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" customHeight="1" spans="6:6">
-      <c r="F59" s="1"/>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" customHeight="1" spans="6:6">
-      <c r="F60" s="1"/>
+      <c r="F60" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2717,14 +2989,118 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B4:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" customHeight="1" spans="3:3">
+      <c r="C4" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="3:3">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
+    <workbookView windowWidth="15611" windowHeight="6875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
     <sheet name="Tinsight" sheetId="2" r:id="rId2"/>
     <sheet name="Tvantage" sheetId="3" r:id="rId3"/>
+    <sheet name="TDX" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="237">
   <si>
     <t>序号</t>
   </si>
@@ -632,6 +633,114 @@
   </si>
   <si>
     <t>volume</t>
+  </si>
+  <si>
+    <t>通达信概念板块数据</t>
+  </si>
+  <si>
+    <t>通达信地区板块数据</t>
+  </si>
+  <si>
+    <t>tdx_stock_concept_plate</t>
+  </si>
+  <si>
+    <t>tdx_stock_region_plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd        </t>
+  </si>
+  <si>
+    <t>concept_code</t>
+  </si>
+  <si>
+    <t>概念板块代码</t>
+  </si>
+  <si>
+    <t>region_code</t>
+  </si>
+  <si>
+    <t>地区板块代码</t>
+  </si>
+  <si>
+    <t>concept_name</t>
+  </si>
+  <si>
+    <t>概念板块名称</t>
+  </si>
+  <si>
+    <t>region_name</t>
+  </si>
+  <si>
+    <t>地区板块名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_code  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_name </t>
+  </si>
+  <si>
+    <t>通达信风格板块数据</t>
+  </si>
+  <si>
+    <t>通达信指数板块数据</t>
+  </si>
+  <si>
+    <t>tdx_stock_style_plate</t>
+  </si>
+  <si>
+    <t>tdx_stock_index_plate</t>
+  </si>
+  <si>
+    <t>style_code</t>
+  </si>
+  <si>
+    <t>index_code</t>
+  </si>
+  <si>
+    <t>指数板块代码</t>
+  </si>
+  <si>
+    <t>style_name</t>
+  </si>
+  <si>
+    <t>index_name</t>
+  </si>
+  <si>
+    <t>指数板块名称</t>
+  </si>
+  <si>
+    <t>stock_code</t>
+  </si>
+  <si>
+    <t>stock_name</t>
+  </si>
+  <si>
+    <t>通达信行业板块数据</t>
+  </si>
+  <si>
+    <t>tdx_stock_industry_plate</t>
+  </si>
+  <si>
+    <t>行业板块代码</t>
+  </si>
+  <si>
+    <t>行业板块名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_code   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_name   </t>
   </si>
 </sst>
 </file>
@@ -1274,6 +1383,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1282,9 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1611,7 +1720,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="33.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="24.8888888888889" customWidth="1"/>
@@ -1619,21 +1728,21 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="20" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1647,7 +1756,7 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1661,7 +1770,7 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1675,7 +1784,7 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1689,7 +1798,7 @@
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1703,7 +1812,7 @@
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1717,7 +1826,7 @@
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:4">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1731,7 +1840,7 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:4">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1745,7 +1854,7 @@
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:4">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1759,7 +1868,7 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:4">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1773,7 +1882,7 @@
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:4">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1787,17 +1896,17 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:1">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:1">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:3">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="7"/>
@@ -1858,7 +1967,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
@@ -1870,7 +1979,7 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1880,21 +1989,21 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
@@ -1902,10 +2011,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
@@ -1913,7 +2022,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -1924,7 +2033,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -1938,13 +2047,13 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="2:12">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1960,57 +2069,57 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="5" t="s">
         <v>44</v>
       </c>
       <c r="M16" t="s">
@@ -2018,16 +2127,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>2</v>
       </c>
       <c r="G17" t="s">
@@ -2036,10 +2145,10 @@
       <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="M17" t="s">
@@ -2047,7 +2156,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -2056,16 +2165,16 @@
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="2">
         <v>3</v>
       </c>
       <c r="L18" t="s">
@@ -2076,7 +2185,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -2085,7 +2194,7 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="2">
         <v>4</v>
       </c>
       <c r="G19" t="s">
@@ -2094,7 +2203,7 @@
       <c r="H19" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="2">
         <v>4</v>
       </c>
       <c r="L19" t="s">
@@ -2105,7 +2214,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -2114,7 +2223,7 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="2">
         <v>5</v>
       </c>
       <c r="G20" t="s">
@@ -2123,7 +2232,7 @@
       <c r="H20" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="2">
         <v>5</v>
       </c>
       <c r="L20" t="s">
@@ -2134,7 +2243,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -2143,7 +2252,7 @@
       <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="2">
         <v>6</v>
       </c>
       <c r="G21" t="s">
@@ -2152,7 +2261,7 @@
       <c r="H21" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="2">
         <v>6</v>
       </c>
       <c r="L21" t="s">
@@ -2163,7 +2272,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>7</v>
       </c>
       <c r="B22" t="s">
@@ -2172,7 +2281,7 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="2">
         <v>7</v>
       </c>
       <c r="G22" t="s">
@@ -2181,7 +2290,7 @@
       <c r="H22" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="2">
         <v>7</v>
       </c>
       <c r="L22" t="s">
@@ -2192,7 +2301,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -2201,7 +2310,7 @@
       <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -2212,16 +2321,16 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2240,75 +2349,75 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>1</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H30" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="2">
         <v>1</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="5" t="s">
         <v>86</v>
       </c>
       <c r="M30" t="s">
         <v>32</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="2">
         <v>1</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="5" t="s">
         <v>87</v>
       </c>
       <c r="R30" t="s">
@@ -2316,25 +2425,25 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>2</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H31" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="2">
         <v>2</v>
       </c>
       <c r="L31" t="s">
@@ -2343,10 +2452,10 @@
       <c r="M31" t="s">
         <v>92</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="2">
         <v>2</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R31" t="s">
@@ -2354,7 +2463,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>3</v>
       </c>
       <c r="B32" t="s">
@@ -2363,7 +2472,7 @@
       <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="2">
         <v>3</v>
       </c>
       <c r="G32" t="s">
@@ -2372,7 +2481,7 @@
       <c r="H32" t="s">
         <v>96</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="2">
         <v>3</v>
       </c>
       <c r="L32" t="s">
@@ -2381,7 +2490,7 @@
       <c r="M32" t="s">
         <v>98</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="2">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
@@ -2392,7 +2501,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -2401,7 +2510,7 @@
       <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="2">
         <v>4</v>
       </c>
       <c r="G33" t="s">
@@ -2410,16 +2519,16 @@
       <c r="H33" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="2">
         <v>4</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="5" t="s">
         <v>104</v>
       </c>
       <c r="M33" t="s">
         <v>105</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="2">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
@@ -2430,7 +2539,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -2439,7 +2548,7 @@
       <c r="C34" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="2">
         <v>5</v>
       </c>
       <c r="G34" t="s">
@@ -2448,7 +2557,7 @@
       <c r="H34" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="2">
         <v>5</v>
       </c>
       <c r="L34" t="s">
@@ -2457,7 +2566,7 @@
       <c r="M34" t="s">
         <v>111</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="2">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
@@ -2468,7 +2577,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>6</v>
       </c>
       <c r="B35" t="s">
@@ -2477,7 +2586,7 @@
       <c r="C35" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="2">
         <v>6</v>
       </c>
       <c r="G35" t="s">
@@ -2486,7 +2595,7 @@
       <c r="H35" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="2">
         <v>6</v>
       </c>
       <c r="L35" t="s">
@@ -2495,7 +2604,7 @@
       <c r="M35" t="s">
         <v>117</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="2">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
@@ -2506,7 +2615,7 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -2515,7 +2624,7 @@
       <c r="C36" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="2">
         <v>7</v>
       </c>
       <c r="G36" t="s">
@@ -2524,7 +2633,7 @@
       <c r="H36" t="s">
         <v>121</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="2">
         <v>7</v>
       </c>
       <c r="L36" t="s">
@@ -2533,7 +2642,7 @@
       <c r="M36" t="s">
         <v>123</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="2">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
@@ -2544,13 +2653,13 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="2">
         <v>8</v>
       </c>
       <c r="G37" t="s">
@@ -2559,7 +2668,7 @@
       <c r="H37" t="s">
         <v>127</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="2">
         <v>8</v>
       </c>
       <c r="L37" t="s">
@@ -2568,7 +2677,7 @@
       <c r="M37" t="s">
         <v>129</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="2">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
@@ -2579,13 +2688,13 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="2">
         <v>9</v>
       </c>
       <c r="G38" t="s">
@@ -2594,7 +2703,7 @@
       <c r="H38" t="s">
         <v>133</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="2">
         <v>9</v>
       </c>
       <c r="L38" t="s">
@@ -2603,7 +2712,7 @@
       <c r="M38" t="s">
         <v>135</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="2">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
@@ -2614,7 +2723,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="6:18">
-      <c r="F39" s="5">
+      <c r="F39" s="2">
         <v>10</v>
       </c>
       <c r="G39" t="s">
@@ -2623,7 +2732,7 @@
       <c r="H39" t="s">
         <v>138</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="2">
         <v>10</v>
       </c>
       <c r="L39" t="s">
@@ -2632,7 +2741,7 @@
       <c r="M39" t="s">
         <v>140</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="2">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
@@ -2643,10 +2752,10 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:18">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="2">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -2655,7 +2764,7 @@
       <c r="H40" t="s">
         <v>143</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="2">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
@@ -2669,7 +2778,7 @@
       <c r="B41" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="2">
         <v>12</v>
       </c>
       <c r="G41" t="s">
@@ -2680,16 +2789,16 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="2">
         <v>13</v>
       </c>
       <c r="G42" t="s">
@@ -2700,16 +2809,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="5">
+      <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="2">
         <v>14</v>
       </c>
       <c r="G43" t="s">
@@ -2720,7 +2829,7 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="5">
+      <c r="A44" s="2">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -2729,7 +2838,7 @@
       <c r="C44" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="2">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -2740,16 +2849,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>3</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="2">
         <v>16</v>
       </c>
       <c r="G45" t="s">
@@ -2760,7 +2869,7 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="5">
+      <c r="A46" s="2">
         <v>4</v>
       </c>
       <c r="B46" t="s">
@@ -2769,7 +2878,7 @@
       <c r="C46" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="2">
         <v>17</v>
       </c>
       <c r="G46" t="s">
@@ -2780,7 +2889,7 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="5">
+      <c r="A47" s="2">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -2789,7 +2898,7 @@
       <c r="C47" t="s">
         <v>162</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="2">
         <v>18</v>
       </c>
       <c r="G47" t="s">
@@ -2800,7 +2909,7 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="5">
+      <c r="A48" s="2">
         <v>6</v>
       </c>
       <c r="B48" t="s">
@@ -2809,7 +2918,7 @@
       <c r="C48" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="2">
         <v>19</v>
       </c>
       <c r="G48" t="s">
@@ -2820,7 +2929,7 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="5">
+      <c r="A49" s="2">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -2829,7 +2938,7 @@
       <c r="C49" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="2">
         <v>20</v>
       </c>
       <c r="G49" t="s">
@@ -2840,7 +2949,7 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="6:8">
-      <c r="F50" s="5">
+      <c r="F50" s="2">
         <v>21</v>
       </c>
       <c r="G50" t="s">
@@ -2851,7 +2960,7 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="6:8">
-      <c r="F51" s="5">
+      <c r="F51" s="2">
         <v>22</v>
       </c>
       <c r="G51" t="s">
@@ -2862,7 +2971,7 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="6:8">
-      <c r="F52" s="5">
+      <c r="F52" s="2">
         <v>23</v>
       </c>
       <c r="G52" t="s">
@@ -2873,10 +2982,10 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:8">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="2">
         <v>24</v>
       </c>
       <c r="G53" t="s">
@@ -2890,7 +2999,7 @@
       <c r="B54" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="2">
         <v>25</v>
       </c>
       <c r="G54" t="s">
@@ -2901,16 +3010,16 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="2">
         <v>26</v>
       </c>
       <c r="G55" t="s">
@@ -2921,16 +3030,16 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="5">
+      <c r="A56" s="2">
         <v>1</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="2">
         <v>27</v>
       </c>
       <c r="G56" t="s">
@@ -2941,19 +3050,19 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="5">
+      <c r="A57" s="2">
         <v>2</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C57" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="5">
+      <c r="A58" s="2">
         <v>3</v>
       </c>
       <c r="B58" t="s">
@@ -2962,10 +3071,10 @@
       <c r="C58" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="5"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="5">
+      <c r="A59" s="2">
         <v>4</v>
       </c>
       <c r="B59" t="s">
@@ -2974,10 +3083,10 @@
       <c r="C59" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" customHeight="1" spans="6:6">
-      <c r="F60" s="5"/>
+      <c r="F60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,19 +3100,19 @@
   <sheetPr/>
   <dimension ref="B4:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3013,21 +3122,21 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D7" t="s">
@@ -3035,10 +3144,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>195</v>
       </c>
       <c r="D8" t="s">
@@ -3046,7 +3155,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -3057,7 +3166,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -3068,7 +3177,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -3079,7 +3188,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>6</v>
       </c>
       <c r="C12" t="s">
@@ -3090,7 +3199,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>7</v>
       </c>
       <c r="C13" t="s">
@@ -3105,4 +3214,387 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="21.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="1"/>
+    <col min="8" max="8" width="26.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" customHeight="1" spans="2:8">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:8">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:9">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:9">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:9">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:9">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:9">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:9">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:8">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:9">
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:9">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:9">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>224</v>
+      </c>
+      <c r="I17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:9">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:9">
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:9">
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>230</v>
+      </c>
+      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:3">
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:4">
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:4">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:4">
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:4">
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:4">
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:4">
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15611" windowHeight="6875" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="250">
   <si>
     <t>序号</t>
   </si>
@@ -641,10 +641,16 @@
     <t>通达信地区板块数据</t>
   </si>
   <si>
-    <t>tdx_stock_concept_plate</t>
-  </si>
-  <si>
-    <t>tdx_stock_region_plate</t>
+    <t>通达信行业板块数据</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_concept_plate</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_region_plate</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_industry_plate</t>
   </si>
   <si>
     <t xml:space="preserve">ymd         </t>
@@ -665,6 +671,9 @@
     <t>地区板块代码</t>
   </si>
   <si>
+    <t>行业板块代码</t>
+  </si>
+  <si>
     <t>concept_name</t>
   </si>
   <si>
@@ -677,28 +686,37 @@
     <t>地区板块名称</t>
   </si>
   <si>
+    <t>行业板块名称</t>
+  </si>
+  <si>
     <t xml:space="preserve">stock_code  </t>
   </si>
   <si>
     <t xml:space="preserve">stock_code </t>
   </si>
   <si>
+    <t xml:space="preserve">stock_code   </t>
+  </si>
+  <si>
     <t xml:space="preserve">stock_name  </t>
   </si>
   <si>
     <t xml:space="preserve">stock_name </t>
   </si>
   <si>
+    <t xml:space="preserve">stock_name   </t>
+  </si>
+  <si>
     <t>通达信风格板块数据</t>
   </si>
   <si>
     <t>通达信指数板块数据</t>
   </si>
   <si>
-    <t>tdx_stock_style_plate</t>
-  </si>
-  <si>
-    <t>tdx_stock_index_plate</t>
+    <t>ods_tdx_stock_style_plate</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_index_plate</t>
   </si>
   <si>
     <t>style_code</t>
@@ -725,22 +743,43 @@
     <t>stock_name</t>
   </si>
   <si>
-    <t>通达信行业板块数据</t>
-  </si>
-  <si>
-    <t>tdx_stock_industry_plate</t>
-  </si>
-  <si>
-    <t>行业板块代码</t>
-  </si>
-  <si>
-    <t>行业板块名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock_code   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock_name   </t>
+    <t>多渠道来源</t>
+  </si>
+  <si>
+    <t>ods_stock_plate_redbook</t>
+  </si>
+  <si>
+    <t>ymd</t>
+  </si>
+  <si>
+    <t>plate_name</t>
+  </si>
+  <si>
+    <t>板块名称</t>
+  </si>
+  <si>
+    <t>标的代码</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>DWD层设计</t>
+  </si>
+  <si>
+    <t>汇总板块码表</t>
+  </si>
+  <si>
+    <t>ods_stock_a_total_plate</t>
+  </si>
+  <si>
+    <t>source_table</t>
+  </si>
+  <si>
+    <t>来源表</t>
   </si>
 </sst>
 </file>
@@ -1376,12 +1415,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1720,7 +1756,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="33.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="24.8888888888889" customWidth="1"/>
@@ -1728,21 +1764,21 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="20" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1756,7 +1792,7 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1770,7 +1806,7 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1784,7 +1820,7 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1798,7 +1834,7 @@
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1812,7 +1848,7 @@
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1826,7 +1862,7 @@
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1840,7 +1876,7 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1854,7 +1890,7 @@
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1868,7 +1904,7 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1882,7 +1918,7 @@
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1896,20 +1932,20 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:1">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:1">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" ht="20" customHeight="1"/>
     <row r="18" ht="20" customHeight="1"/>
@@ -1961,13 +1997,13 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
@@ -1979,7 +2015,7 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1989,21 +2025,21 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
@@ -2011,10 +2047,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
@@ -2022,7 +2058,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -2033,7 +2069,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -2044,16 +2080,16 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="7:7">
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="2:12">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2069,57 +2105,57 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M16" t="s">
@@ -2127,16 +2163,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" t="s">
@@ -2145,10 +2181,10 @@
       <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>2</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="M17" t="s">
@@ -2156,7 +2192,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -2165,16 +2201,16 @@
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" t="s">
@@ -2185,7 +2221,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -2194,7 +2230,7 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>4</v>
       </c>
       <c r="G19" t="s">
@@ -2203,7 +2239,7 @@
       <c r="H19" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>4</v>
       </c>
       <c r="L19" t="s">
@@ -2214,7 +2250,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -2223,7 +2259,7 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>5</v>
       </c>
       <c r="G20" t="s">
@@ -2232,7 +2268,7 @@
       <c r="H20" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>5</v>
       </c>
       <c r="L20" t="s">
@@ -2243,7 +2279,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -2252,7 +2288,7 @@
       <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>6</v>
       </c>
       <c r="G21" t="s">
@@ -2261,7 +2297,7 @@
       <c r="H21" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>6</v>
       </c>
       <c r="L21" t="s">
@@ -2272,7 +2308,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>7</v>
       </c>
       <c r="B22" t="s">
@@ -2281,7 +2317,7 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>7</v>
       </c>
       <c r="G22" t="s">
@@ -2290,7 +2326,7 @@
       <c r="H22" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>7</v>
       </c>
       <c r="L22" t="s">
@@ -2301,7 +2337,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -2310,7 +2346,7 @@
       <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -2321,16 +2357,16 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2349,75 +2385,75 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H30" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>1</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>86</v>
       </c>
       <c r="M30" t="s">
         <v>32</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="1">
         <v>1</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="4" t="s">
         <v>87</v>
       </c>
       <c r="R30" t="s">
@@ -2425,25 +2461,25 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>2</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H31" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>2</v>
       </c>
       <c r="L31" t="s">
@@ -2452,10 +2488,10 @@
       <c r="M31" t="s">
         <v>92</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="1">
         <v>2</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="4" t="s">
         <v>93</v>
       </c>
       <c r="R31" t="s">
@@ -2463,7 +2499,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
       <c r="B32" t="s">
@@ -2472,7 +2508,7 @@
       <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" t="s">
@@ -2481,7 +2517,7 @@
       <c r="H32" t="s">
         <v>96</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>3</v>
       </c>
       <c r="L32" t="s">
@@ -2490,7 +2526,7 @@
       <c r="M32" t="s">
         <v>98</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="1">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
@@ -2501,7 +2537,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -2510,7 +2546,7 @@
       <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>4</v>
       </c>
       <c r="G33" t="s">
@@ -2519,16 +2555,16 @@
       <c r="H33" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>4</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M33" t="s">
         <v>105</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
@@ -2539,7 +2575,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -2548,7 +2584,7 @@
       <c r="C34" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>5</v>
       </c>
       <c r="G34" t="s">
@@ -2557,7 +2593,7 @@
       <c r="H34" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>5</v>
       </c>
       <c r="L34" t="s">
@@ -2566,7 +2602,7 @@
       <c r="M34" t="s">
         <v>111</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="1">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
@@ -2577,7 +2613,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>6</v>
       </c>
       <c r="B35" t="s">
@@ -2586,7 +2622,7 @@
       <c r="C35" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="G35" t="s">
@@ -2595,7 +2631,7 @@
       <c r="H35" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>6</v>
       </c>
       <c r="L35" t="s">
@@ -2604,7 +2640,7 @@
       <c r="M35" t="s">
         <v>117</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="1">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
@@ -2615,7 +2651,7 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -2624,7 +2660,7 @@
       <c r="C36" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>7</v>
       </c>
       <c r="G36" t="s">
@@ -2633,7 +2669,7 @@
       <c r="H36" t="s">
         <v>121</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>7</v>
       </c>
       <c r="L36" t="s">
@@ -2642,7 +2678,7 @@
       <c r="M36" t="s">
         <v>123</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="1">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
@@ -2653,13 +2689,13 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>8</v>
       </c>
       <c r="G37" t="s">
@@ -2668,7 +2704,7 @@
       <c r="H37" t="s">
         <v>127</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>8</v>
       </c>
       <c r="L37" t="s">
@@ -2677,7 +2713,7 @@
       <c r="M37" t="s">
         <v>129</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="1">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
@@ -2688,13 +2724,13 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>9</v>
       </c>
       <c r="G38" t="s">
@@ -2703,7 +2739,7 @@
       <c r="H38" t="s">
         <v>133</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>9</v>
       </c>
       <c r="L38" t="s">
@@ -2712,7 +2748,7 @@
       <c r="M38" t="s">
         <v>135</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="1">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
@@ -2723,7 +2759,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="6:18">
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>10</v>
       </c>
       <c r="G39" t="s">
@@ -2732,7 +2768,7 @@
       <c r="H39" t="s">
         <v>138</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>10</v>
       </c>
       <c r="L39" t="s">
@@ -2741,7 +2777,7 @@
       <c r="M39" t="s">
         <v>140</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="1">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
@@ -2752,10 +2788,10 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:18">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -2764,7 +2800,7 @@
       <c r="H40" t="s">
         <v>143</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="1">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
@@ -2778,7 +2814,7 @@
       <c r="B41" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>12</v>
       </c>
       <c r="G41" t="s">
@@ -2789,16 +2825,16 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>13</v>
       </c>
       <c r="G42" t="s">
@@ -2809,16 +2845,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>14</v>
       </c>
       <c r="G43" t="s">
@@ -2829,7 +2865,7 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -2838,7 +2874,7 @@
       <c r="C44" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -2849,16 +2885,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>3</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>16</v>
       </c>
       <c r="G45" t="s">
@@ -2869,7 +2905,7 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>4</v>
       </c>
       <c r="B46" t="s">
@@ -2878,7 +2914,7 @@
       <c r="C46" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>17</v>
       </c>
       <c r="G46" t="s">
@@ -2889,7 +2925,7 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -2898,7 +2934,7 @@
       <c r="C47" t="s">
         <v>162</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>18</v>
       </c>
       <c r="G47" t="s">
@@ -2909,7 +2945,7 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>6</v>
       </c>
       <c r="B48" t="s">
@@ -2918,7 +2954,7 @@
       <c r="C48" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>19</v>
       </c>
       <c r="G48" t="s">
@@ -2929,7 +2965,7 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -2938,7 +2974,7 @@
       <c r="C49" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>20</v>
       </c>
       <c r="G49" t="s">
@@ -2949,7 +2985,7 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="6:8">
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>21</v>
       </c>
       <c r="G50" t="s">
@@ -2960,7 +2996,7 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="6:8">
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>22</v>
       </c>
       <c r="G51" t="s">
@@ -2971,7 +3007,7 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="6:8">
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>23</v>
       </c>
       <c r="G52" t="s">
@@ -2982,10 +3018,10 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:8">
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>24</v>
       </c>
       <c r="G53" t="s">
@@ -2999,7 +3035,7 @@
       <c r="B54" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>25</v>
       </c>
       <c r="G54" t="s">
@@ -3010,16 +3046,16 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>26</v>
       </c>
       <c r="G55" t="s">
@@ -3030,16 +3066,16 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>1</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>27</v>
       </c>
       <c r="G56" t="s">
@@ -3050,19 +3086,19 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>2</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C57" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="2"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>3</v>
       </c>
       <c r="B58" t="s">
@@ -3071,10 +3107,10 @@
       <c r="C58" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>4</v>
       </c>
       <c r="B59" t="s">
@@ -3083,10 +3119,10 @@
       <c r="C59" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" customHeight="1" spans="6:6">
-      <c r="F60" s="2"/>
+      <c r="F60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3106,13 +3142,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3122,21 +3158,21 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D7" t="s">
@@ -3144,10 +3180,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D8" t="s">
@@ -3155,7 +3191,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -3166,7 +3202,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -3177,7 +3213,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -3188,7 +3224,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>6</v>
       </c>
       <c r="C12" t="s">
@@ -3199,7 +3235,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
       <c r="C13" t="s">
@@ -3219,68 +3255,83 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:I30"/>
+  <dimension ref="B3:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="8.88888888888889" style="1"/>
-    <col min="3" max="3" width="21.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="8.88888888888889" style="1"/>
-    <col min="8" max="8" width="26.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="2:8">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" customHeight="1" spans="3:13">
+      <c r="C3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:8">
-      <c r="B4" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="3:13">
       <c r="C4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>204</v>
+      </c>
       <c r="H4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:9">
-      <c r="B5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:14">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:9">
+      <c r="L5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:14">
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -3289,58 +3340,85 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:9">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:9">
+        <v>212</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:9">
+        <v>217</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -3349,18 +3427,27 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:9">
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
         <v>100</v>
@@ -3369,49 +3456,54 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:8">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:8">
-      <c r="B14" s="2"/>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>224</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:8">
+      <c r="C13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:8">
       <c r="C14" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>227</v>
+      </c>
       <c r="H14" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3440,19 +3532,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -3460,19 +3552,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -3480,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -3489,7 +3581,7 @@
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
@@ -3500,7 +3592,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
         <v>100</v>
@@ -3509,88 +3601,178 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="2:3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:3">
-      <c r="B24" s="2"/>
-      <c r="C24" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:4">
-      <c r="B25" s="4" t="s">
+    <row r="23" customHeight="1" spans="2:2">
+      <c r="B23" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:3">
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:4">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:4">
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
       <c r="B28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
       <c r="B29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
       <c r="B30" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:4">
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:2">
+      <c r="B34" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:3">
+      <c r="C35" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:3">
+      <c r="C36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:4">
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:4">
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:4">
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:4">
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:4">
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:4">
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
     <sheet name="Tinsight" sheetId="2" r:id="rId2"/>
     <sheet name="Tvantage" sheetId="3" r:id="rId3"/>
     <sheet name="TDX" sheetId="4" r:id="rId4"/>
+    <sheet name="DWD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="262">
   <si>
     <t>序号</t>
   </si>
@@ -780,6 +781,42 @@
   </si>
   <si>
     <t>来源表</t>
+  </si>
+  <si>
+    <t>涨停股票清单</t>
+  </si>
+  <si>
+    <t>跌停股票清单</t>
+  </si>
+  <si>
+    <t>dwd_stock_ZT_list</t>
+  </si>
+  <si>
+    <t>dwd_stock_DT_list</t>
+  </si>
+  <si>
+    <t>last_close</t>
+  </si>
+  <si>
+    <t>昨日收盘</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>涨幅</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1788,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1997,8 +2034,8 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -3257,8 +3294,8 @@
   <sheetPr/>
   <dimension ref="B3:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
@@ -3779,4 +3816,227 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="26.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="19.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" customHeight="1" spans="2:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:8">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:9">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:9">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:9">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:9">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:9">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:9">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:9">
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:9">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:9">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,29 @@
     <sheet name="TDX" sheetId="4" r:id="rId4"/>
     <sheet name="DWD" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$22</definedName>
+    <definedName name="当日已上市股票码表">Tinsight!$B$4</definedName>
+    <definedName name="当日已上市股票的历史日K">Tinsight!$B$13</definedName>
+    <definedName name="大A的主要指数日K">Tinsight!$G$13</definedName>
+    <definedName name="当日大A行情温度">Tinsight!$L$13</definedName>
+    <definedName name="内盘主要期货数据日K">Tinsight!$B$27</definedName>
+    <definedName name="A股的筹码分布数据">Tinsight!$G$27</definedName>
+    <definedName name="行业分类_申万三级分类">Tinsight!$L$27</definedName>
+    <definedName name="华泰股票行业明细">Tinsight!$Q$27</definedName>
+    <definedName name="个股的股东数">Tinsight!$B$40</definedName>
+    <definedName name="北向持仓数据">Tinsight!$B$53</definedName>
+    <definedName name="美股_日K">Tvantage!$C$4</definedName>
+    <definedName name="通达信概念板块数据">TDX!$C$3</definedName>
+    <definedName name="通达信地区板块数据">TDX!$H$3</definedName>
+    <definedName name="通达信行业板块数据">TDX!$M$3</definedName>
+    <definedName name="通达信风格板块数据">TDX!$C$13</definedName>
+    <definedName name="通达信指数板块数据">TDX!$H$13</definedName>
+    <definedName name="小红书渠道个股板块数据">TDX!$C$24</definedName>
+    <definedName name="汇总板块码表">DWD!$C$27</definedName>
+    <definedName name="跌停股票清单">DWD!$H$39</definedName>
+    <definedName name="涨停股票清单">DWD!$C$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,11 +54,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="280">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>分层</t>
+  </si>
+  <si>
+    <t>分域</t>
+  </si>
+  <si>
     <t>数据来源</t>
   </si>
   <si>
@@ -45,531 +74,585 @@
     <t>表中文名</t>
   </si>
   <si>
+    <t>更新频率</t>
+  </si>
+  <si>
+    <t>ODS</t>
+  </si>
+  <si>
+    <t>基础域</t>
+  </si>
+  <si>
     <t>insight</t>
   </si>
   <si>
     <t>ods_stock_code_daily_insight</t>
   </si>
   <si>
+    <t>每日17点</t>
+  </si>
+  <si>
+    <t>ods_stock_chouma_insight</t>
+  </si>
+  <si>
+    <t>ods_shareholder_num</t>
+  </si>
+  <si>
+    <t>ods_north_bound_daily</t>
+  </si>
+  <si>
+    <t>行情数据</t>
+  </si>
+  <si>
+    <t>ods_stock_kline_daily_insight</t>
+  </si>
+  <si>
+    <t>ods_index_a_share_insight</t>
+  </si>
+  <si>
+    <t>ods_future_inside_insight</t>
+  </si>
+  <si>
+    <t>vantage</t>
+  </si>
+  <si>
+    <t>ods_us_stock_daily_vantage</t>
+  </si>
+  <si>
+    <t>大盘情绪</t>
+  </si>
+  <si>
+    <t>ods_stock_limit_summary_insight</t>
+  </si>
+  <si>
+    <t>行业标签</t>
+  </si>
+  <si>
+    <t>ods_astock_industry_overview</t>
+  </si>
+  <si>
+    <t>ods_astock_industry_detail</t>
+  </si>
+  <si>
+    <t>TDX</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_concept_plate</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_region_plate</t>
+  </si>
+  <si>
+    <t>dwd_stock_a_total_plate</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_industry_plate</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_style_plate</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_index_plate</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>ods_stock_plate_redbook</t>
+  </si>
+  <si>
+    <t>DWD</t>
+  </si>
+  <si>
+    <t>dwd_stock_ZT_list</t>
+  </si>
+  <si>
+    <t>dwd_stock_DT_list</t>
+  </si>
+  <si>
     <t>当日已上市股票码表</t>
   </si>
   <si>
-    <t>ods_stock_kline_daily_insight</t>
+    <t>quant.ods_stock_code_daily_insight</t>
+  </si>
+  <si>
+    <t>字段英文名称</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd       </t>
+  </si>
+  <si>
+    <t>交易日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htsc_code </t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name      </t>
+  </si>
+  <si>
+    <t>股票名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange  </t>
+  </si>
+  <si>
+    <t>交易所名称</t>
   </si>
   <si>
     <t>当日已上市股票的历史日K</t>
   </si>
   <si>
-    <t>ods_index_a_share_insight</t>
-  </si>
-  <si>
     <t>大A的主要指数日K</t>
   </si>
   <si>
-    <t>ods_stock_limit_summary_insight</t>
-  </si>
-  <si>
     <t>当日大A行情温度</t>
   </si>
   <si>
-    <t>ods_future_inside_insight</t>
+    <t>quant.ods_stock_kline_daily_insight</t>
+  </si>
+  <si>
+    <t>quant.ods_index_a_share_insight</t>
+  </si>
+  <si>
+    <t>quant.ods_stock_limit_summary_insight</t>
+  </si>
+  <si>
+    <t>htsc_code</t>
+  </si>
+  <si>
+    <t>指数代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd              </t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name     </t>
+  </si>
+  <si>
+    <t>指数名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name             </t>
+  </si>
+  <si>
+    <t>市场名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open      </t>
+  </si>
+  <si>
+    <t>开盘价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">today_ZT         </t>
+  </si>
+  <si>
+    <t>今日涨停股票数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close     </t>
+  </si>
+  <si>
+    <t>收盘价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">today_DT         </t>
+  </si>
+  <si>
+    <t>今日跌停股票数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high      </t>
+  </si>
+  <si>
+    <t>最高价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yesterday_ZT     </t>
+  </si>
+  <si>
+    <t>昨日涨停股票数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low       </t>
+  </si>
+  <si>
+    <t>最低价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yesterday_DT     </t>
+  </si>
+  <si>
+    <t>昨日跌停股票数</t>
+  </si>
+  <si>
+    <t>num_trades</t>
+  </si>
+  <si>
+    <t>交易笔数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low      </t>
+  </si>
+  <si>
+    <t>yesterday_ZT_rate</t>
+  </si>
+  <si>
+    <t>昨日涨停股票的今日平均涨幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume    </t>
+  </si>
+  <si>
+    <t>成交量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume   </t>
   </si>
   <si>
     <t>内盘主要期货数据日K</t>
   </si>
   <si>
-    <t>ods_stock_chouma_insight</t>
-  </si>
-  <si>
     <t>A股的筹码分布数据</t>
   </si>
   <si>
-    <t>ods_shareholder_num</t>
+    <t>行业分类_申万三级分类</t>
+  </si>
+  <si>
+    <t>华泰股票行业明细</t>
+  </si>
+  <si>
+    <t>quant.ods_future_inside_insight</t>
+  </si>
+  <si>
+    <t>quant.ods_stock_chouma_insight</t>
+  </si>
+  <si>
+    <t>quant.ods_astock_industry_overview</t>
+  </si>
+  <si>
+    <t>quant.ods_astock_industry_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htsc_code     </t>
+  </si>
+  <si>
+    <t>期货标的代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htsc_code                          </t>
+  </si>
+  <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd                                </t>
+  </si>
+  <si>
+    <t>交易日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classified   </t>
+  </si>
+  <si>
+    <t>行业分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htsc_code      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">open          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange                           </t>
+  </si>
+  <si>
+    <t>交易所</t>
+  </si>
+  <si>
+    <t>industry_name</t>
+  </si>
+  <si>
+    <t>行业名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name           </t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">last                               </t>
+  </si>
+  <si>
+    <t>最新价格</t>
+  </si>
+  <si>
+    <t>industry_code</t>
+  </si>
+  <si>
+    <t>行业代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industry_name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">high          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prev_close                         </t>
+  </si>
+  <si>
+    <t>昨收价格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l1_code      </t>
+  </si>
+  <si>
+    <t>一级行业代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industry_code  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">low           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_share                        </t>
+  </si>
+  <si>
+    <t>总股本（股）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l1_name      </t>
+  </si>
+  <si>
+    <t>一级行业名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l1_code        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_total_share                      </t>
+  </si>
+  <si>
+    <t>A股总数(股)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l2_code      </t>
+  </si>
+  <si>
+    <t>二级行业代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l1_name        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">open_interest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_listed_share                     </t>
+  </si>
+  <si>
+    <t>流通a股（万股）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l2_name      </t>
+  </si>
+  <si>
+    <t>二级行业名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l2_code        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">settle        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">listed_share                       </t>
+  </si>
+  <si>
+    <t>流通股总数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l3_code      </t>
+  </si>
+  <si>
+    <t>三级行业代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l2_name        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">restricted_share                   </t>
+  </si>
+  <si>
+    <t>限售股总数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l3_name      </t>
+  </si>
+  <si>
+    <t>三级行业名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l3_code        </t>
   </si>
   <si>
     <t>个股的股东数</t>
   </si>
   <si>
-    <t>ods_north_bound_daily</t>
+    <t xml:space="preserve">cost_5pct                          </t>
+  </si>
+  <si>
+    <t>5分位持仓成本（持仓成本最低的 5%的持仓成本）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l3_name        </t>
+  </si>
+  <si>
+    <t>quant.ods_shareholder_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost_15pct                         </t>
+  </si>
+  <si>
+    <t>15分位持仓成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost_50pct                         </t>
+  </si>
+  <si>
+    <t>50分位持仓成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htsc_code        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost_85pct                         </t>
+  </si>
+  <si>
+    <t>85分位持仓成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost_95pct                         </t>
+  </si>
+  <si>
+    <t>95分位持仓成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_cost                           </t>
+  </si>
+  <si>
+    <t>流通股加权平均持仓成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_sh         </t>
+  </si>
+  <si>
+    <t>总股东数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_cost                           </t>
+  </si>
+  <si>
+    <t>流通股最大持仓成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_share        </t>
+  </si>
+  <si>
+    <t>每个股东平均持股数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_cost                           </t>
+  </si>
+  <si>
+    <t>流通股最小持仓成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pct_of_total_sh  </t>
+  </si>
+  <si>
+    <t>股东数较上期环比波动百分比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winner_rate                        </t>
+  </si>
+  <si>
+    <t>流通股获利胜率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pct_of_avg_sh    </t>
+  </si>
+  <si>
+    <t>每个股东平均持股数较上期环比波动百分比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diversity                          </t>
+  </si>
+  <si>
+    <t>流通股筹码分散程度百分比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre_winner_rate                    </t>
+  </si>
+  <si>
+    <t>流通股昨日获利胜率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restricted_avg_cost                </t>
+  </si>
+  <si>
+    <t>限售股平均持仓成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restricted_max_cost                </t>
+  </si>
+  <si>
+    <t>限售股最大持仓成本</t>
   </si>
   <si>
     <t>北向持仓数据</t>
   </si>
   <si>
-    <t>ods_astock_industry_overview</t>
-  </si>
-  <si>
-    <t>行业分类，申万三级分类</t>
-  </si>
-  <si>
-    <t>ods_astock_industry_detail</t>
-  </si>
-  <si>
-    <t>股票&amp;行业的关联</t>
-  </si>
-  <si>
-    <t>vantage</t>
-  </si>
-  <si>
-    <t>ods_us_stock_daily_vantage</t>
-  </si>
-  <si>
-    <t>美股 日K</t>
-  </si>
-  <si>
-    <t>quant.ods_stock_code_daily_insight</t>
-  </si>
-  <si>
-    <t>字段英文名称</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ymd       </t>
-  </si>
-  <si>
-    <t>交易日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htsc_code </t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name      </t>
-  </si>
-  <si>
-    <t>股票名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exchange  </t>
-  </si>
-  <si>
-    <t>交易所名称</t>
-  </si>
-  <si>
-    <t>quant.ods_stock_kline_daily_insight</t>
-  </si>
-  <si>
-    <t>quant.ods_index_a_share_insight</t>
-  </si>
-  <si>
-    <t>quant.ods_stock_limit_summary_insight</t>
-  </si>
-  <si>
-    <t>htsc_code</t>
-  </si>
-  <si>
-    <t>指数代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ymd              </t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name     </t>
-  </si>
-  <si>
-    <t>指数名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name             </t>
-  </si>
-  <si>
-    <t>市场名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open      </t>
-  </si>
-  <si>
-    <t>开盘价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ymd      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">today_ZT         </t>
-  </si>
-  <si>
-    <t>今日涨停股票数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close     </t>
-  </si>
-  <si>
-    <t>收盘价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">today_DT         </t>
-  </si>
-  <si>
-    <t>今日跌停股票数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high      </t>
-  </si>
-  <si>
-    <t>最高价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yesterday_ZT     </t>
-  </si>
-  <si>
-    <t>昨日涨停股票数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low       </t>
-  </si>
-  <si>
-    <t>最低价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yesterday_DT     </t>
-  </si>
-  <si>
-    <t>昨日跌停股票数</t>
-  </si>
-  <si>
-    <t>num_trades</t>
-  </si>
-  <si>
-    <t>交易笔数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low      </t>
-  </si>
-  <si>
-    <t>yesterday_ZT_rate</t>
-  </si>
-  <si>
-    <t>昨日涨停股票的今日平均涨幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume    </t>
-  </si>
-  <si>
-    <t>成交量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume   </t>
-  </si>
-  <si>
-    <t>quant.ods_future_inside_insight</t>
-  </si>
-  <si>
-    <t>quant.ods_stock_chouma_insight</t>
-  </si>
-  <si>
-    <t>quant.ods_astock_industry_overview</t>
-  </si>
-  <si>
-    <t>quant.ods_astock_industry_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htsc_code     </t>
-  </si>
-  <si>
-    <t>期货标的代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htsc_code                          </t>
-  </si>
-  <si>
-    <t>证券代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ymd          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ymd            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ymd           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ymd                                </t>
-  </si>
-  <si>
-    <t>交易日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classified   </t>
-  </si>
-  <si>
-    <t>行业分类</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htsc_code      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">open          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">exchange                           </t>
-  </si>
-  <si>
-    <t>交易所</t>
-  </si>
-  <si>
-    <t>industry_name</t>
-  </si>
-  <si>
-    <t>行业名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name           </t>
-  </si>
-  <si>
-    <t>股票名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">last                               </t>
-  </si>
-  <si>
-    <t>最新价格</t>
-  </si>
-  <si>
-    <t>industry_code</t>
-  </si>
-  <si>
-    <t>行业代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">industry_name  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">high          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">prev_close                         </t>
-  </si>
-  <si>
-    <t>昨收价格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l1_code      </t>
-  </si>
-  <si>
-    <t>一级行业代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">industry_code  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">low           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_share                        </t>
-  </si>
-  <si>
-    <t>总股本（股）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l1_name      </t>
-  </si>
-  <si>
-    <t>一级行业名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l1_code        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_total_share                      </t>
-  </si>
-  <si>
-    <t>A股总数(股)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l2_code      </t>
-  </si>
-  <si>
-    <t>二级行业代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l1_name        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">open_interest </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_listed_share                     </t>
-  </si>
-  <si>
-    <t>流通a股（万股）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l2_name      </t>
-  </si>
-  <si>
-    <t>二级行业名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l2_code        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">settle        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">listed_share                       </t>
-  </si>
-  <si>
-    <t>流通股总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l3_code      </t>
-  </si>
-  <si>
-    <t>三级行业代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l2_name        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">restricted_share                   </t>
-  </si>
-  <si>
-    <t>限售股总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l3_name      </t>
-  </si>
-  <si>
-    <t>三级行业名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l3_code        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_5pct                          </t>
-  </si>
-  <si>
-    <t>5分位持仓成本（持仓成本最低的 5%的持仓成本）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l3_name        </t>
-  </si>
-  <si>
-    <t>quant.ods_shareholder_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_15pct                         </t>
-  </si>
-  <si>
-    <t>15分位持仓成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_50pct                         </t>
-  </si>
-  <si>
-    <t>50分位持仓成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">htsc_code        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_85pct                         </t>
-  </si>
-  <si>
-    <t>85分位持仓成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_95pct                         </t>
-  </si>
-  <si>
-    <t>95分位持仓成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_cost                           </t>
-  </si>
-  <si>
-    <t>流通股加权平均持仓成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_sh         </t>
-  </si>
-  <si>
-    <t>总股东数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_cost                           </t>
-  </si>
-  <si>
-    <t>流通股最大持仓成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_share        </t>
-  </si>
-  <si>
-    <t>每个股东平均持股数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_cost                           </t>
-  </si>
-  <si>
-    <t>流通股最小持仓成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pct_of_total_sh  </t>
-  </si>
-  <si>
-    <t>股东数较上期环比波动百分比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winner_rate                        </t>
-  </si>
-  <si>
-    <t>流通股获利胜率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pct_of_avg_sh    </t>
-  </si>
-  <si>
-    <t>每个股东平均持股数较上期环比波动百分比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diversity                          </t>
-  </si>
-  <si>
-    <t>流通股筹码分散程度百分比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre_winner_rate                    </t>
-  </si>
-  <si>
-    <t>流通股昨日获利胜率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restricted_avg_cost                </t>
-  </si>
-  <si>
-    <t>限售股平均持仓成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restricted_max_cost                </t>
-  </si>
-  <si>
-    <t>限售股最大持仓成本</t>
-  </si>
-  <si>
     <t xml:space="preserve">restricted_min_cost                </t>
   </si>
   <si>
@@ -609,7 +692,7 @@
     <t>北向资金持有股票占比</t>
   </si>
   <si>
-    <t>US 日K线</t>
+    <t>美股_日K</t>
   </si>
   <si>
     <t xml:space="preserve">name  </t>
@@ -645,15 +728,6 @@
     <t>通达信行业板块数据</t>
   </si>
   <si>
-    <t>ods_tdx_stock_concept_plate</t>
-  </si>
-  <si>
-    <t>ods_tdx_stock_region_plate</t>
-  </si>
-  <si>
-    <t>ods_tdx_stock_industry_plate</t>
-  </si>
-  <si>
     <t xml:space="preserve">ymd         </t>
   </si>
   <si>
@@ -714,12 +788,6 @@
     <t>通达信指数板块数据</t>
   </si>
   <si>
-    <t>ods_tdx_stock_style_plate</t>
-  </si>
-  <si>
-    <t>ods_tdx_stock_index_plate</t>
-  </si>
-  <si>
     <t>style_code</t>
   </si>
   <si>
@@ -747,7 +815,7 @@
     <t>多渠道来源</t>
   </si>
   <si>
-    <t>ods_stock_plate_redbook</t>
+    <t>小红书渠道个股板块数据</t>
   </si>
   <si>
     <t>ymd</t>
@@ -768,33 +836,33 @@
     <t>备注</t>
   </si>
   <si>
-    <t>DWD层设计</t>
-  </si>
-  <si>
     <t>汇总板块码表</t>
   </si>
   <si>
-    <t>ods_stock_a_total_plate</t>
-  </si>
-  <si>
     <t>source_table</t>
   </si>
   <si>
     <t>来源表</t>
   </si>
   <si>
+    <t xml:space="preserve">加一个标的_股本数  </t>
+  </si>
+  <si>
+    <t>算市值</t>
+  </si>
+  <si>
+    <t>可以按周的维度，手工去加载数据</t>
+  </si>
+  <si>
+    <t>净资产</t>
+  </si>
+  <si>
     <t>涨停股票清单</t>
   </si>
   <si>
     <t>跌停股票清单</t>
   </si>
   <si>
-    <t>dwd_stock_ZT_list</t>
-  </si>
-  <si>
-    <t>dwd_stock_DT_list</t>
-  </si>
-  <si>
     <t>last_close</t>
   </si>
   <si>
@@ -817,6 +885,15 @@
   </si>
   <si>
     <t>涨幅</t>
+  </si>
+  <si>
+    <t>对</t>
+  </si>
+  <si>
+    <t>打上创业、主板、科创、北证等的标识</t>
+  </si>
+  <si>
+    <t>北证的数据呢？ 能不能找到北证的stock_code</t>
   </si>
 </sst>
 </file>
@@ -829,7 +906,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,15 +923,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.3"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,7 +933,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1325,130 +1396,130 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1471,7 +1542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,6 +1604,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>572135</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1691005</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右大括号 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9990455" y="3601720"/>
+          <a:ext cx="1118870" cy="1770380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,220 +1912,541 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="33.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="24.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="26.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="21.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="20" customHeight="1" spans="1:4">
+    <row r="2" ht="20" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
+        <v>当日已上市股票码表</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
+        <v>A股的筹码分布数据</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:4">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
+        <v>个股的股东数</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
+        <v>北向持仓数据</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:4">
+    </row>
+    <row r="7" ht="20" customHeight="1"/>
+    <row r="8" ht="20" customHeight="1" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:4">
+      <c r="F8" s="6" t="str">
+        <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
+        <v>当日已上市股票的历史日K</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:4">
+      <c r="F9" s="6" t="str">
+        <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
+        <v>大A的主要指数日K</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
+        <v>内盘主要期货数据日K</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f>HYPERLINK("#美股_日K",美股_日K)</f>
+        <v>美股_日K</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="6:6">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
+        <v>当日大A行情温度</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1"/>
+    <row r="15" ht="20" customHeight="1" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:3">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
+        <v>行业分类_申万三级分类</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" ht="20" customHeight="1"/>
-    <row r="18" ht="20" customHeight="1"/>
-    <row r="19" ht="20" customHeight="1"/>
-    <row r="20" ht="20" customHeight="1"/>
-    <row r="21" ht="20" customHeight="1"/>
-    <row r="22" ht="20" customHeight="1"/>
-    <row r="23" ht="20" customHeight="1"/>
-    <row r="24" ht="20" customHeight="1"/>
-    <row r="25" ht="20" customHeight="1"/>
-    <row r="26" ht="20" customHeight="1"/>
-    <row r="27" ht="20" customHeight="1"/>
-    <row r="28" ht="20" customHeight="1"/>
-    <row r="29" ht="20" customHeight="1"/>
-    <row r="30" ht="20" customHeight="1"/>
-    <row r="31" ht="20" customHeight="1"/>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
+        <v>华泰股票行业明细</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
+        <v>通达信概念板块数据</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:12">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
+        <v>通达信地区板块数据</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="6" t="str">
+        <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
+        <v>汇总板块码表</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
+        <v>通达信行业板块数据</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
+        <v>通达信风格板块数据</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
+        <v>通达信指数板块数据</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
+        <v>小红书渠道个股板块数据</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="6:6">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="6:6">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="6:6">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="6:6">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="6:6">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="6" t="str">
+        <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
+        <v>汇总板块码表</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="6" t="str">
+        <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
+        <v>涨停股票清单</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
+        <v>跌停股票清单</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="32" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
@@ -2022,10 +2470,22 @@
     <row r="52" ht="20" customHeight="1"/>
     <row r="53" ht="20" customHeight="1"/>
     <row r="54" ht="20" customHeight="1"/>
+    <row r="55" ht="20" customHeight="1"/>
+    <row r="56" ht="20" customHeight="1"/>
+    <row r="57" ht="20" customHeight="1"/>
+    <row r="58" ht="20" customHeight="1"/>
+    <row r="59" ht="20" customHeight="1"/>
+    <row r="60" ht="20" customHeight="1"/>
+    <row r="61" ht="20" customHeight="1"/>
+    <row r="62" ht="20" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A2:K22">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2034,8 +2494,8 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -2046,19 +2506,19 @@
     <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="35.1111111111111" customWidth="1"/>
     <col min="12" max="12" width="19.7777777777778" customWidth="1"/>
-    <col min="13" max="13" width="13.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="28.6666666666667" customWidth="1"/>
     <col min="17" max="17" width="17.5555555555556" customWidth="1"/>
     <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
@@ -2066,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -2077,10 +2537,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -2088,10 +2548,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -2099,10 +2559,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -2110,10 +2570,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="7:7">
@@ -2121,24 +2581,24 @@
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -2146,28 +2606,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -2175,28 +2635,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
@@ -2204,28 +2664,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
@@ -2233,28 +2693,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="M18" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
@@ -2262,28 +2722,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K19" s="1">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
@@ -2291,28 +2751,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
@@ -2320,28 +2780,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="K21" s="1">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="M21" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
@@ -2349,28 +2809,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K22" s="1">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="M22" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
@@ -2378,47 +2838,47 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:17">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="Q28" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -2426,37 +2886,37 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
@@ -2464,37 +2924,37 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P30" s="1">
         <v>1</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="R30" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
@@ -2502,37 +2962,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="M31" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="P31" s="1">
         <v>2</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="R31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -2540,37 +3000,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="K32" s="1">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="M32" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="P32" s="1">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="R32" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -2578,37 +3038,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="K33" s="1">
         <v>4</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="M33" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="P33" s="1">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="R33" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -2616,37 +3076,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="K34" s="1">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M34" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="P34" s="1">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="R34" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -2654,37 +3114,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H35" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="K35" s="1">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M35" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P35" s="1">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="R35" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -2692,37 +3152,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H36" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="K36" s="1">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="M36" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="P36" s="1">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="R36" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -2730,34 +3190,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F37" s="1">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="K37" s="1">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="M37" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P37" s="1">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="R37" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -2765,34 +3225,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F38" s="1">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="H38" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="K38" s="1">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="M38" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P38" s="1">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="R38" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="6:18">
@@ -2800,65 +3260,65 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="K39" s="1">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="M39" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P39" s="1">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="R39" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:18">
       <c r="B40" s="2" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="F40" s="1">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="P40" s="1">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="R40" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:8">
       <c r="B41" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F41" s="1">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
@@ -2866,19 +3326,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F42" s="1">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H42" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
@@ -2886,19 +3346,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F43" s="1">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H43" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
@@ -2906,19 +3366,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F44" s="1">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:8">
@@ -2926,19 +3386,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F45" s="1">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:8">
@@ -2946,19 +3406,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F46" s="1">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="H46" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
@@ -2966,19 +3426,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F47" s="1">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="H47" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
@@ -2986,19 +3446,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F48" s="1">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="H48" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -3006,19 +3466,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F49" s="1">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H49" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="6:8">
@@ -3026,10 +3486,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H50" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="6:8">
@@ -3037,10 +3497,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H51" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="6:8">
@@ -3048,38 +3508,38 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="H52" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:8">
       <c r="B53" s="2" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="F53" s="1">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H53" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:8">
       <c r="B54" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F54" s="1">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H54" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -3087,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F55" s="1">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="H55" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
@@ -3107,19 +3567,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F56" s="1">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="H56" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
@@ -3127,10 +3587,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -3139,10 +3599,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -3151,10 +3611,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -3174,7 +3634,7 @@
   <dimension ref="B4:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B4:D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
@@ -3186,12 +3646,12 @@
   <sheetData>
     <row r="4" customHeight="1" spans="3:3">
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:3">
       <c r="C5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -3199,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -3210,10 +3670,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -3221,10 +3681,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -3232,10 +3692,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -3243,10 +3703,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -3254,10 +3714,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -3265,10 +3725,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3276,10 +3736,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3292,10 +3752,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:N43"/>
+  <dimension ref="B3:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
@@ -3312,26 +3772,26 @@
   <sheetData>
     <row r="3" customHeight="1" spans="3:13">
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:13">
       <c r="C4" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:14">
@@ -3339,28 +3799,28 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
@@ -3368,28 +3828,28 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
@@ -3397,28 +3857,28 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
@@ -3426,28 +3886,28 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="N8" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:14">
@@ -3455,28 +3915,28 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
@@ -3484,44 +3944,44 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
       <c r="C13" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
       <c r="C14" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
@@ -3529,19 +3989,19 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
@@ -3549,19 +4009,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
@@ -3569,19 +4029,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="I17" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -3589,19 +4049,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" t="s">
         <v>232</v>
-      </c>
-      <c r="D18" t="s">
-        <v>215</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="I18" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -3609,19 +4069,19 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -3629,29 +4089,34 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>237</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:3">
+      <c r="C24" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:3">
       <c r="C25" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -3659,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -3670,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -3681,10 +4146,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -3692,10 +4157,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -3703,10 +4168,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -3714,102 +4179,119 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>245</v>
-      </c>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" customHeight="1" spans="3:3">
-      <c r="C36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="2:4">
-      <c r="B37" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:3">
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:4">
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
+      <c r="C38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
-        <v>241</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
       <c r="B41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D41" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
       <c r="B42" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
       <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:4">
+      <c r="B44" s="1">
         <v>6</v>
       </c>
-      <c r="C43" t="s">
-        <v>243</v>
-      </c>
-      <c r="D43" t="s">
-        <v>244</v>
+      <c r="C44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:5">
+      <c r="C49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:3">
+      <c r="C54" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3821,10 +4303,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:I13"/>
+  <dimension ref="B27:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
@@ -3835,204 +4317,309 @@
     <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="2:8">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+    <row r="27" customHeight="1" spans="2:3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:3">
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:4">
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:4">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:4">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:4">
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="D32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:4">
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:8">
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:9">
-      <c r="B5" s="3" t="s">
+      <c r="D33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:4">
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:4">
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:8">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:8">
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:9">
+      <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:9">
-      <c r="B6" s="1">
+      <c r="H41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:9">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="C42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>239</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:9">
-      <c r="B7" s="1">
+      <c r="H42" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:9">
+      <c r="B43" s="1">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" s="1">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:9">
-      <c r="B8" s="1">
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:9">
+      <c r="B44" s="1">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" s="1">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:9">
-      <c r="B9" s="1">
+      <c r="H44" t="s">
+        <v>269</v>
+      </c>
+      <c r="I44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:9">
+      <c r="B45" s="1">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="C45" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="1">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
-        <v>256</v>
-      </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:9">
-      <c r="B10" s="1">
+      <c r="H45" t="s">
+        <v>271</v>
+      </c>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:9">
+      <c r="B46" s="1">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="C46" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="1">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:9">
-      <c r="B11" s="1">
+      <c r="H46" t="s">
+        <v>272</v>
+      </c>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:9">
+      <c r="B47" s="1">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="C47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="1">
         <v>6</v>
       </c>
-      <c r="H11" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:9">
-      <c r="B12" s="1">
+      <c r="H47" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:9">
+      <c r="B48" s="1">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="C48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="1">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:9">
-      <c r="B13" s="1">
+      <c r="H48" t="s">
+        <v>274</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:9">
+      <c r="B49" s="1">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="C49" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G49" s="1">
         <v>8</v>
       </c>
-      <c r="H13" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" t="s">
-        <v>261</v>
+      <c r="H49" t="s">
+        <v>275</v>
+      </c>
+      <c r="I49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:4">
+      <c r="B54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:3">
+      <c r="C56" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="284">
   <si>
     <t>序号</t>
   </si>
@@ -855,6 +855,18 @@
   </si>
   <si>
     <t>净资产</t>
+  </si>
+  <si>
+    <t>dwd_stock_base_info</t>
+  </si>
+  <si>
+    <t>stock_type</t>
+  </si>
+  <si>
+    <t>stock_capital</t>
+  </si>
+  <si>
+    <t>net_asset</t>
   </si>
   <si>
     <t>涨停股票清单</t>
@@ -1523,17 +1535,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1915,15 +1930,15 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="12.1111111111111" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
@@ -1934,36 +1949,36 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="20" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -1972,7 +1987,7 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="7" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
@@ -1981,13 +1996,13 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -1996,7 +2011,7 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="7" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
@@ -2005,13 +2020,13 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
@@ -2020,7 +2035,7 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="7" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
@@ -2029,13 +2044,13 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
@@ -2044,7 +2059,7 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="7" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
@@ -2054,13 +2069,13 @@
     </row>
     <row r="7" ht="20" customHeight="1"/>
     <row r="8" ht="20" customHeight="1" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
@@ -2069,7 +2084,7 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="7" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
@@ -2078,13 +2093,13 @@
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
@@ -2093,7 +2108,7 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="str">
+      <c r="F9" s="7" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
@@ -2102,13 +2117,13 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
@@ -2117,7 +2132,7 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="6" t="str">
+      <c r="F10" s="7" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
@@ -2126,13 +2141,13 @@
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
@@ -2141,7 +2156,7 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="6" t="str">
+      <c r="F11" s="7" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
@@ -2150,16 +2165,16 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="6:6">
-      <c r="F12" s="6"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
@@ -2168,7 +2183,7 @@
       <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="6" t="str">
+      <c r="F13" s="7" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
@@ -2178,13 +2193,13 @@
     </row>
     <row r="14" ht="20" customHeight="1"/>
     <row r="15" ht="20" customHeight="1" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
@@ -2193,7 +2208,7 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="6" t="str">
+      <c r="F15" s="7" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
@@ -2202,13 +2217,13 @@
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:7">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
@@ -2217,7 +2232,7 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="6" t="str">
+      <c r="F16" s="7" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
@@ -2226,13 +2241,13 @@
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
@@ -2241,7 +2256,7 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="F17" s="7" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
@@ -2250,13 +2265,13 @@
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:12">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="s">
@@ -2265,7 +2280,7 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="6" t="str">
+      <c r="F18" s="7" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
@@ -2275,19 +2290,19 @@
       <c r="K18" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="6" t="str">
+      <c r="L18" s="7" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:7">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
@@ -2296,7 +2311,7 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="6" t="str">
+      <c r="F19" s="7" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
@@ -2305,13 +2320,13 @@
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
@@ -2320,7 +2335,7 @@
       <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="6" t="str">
+      <c r="F20" s="7" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
@@ -2329,13 +2344,13 @@
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
@@ -2344,7 +2359,7 @@
       <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="6" t="str">
+      <c r="F21" s="7" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
@@ -2353,13 +2368,13 @@
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
@@ -2368,7 +2383,7 @@
       <c r="E22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="6" t="str">
+      <c r="F22" s="7" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
@@ -2377,73 +2392,73 @@
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="6:6">
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="6:6">
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="6:6">
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="6:6">
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="6:6">
-      <c r="F27" s="6"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:6">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="6" t="str">
+      <c r="F28" s="7" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:6">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="6" t="str">
+      <c r="F29" s="7" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:6">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="6" t="str">
+      <c r="F30" s="7" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2494,13 +2509,13 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
@@ -2512,7 +2527,7 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2522,21 +2537,21 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
@@ -2544,10 +2559,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C8" t="s">
@@ -2555,7 +2570,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -2566,7 +2581,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -2577,16 +2592,16 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="7:7">
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="2:12">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2602,57 +2617,57 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="5" t="s">
         <v>58</v>
       </c>
       <c r="M16" t="s">
@@ -2660,16 +2675,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" t="s">
@@ -2678,10 +2693,10 @@
       <c r="H17" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>2</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>62</v>
       </c>
       <c r="M17" t="s">
@@ -2689,7 +2704,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -2698,16 +2713,16 @@
       <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>3</v>
       </c>
       <c r="L18" t="s">
@@ -2718,7 +2733,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -2727,7 +2742,7 @@
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>4</v>
       </c>
       <c r="G19" t="s">
@@ -2736,7 +2751,7 @@
       <c r="H19" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>4</v>
       </c>
       <c r="L19" t="s">
@@ -2747,7 +2762,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -2756,7 +2771,7 @@
       <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" t="s">
@@ -2765,7 +2780,7 @@
       <c r="H20" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>5</v>
       </c>
       <c r="L20" t="s">
@@ -2776,7 +2791,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -2785,7 +2800,7 @@
       <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>6</v>
       </c>
       <c r="G21" t="s">
@@ -2794,7 +2809,7 @@
       <c r="H21" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>6</v>
       </c>
       <c r="L21" t="s">
@@ -2805,7 +2820,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>7</v>
       </c>
       <c r="B22" t="s">
@@ -2814,7 +2829,7 @@
       <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>7</v>
       </c>
       <c r="G22" t="s">
@@ -2823,7 +2838,7 @@
       <c r="H22" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>7</v>
       </c>
       <c r="L22" t="s">
@@ -2834,7 +2849,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -2843,7 +2858,7 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -2854,16 +2869,16 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2882,75 +2897,75 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H30" t="s">
         <v>103</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>1</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="5" t="s">
         <v>104</v>
       </c>
       <c r="M30" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>1</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="5" t="s">
         <v>105</v>
       </c>
       <c r="R30" t="s">
@@ -2958,25 +2973,25 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>2</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>107</v>
       </c>
       <c r="H31" t="s">
         <v>108</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>2</v>
       </c>
       <c r="L31" t="s">
@@ -2985,10 +3000,10 @@
       <c r="M31" t="s">
         <v>110</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>2</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="5" t="s">
         <v>111</v>
       </c>
       <c r="R31" t="s">
@@ -2996,7 +3011,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>3</v>
       </c>
       <c r="B32" t="s">
@@ -3005,7 +3020,7 @@
       <c r="C32" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>3</v>
       </c>
       <c r="G32" t="s">
@@ -3014,7 +3029,7 @@
       <c r="H32" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>3</v>
       </c>
       <c r="L32" t="s">
@@ -3023,7 +3038,7 @@
       <c r="M32" t="s">
         <v>116</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
@@ -3034,7 +3049,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -3043,7 +3058,7 @@
       <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
         <v>4</v>
       </c>
       <c r="G33" t="s">
@@ -3052,16 +3067,16 @@
       <c r="H33" t="s">
         <v>121</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="4">
         <v>4</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="5" t="s">
         <v>122</v>
       </c>
       <c r="M33" t="s">
         <v>123</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="4">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
@@ -3072,7 +3087,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -3081,7 +3096,7 @@
       <c r="C34" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>5</v>
       </c>
       <c r="G34" t="s">
@@ -3090,7 +3105,7 @@
       <c r="H34" t="s">
         <v>127</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="4">
         <v>5</v>
       </c>
       <c r="L34" t="s">
@@ -3099,7 +3114,7 @@
       <c r="M34" t="s">
         <v>129</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="4">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
@@ -3110,7 +3125,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>6</v>
       </c>
       <c r="B35" t="s">
@@ -3119,7 +3134,7 @@
       <c r="C35" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="4">
         <v>6</v>
       </c>
       <c r="G35" t="s">
@@ -3128,7 +3143,7 @@
       <c r="H35" t="s">
         <v>133</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="4">
         <v>6</v>
       </c>
       <c r="L35" t="s">
@@ -3137,7 +3152,7 @@
       <c r="M35" t="s">
         <v>135</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="4">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
@@ -3148,7 +3163,7 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -3157,7 +3172,7 @@
       <c r="C36" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="4">
         <v>7</v>
       </c>
       <c r="G36" t="s">
@@ -3166,7 +3181,7 @@
       <c r="H36" t="s">
         <v>139</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="4">
         <v>7</v>
       </c>
       <c r="L36" t="s">
@@ -3175,7 +3190,7 @@
       <c r="M36" t="s">
         <v>141</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="4">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
@@ -3186,13 +3201,13 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="4">
         <v>8</v>
       </c>
       <c r="G37" t="s">
@@ -3201,7 +3216,7 @@
       <c r="H37" t="s">
         <v>145</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="4">
         <v>8</v>
       </c>
       <c r="L37" t="s">
@@ -3210,7 +3225,7 @@
       <c r="M37" t="s">
         <v>147</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="4">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
@@ -3221,13 +3236,13 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="4">
         <v>9</v>
       </c>
       <c r="G38" t="s">
@@ -3236,7 +3251,7 @@
       <c r="H38" t="s">
         <v>151</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="4">
         <v>9</v>
       </c>
       <c r="L38" t="s">
@@ -3245,7 +3260,7 @@
       <c r="M38" t="s">
         <v>153</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="4">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
@@ -3256,7 +3271,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="6:18">
-      <c r="F39" s="1">
+      <c r="F39" s="4">
         <v>10</v>
       </c>
       <c r="G39" t="s">
@@ -3265,7 +3280,7 @@
       <c r="H39" t="s">
         <v>156</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="4">
         <v>10</v>
       </c>
       <c r="L39" t="s">
@@ -3274,7 +3289,7 @@
       <c r="M39" t="s">
         <v>158</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="4">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
@@ -3285,10 +3300,10 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:18">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="4">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -3297,7 +3312,7 @@
       <c r="H40" t="s">
         <v>162</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="4">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
@@ -3311,7 +3326,7 @@
       <c r="B41" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
         <v>12</v>
       </c>
       <c r="G41" t="s">
@@ -3322,16 +3337,16 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="4">
         <v>13</v>
       </c>
       <c r="G42" t="s">
@@ -3342,16 +3357,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="1">
+      <c r="A43" s="4">
         <v>1</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>169</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="4">
         <v>14</v>
       </c>
       <c r="G43" t="s">
@@ -3362,7 +3377,7 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="1">
+      <c r="A44" s="4">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -3371,7 +3386,7 @@
       <c r="C44" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="4">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -3382,16 +3397,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="1">
+      <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="4">
         <v>16</v>
       </c>
       <c r="G45" t="s">
@@ -3402,7 +3417,7 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <v>4</v>
       </c>
       <c r="B46" t="s">
@@ -3411,7 +3426,7 @@
       <c r="C46" t="s">
         <v>177</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="4">
         <v>17</v>
       </c>
       <c r="G46" t="s">
@@ -3422,7 +3437,7 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -3431,7 +3446,7 @@
       <c r="C47" t="s">
         <v>181</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="4">
         <v>18</v>
       </c>
       <c r="G47" t="s">
@@ -3442,7 +3457,7 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="1">
+      <c r="A48" s="4">
         <v>6</v>
       </c>
       <c r="B48" t="s">
@@ -3451,7 +3466,7 @@
       <c r="C48" t="s">
         <v>185</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="4">
         <v>19</v>
       </c>
       <c r="G48" t="s">
@@ -3462,7 +3477,7 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="1">
+      <c r="A49" s="4">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -3471,7 +3486,7 @@
       <c r="C49" t="s">
         <v>189</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="4">
         <v>20</v>
       </c>
       <c r="G49" t="s">
@@ -3482,7 +3497,7 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="6:8">
-      <c r="F50" s="1">
+      <c r="F50" s="4">
         <v>21</v>
       </c>
       <c r="G50" t="s">
@@ -3493,7 +3508,7 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="6:8">
-      <c r="F51" s="1">
+      <c r="F51" s="4">
         <v>22</v>
       </c>
       <c r="G51" t="s">
@@ -3504,7 +3519,7 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="6:8">
-      <c r="F52" s="1">
+      <c r="F52" s="4">
         <v>23</v>
       </c>
       <c r="G52" t="s">
@@ -3515,10 +3530,10 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:8">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="4">
         <v>24</v>
       </c>
       <c r="G53" t="s">
@@ -3532,7 +3547,7 @@
       <c r="B54" t="s">
         <v>201</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="4">
         <v>25</v>
       </c>
       <c r="G54" t="s">
@@ -3543,16 +3558,16 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="4">
         <v>26</v>
       </c>
       <c r="G55" t="s">
@@ -3563,16 +3578,16 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="1">
+      <c r="A56" s="4">
         <v>1</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C56" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="4">
         <v>27</v>
       </c>
       <c r="G56" t="s">
@@ -3583,19 +3598,19 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="1">
+      <c r="A57" s="4">
         <v>2</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <v>3</v>
       </c>
       <c r="B58" t="s">
@@ -3604,10 +3619,10 @@
       <c r="C58" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="1">
+      <c r="A59" s="4">
         <v>4</v>
       </c>
       <c r="B59" t="s">
@@ -3616,10 +3631,10 @@
       <c r="C59" t="s">
         <v>211</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" customHeight="1" spans="6:6">
-      <c r="F60" s="1"/>
+      <c r="F60" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3639,13 +3654,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3655,21 +3670,21 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>213</v>
       </c>
       <c r="D7" t="s">
@@ -3677,10 +3692,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>215</v>
       </c>
       <c r="D8" t="s">
@@ -3688,7 +3703,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -3699,7 +3714,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -3710,7 +3725,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -3721,7 +3736,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>6</v>
       </c>
       <c r="C12" t="s">
@@ -3732,7 +3747,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>7</v>
       </c>
       <c r="C13" t="s">
@@ -3754,16 +3769,16 @@
   <sheetPr/>
   <dimension ref="B3:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="4"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="4"/>
     <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
     <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
@@ -3771,14 +3786,14 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:13">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="3" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3789,42 +3804,42 @@
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="4"/>
       <c r="M4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -3833,7 +3848,7 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" t="s">
@@ -3842,7 +3857,7 @@
       <c r="I6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -3853,7 +3868,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -3862,7 +3877,7 @@
       <c r="D7" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>2</v>
       </c>
       <c r="H7" t="s">
@@ -3871,7 +3886,7 @@
       <c r="I7" t="s">
         <v>229</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>2</v>
       </c>
       <c r="M7" t="s">
@@ -3882,7 +3897,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" t="s">
@@ -3891,7 +3906,7 @@
       <c r="D8" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>3</v>
       </c>
       <c r="H8" t="s">
@@ -3900,7 +3915,7 @@
       <c r="I8" t="s">
         <v>234</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>3</v>
       </c>
       <c r="M8" t="s">
@@ -3911,7 +3926,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -3920,7 +3935,7 @@
       <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>4</v>
       </c>
       <c r="H9" t="s">
@@ -3929,7 +3944,7 @@
       <c r="I9" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>4</v>
       </c>
       <c r="M9" t="s">
@@ -3940,7 +3955,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -3949,7 +3964,7 @@
       <c r="D10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>5</v>
       </c>
       <c r="H10" t="s">
@@ -3958,7 +3973,7 @@
       <c r="I10" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>5</v>
       </c>
       <c r="M10" t="s">
@@ -3969,10 +3984,10 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3985,27 +4000,27 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -4014,7 +4029,7 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" t="s">
@@ -4025,7 +4040,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>2</v>
       </c>
       <c r="C17" t="s">
@@ -4034,7 +4049,7 @@
       <c r="D17" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>2</v>
       </c>
       <c r="H17" t="s">
@@ -4045,7 +4060,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>3</v>
       </c>
       <c r="C18" t="s">
@@ -4054,7 +4069,7 @@
       <c r="D18" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>3</v>
       </c>
       <c r="H18" t="s">
@@ -4065,7 +4080,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>4</v>
       </c>
       <c r="C19" t="s">
@@ -4074,7 +4089,7 @@
       <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>4</v>
       </c>
       <c r="H19" t="s">
@@ -4085,7 +4100,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
       <c r="C20" t="s">
@@ -4094,7 +4109,7 @@
       <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>5</v>
       </c>
       <c r="H20" t="s">
@@ -4105,12 +4120,12 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4120,18 +4135,18 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -4142,7 +4157,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>2</v>
       </c>
       <c r="C28" t="s">
@@ -4153,7 +4168,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>3</v>
       </c>
       <c r="C29" t="s">
@@ -4164,7 +4179,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>4</v>
       </c>
       <c r="C30" t="s">
@@ -4175,7 +4190,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>5</v>
       </c>
       <c r="C31" t="s">
@@ -4186,13 +4201,13 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="2"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" customHeight="1" spans="3:3">
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4202,18 +4217,18 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
-      <c r="B39" s="1">
+      <c r="B39" s="4">
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -4224,7 +4239,7 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>2</v>
       </c>
       <c r="C40" t="s">
@@ -4235,7 +4250,7 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
-      <c r="B41" s="1">
+      <c r="B41" s="4">
         <v>3</v>
       </c>
       <c r="C41" t="s">
@@ -4246,7 +4261,7 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>4</v>
       </c>
       <c r="C42" t="s">
@@ -4257,7 +4272,7 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>5</v>
       </c>
       <c r="C43" t="s">
@@ -4268,7 +4283,7 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>6</v>
       </c>
       <c r="C44" t="s">
@@ -4303,45 +4318,136 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B27:I56"/>
+  <dimension ref="B3:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
   <cols>
+    <col min="2" max="2" width="8.88888888888889" style="1"/>
     <col min="3" max="3" width="26.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="19.7777777777778" customWidth="1"/>
     <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" customHeight="1" spans="3:3">
+      <c r="C3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:3">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:3">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:3">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:3">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:3">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:2">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:2">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+    </row>
     <row r="27" customHeight="1" spans="2:3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:3">
-      <c r="B28" s="1"/>
+      <c r="B28" s="4"/>
       <c r="C28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -4352,7 +4458,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>2</v>
       </c>
       <c r="C31" t="s">
@@ -4363,7 +4469,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>3</v>
       </c>
       <c r="C32" t="s">
@@ -4374,7 +4480,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>4</v>
       </c>
       <c r="C33" t="s">
@@ -4385,7 +4491,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>5</v>
       </c>
       <c r="C34" t="s">
@@ -4396,7 +4502,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>6</v>
       </c>
       <c r="C35" t="s">
@@ -4407,47 +4513,47 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:8">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2" t="s">
-        <v>268</v>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:8">
-      <c r="B40" s="1"/>
+      <c r="B40" s="4"/>
       <c r="C40" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="4"/>
       <c r="H40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>1</v>
       </c>
       <c r="C42" t="s">
@@ -4456,7 +4562,7 @@
       <c r="D42" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="4">
         <v>1</v>
       </c>
       <c r="H42" t="s">
@@ -4467,7 +4573,7 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>2</v>
       </c>
       <c r="C43" t="s">
@@ -4476,7 +4582,7 @@
       <c r="D43" t="s">
         <v>257</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="4">
         <v>2</v>
       </c>
       <c r="H43" t="s">
@@ -4487,139 +4593,139 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>270</v>
-      </c>
-      <c r="G44" s="1">
+        <v>274</v>
+      </c>
+      <c r="G44" s="4">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I44" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="4">
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="4">
         <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I46" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="4">
         <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
-      <c r="B48" s="1">
+      <c r="B48" s="4">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D48" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="4">
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I48" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:9">
-      <c r="B49" s="1">
+      <c r="B49" s="4">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
-      </c>
-      <c r="G49" s="1">
+        <v>280</v>
+      </c>
+      <c r="G49" s="4">
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I49" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:4">
-      <c r="B54" t="s">
-        <v>277</v>
+      <c r="B54" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:3">
       <c r="C56" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="10620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,9 @@
     <definedName name="通达信风格板块数据">TDX!$C$13</definedName>
     <definedName name="通达信指数板块数据">TDX!$H$13</definedName>
     <definedName name="小红书渠道个股板块数据">TDX!$C$24</definedName>
-    <definedName name="汇总板块码表">DWD!$C$27</definedName>
-    <definedName name="跌停股票清单">DWD!$H$39</definedName>
-    <definedName name="涨停股票清单">DWD!$C$39</definedName>
+    <definedName name="汇总板块码表">DWD!$C$37</definedName>
+    <definedName name="跌停股票清单">DWD!$H$49</definedName>
+    <definedName name="涨停股票清单">DWD!$C$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="286">
   <si>
     <t>序号</t>
   </si>
@@ -860,6 +860,12 @@
     <t>dwd_stock_base_info</t>
   </si>
   <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>市场特征主板创业板等</t>
+  </si>
+  <si>
     <t>stock_type</t>
   </si>
   <si>
@@ -902,7 +908,7 @@
     <t>对</t>
   </si>
   <si>
-    <t>打上创业、主板、科创、北证等的标识</t>
+    <t>打上创业、主板、科创、北证等的标识，才能计算其是否满足涨停，因为其涨跌停限制不一样</t>
   </si>
   <si>
     <t>北证的数据呢？ 能不能找到北证的stock_code</t>
@@ -1535,7 +1541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1547,9 +1553,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1930,15 +1933,15 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="12.1111111111111" style="4" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
@@ -1972,13 +1975,13 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -1987,7 +1990,7 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="str">
+      <c r="F3" s="6" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
@@ -1996,13 +1999,13 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -2011,7 +2014,7 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="str">
+      <c r="F4" s="6" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
@@ -2020,13 +2023,13 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
@@ -2035,7 +2038,7 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7" t="str">
+      <c r="F5" s="6" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
@@ -2044,13 +2047,13 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
@@ -2059,7 +2062,7 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="str">
+      <c r="F6" s="6" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
@@ -2069,13 +2072,13 @@
     </row>
     <row r="7" ht="20" customHeight="1"/>
     <row r="8" ht="20" customHeight="1" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
@@ -2084,7 +2087,7 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7" t="str">
+      <c r="F8" s="6" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
@@ -2093,13 +2096,13 @@
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
@@ -2108,7 +2111,7 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7" t="str">
+      <c r="F9" s="6" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
@@ -2117,13 +2120,13 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
@@ -2132,7 +2135,7 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7" t="str">
+      <c r="F10" s="6" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
@@ -2141,13 +2144,13 @@
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
@@ -2156,7 +2159,7 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="7" t="str">
+      <c r="F11" s="6" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
@@ -2165,16 +2168,16 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="6:6">
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:7">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
@@ -2183,7 +2186,7 @@
       <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="F13" s="6" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
@@ -2193,13 +2196,13 @@
     </row>
     <row r="14" ht="20" customHeight="1"/>
     <row r="15" ht="20" customHeight="1" spans="1:7">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
@@ -2208,7 +2211,7 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="7" t="str">
+      <c r="F15" s="6" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
@@ -2217,13 +2220,13 @@
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
@@ -2232,7 +2235,7 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="7" t="str">
+      <c r="F16" s="6" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
@@ -2241,13 +2244,13 @@
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:7">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
@@ -2256,7 +2259,7 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="7" t="str">
+      <c r="F17" s="6" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
@@ -2265,13 +2268,13 @@
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:12">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="s">
@@ -2280,7 +2283,7 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="7" t="str">
+      <c r="F18" s="6" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
@@ -2290,19 +2293,19 @@
       <c r="K18" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="7" t="str">
+      <c r="L18" s="6" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:7">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
@@ -2311,7 +2314,7 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="7" t="str">
+      <c r="F19" s="6" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
@@ -2320,13 +2323,13 @@
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:7">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
@@ -2335,7 +2338,7 @@
       <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="7" t="str">
+      <c r="F20" s="6" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
@@ -2344,13 +2347,13 @@
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:7">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
@@ -2359,7 +2362,7 @@
       <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="7" t="str">
+      <c r="F21" s="6" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
@@ -2368,13 +2371,13 @@
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:7">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
@@ -2383,7 +2386,7 @@
       <c r="E22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="7" t="str">
+      <c r="F22" s="6" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
@@ -2392,73 +2395,73 @@
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="6:6">
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="6:6">
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="6:6">
-      <c r="F25" s="7"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="6:6">
-      <c r="F26" s="7"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="6:6">
-      <c r="F27" s="7"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:6">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="7" t="str">
+      <c r="F28" s="6" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:6">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="7" t="str">
+      <c r="F29" s="6" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:6">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="7" t="str">
+      <c r="F30" s="6" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:2">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2494,7 +2497,7 @@
     <row r="61" ht="20" customHeight="1"/>
     <row r="62" ht="20" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A2:K22">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K22" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2509,13 +2512,13 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
@@ -2548,10 +2551,10 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
@@ -2559,10 +2562,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C8" t="s">
@@ -2570,7 +2573,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -2581,7 +2584,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -2592,7 +2595,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="7:7">
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="3" t="s">
@@ -2646,28 +2649,28 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="M16" t="s">
@@ -2675,16 +2678,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" t="s">
@@ -2693,10 +2696,10 @@
       <c r="H17" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="1">
         <v>2</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="M17" t="s">
@@ -2704,7 +2707,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -2713,16 +2716,16 @@
       <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" t="s">
@@ -2733,7 +2736,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -2742,7 +2745,7 @@
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>4</v>
       </c>
       <c r="G19" t="s">
@@ -2751,7 +2754,7 @@
       <c r="H19" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="1">
         <v>4</v>
       </c>
       <c r="L19" t="s">
@@ -2762,7 +2765,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -2771,7 +2774,7 @@
       <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>5</v>
       </c>
       <c r="G20" t="s">
@@ -2780,7 +2783,7 @@
       <c r="H20" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="1">
         <v>5</v>
       </c>
       <c r="L20" t="s">
@@ -2791,7 +2794,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -2800,7 +2803,7 @@
       <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>6</v>
       </c>
       <c r="G21" t="s">
@@ -2809,7 +2812,7 @@
       <c r="H21" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="1">
         <v>6</v>
       </c>
       <c r="L21" t="s">
@@ -2820,7 +2823,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>7</v>
       </c>
       <c r="B22" t="s">
@@ -2829,7 +2832,7 @@
       <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>7</v>
       </c>
       <c r="G22" t="s">
@@ -2838,7 +2841,7 @@
       <c r="H22" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
         <v>7</v>
       </c>
       <c r="L22" t="s">
@@ -2849,7 +2852,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -2858,7 +2861,7 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -2935,37 +2938,37 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>102</v>
       </c>
       <c r="H30" t="s">
         <v>103</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="1">
         <v>1</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M30" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="1">
         <v>1</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="4" t="s">
         <v>105</v>
       </c>
       <c r="R30" t="s">
@@ -2973,25 +2976,25 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="1">
         <v>2</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>107</v>
       </c>
       <c r="H31" t="s">
         <v>108</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="1">
         <v>2</v>
       </c>
       <c r="L31" t="s">
@@ -3000,10 +3003,10 @@
       <c r="M31" t="s">
         <v>110</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="1">
         <v>2</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="4" t="s">
         <v>111</v>
       </c>
       <c r="R31" t="s">
@@ -3011,7 +3014,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
       <c r="B32" t="s">
@@ -3020,7 +3023,7 @@
       <c r="C32" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" t="s">
@@ -3029,7 +3032,7 @@
       <c r="H32" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="1">
         <v>3</v>
       </c>
       <c r="L32" t="s">
@@ -3038,7 +3041,7 @@
       <c r="M32" t="s">
         <v>116</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="1">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
@@ -3049,7 +3052,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -3058,7 +3061,7 @@
       <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="1">
         <v>4</v>
       </c>
       <c r="G33" t="s">
@@ -3067,16 +3070,16 @@
       <c r="H33" t="s">
         <v>121</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="1">
         <v>4</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="4" t="s">
         <v>122</v>
       </c>
       <c r="M33" t="s">
         <v>123</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="1">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
@@ -3087,7 +3090,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -3096,7 +3099,7 @@
       <c r="C34" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="1">
         <v>5</v>
       </c>
       <c r="G34" t="s">
@@ -3105,7 +3108,7 @@
       <c r="H34" t="s">
         <v>127</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="1">
         <v>5</v>
       </c>
       <c r="L34" t="s">
@@ -3114,7 +3117,7 @@
       <c r="M34" t="s">
         <v>129</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="1">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
@@ -3125,7 +3128,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>6</v>
       </c>
       <c r="B35" t="s">
@@ -3134,7 +3137,7 @@
       <c r="C35" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="G35" t="s">
@@ -3143,7 +3146,7 @@
       <c r="H35" t="s">
         <v>133</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="1">
         <v>6</v>
       </c>
       <c r="L35" t="s">
@@ -3152,7 +3155,7 @@
       <c r="M35" t="s">
         <v>135</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="1">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
@@ -3163,7 +3166,7 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -3172,7 +3175,7 @@
       <c r="C36" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="1">
         <v>7</v>
       </c>
       <c r="G36" t="s">
@@ -3181,7 +3184,7 @@
       <c r="H36" t="s">
         <v>139</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="1">
         <v>7</v>
       </c>
       <c r="L36" t="s">
@@ -3190,7 +3193,7 @@
       <c r="M36" t="s">
         <v>141</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="1">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
@@ -3201,13 +3204,13 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="1">
         <v>8</v>
       </c>
       <c r="G37" t="s">
@@ -3216,7 +3219,7 @@
       <c r="H37" t="s">
         <v>145</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="1">
         <v>8</v>
       </c>
       <c r="L37" t="s">
@@ -3225,7 +3228,7 @@
       <c r="M37" t="s">
         <v>147</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="1">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
@@ -3236,13 +3239,13 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
-      <c r="A38" s="4">
+      <c r="A38" s="1">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="1">
         <v>9</v>
       </c>
       <c r="G38" t="s">
@@ -3251,7 +3254,7 @@
       <c r="H38" t="s">
         <v>151</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="1">
         <v>9</v>
       </c>
       <c r="L38" t="s">
@@ -3260,7 +3263,7 @@
       <c r="M38" t="s">
         <v>153</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="1">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
@@ -3271,7 +3274,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="6:18">
-      <c r="F39" s="4">
+      <c r="F39" s="1">
         <v>10</v>
       </c>
       <c r="G39" t="s">
@@ -3280,7 +3283,7 @@
       <c r="H39" t="s">
         <v>156</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="1">
         <v>10</v>
       </c>
       <c r="L39" t="s">
@@ -3289,7 +3292,7 @@
       <c r="M39" t="s">
         <v>158</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="1">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
@@ -3303,7 +3306,7 @@
       <c r="B40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -3312,7 +3315,7 @@
       <c r="H40" t="s">
         <v>162</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="1">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
@@ -3326,7 +3329,7 @@
       <c r="B41" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
         <v>12</v>
       </c>
       <c r="G41" t="s">
@@ -3346,7 +3349,7 @@
       <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="1">
         <v>13</v>
       </c>
       <c r="G42" t="s">
@@ -3357,16 +3360,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="1">
         <v>14</v>
       </c>
       <c r="G43" t="s">
@@ -3377,7 +3380,7 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="4">
+      <c r="A44" s="1">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -3386,7 +3389,7 @@
       <c r="C44" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="1">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -3397,16 +3400,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>3</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="1">
         <v>16</v>
       </c>
       <c r="G45" t="s">
@@ -3417,7 +3420,7 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="4">
+      <c r="A46" s="1">
         <v>4</v>
       </c>
       <c r="B46" t="s">
@@ -3426,7 +3429,7 @@
       <c r="C46" t="s">
         <v>177</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="1">
         <v>17</v>
       </c>
       <c r="G46" t="s">
@@ -3437,7 +3440,7 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="4">
+      <c r="A47" s="1">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -3446,7 +3449,7 @@
       <c r="C47" t="s">
         <v>181</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="1">
         <v>18</v>
       </c>
       <c r="G47" t="s">
@@ -3457,7 +3460,7 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="4">
+      <c r="A48" s="1">
         <v>6</v>
       </c>
       <c r="B48" t="s">
@@ -3466,7 +3469,7 @@
       <c r="C48" t="s">
         <v>185</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="1">
         <v>19</v>
       </c>
       <c r="G48" t="s">
@@ -3477,7 +3480,7 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="4">
+      <c r="A49" s="1">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -3486,7 +3489,7 @@
       <c r="C49" t="s">
         <v>189</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="1">
         <v>20</v>
       </c>
       <c r="G49" t="s">
@@ -3497,7 +3500,7 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="6:8">
-      <c r="F50" s="4">
+      <c r="F50" s="1">
         <v>21</v>
       </c>
       <c r="G50" t="s">
@@ -3508,7 +3511,7 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="6:8">
-      <c r="F51" s="4">
+      <c r="F51" s="1">
         <v>22</v>
       </c>
       <c r="G51" t="s">
@@ -3519,7 +3522,7 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="6:8">
-      <c r="F52" s="4">
+      <c r="F52" s="1">
         <v>23</v>
       </c>
       <c r="G52" t="s">
@@ -3533,7 +3536,7 @@
       <c r="B53" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="1">
         <v>24</v>
       </c>
       <c r="G53" t="s">
@@ -3547,7 +3550,7 @@
       <c r="B54" t="s">
         <v>201</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="1">
         <v>25</v>
       </c>
       <c r="G54" t="s">
@@ -3567,7 +3570,7 @@
       <c r="C55" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="1">
         <v>26</v>
       </c>
       <c r="G55" t="s">
@@ -3578,16 +3581,16 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="4">
+      <c r="A56" s="1">
         <v>1</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C56" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="1">
         <v>27</v>
       </c>
       <c r="G56" t="s">
@@ -3598,19 +3601,19 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="4">
+      <c r="A57" s="1">
         <v>2</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>3</v>
       </c>
       <c r="B58" t="s">
@@ -3619,10 +3622,10 @@
       <c r="C58" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>4</v>
       </c>
       <c r="B59" t="s">
@@ -3631,10 +3634,10 @@
       <c r="C59" t="s">
         <v>211</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" customHeight="1" spans="6:6">
-      <c r="F60" s="4"/>
+      <c r="F60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3654,7 +3657,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="9" style="4"/>
+    <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
   </cols>
@@ -3681,10 +3684,10 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D7" t="s">
@@ -3692,10 +3695,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D8" t="s">
@@ -3703,7 +3706,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -3714,7 +3717,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -3725,7 +3728,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -3736,7 +3739,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>6</v>
       </c>
       <c r="C12" t="s">
@@ -3747,7 +3750,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
       <c r="C13" t="s">
@@ -3769,16 +3772,16 @@
   <sheetPr/>
   <dimension ref="B3:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="4"/>
+    <col min="2" max="2" width="8.88888888888889" style="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="4"/>
+    <col min="7" max="7" width="8.88888888888889" style="1"/>
     <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
     <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
@@ -3792,7 +3795,7 @@
       <c r="H3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="3" t="s">
         <v>223</v>
       </c>
@@ -3804,7 +3807,7 @@
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="1"/>
       <c r="M4" t="s">
         <v>30</v>
       </c>
@@ -3839,7 +3842,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -3848,7 +3851,7 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" t="s">
@@ -3857,7 +3860,7 @@
       <c r="I6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" t="s">
@@ -3868,7 +3871,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -3877,7 +3880,7 @@
       <c r="D7" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" t="s">
@@ -3886,7 +3889,7 @@
       <c r="I7" t="s">
         <v>229</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" t="s">
@@ -3897,7 +3900,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" t="s">
@@ -3906,7 +3909,7 @@
       <c r="D8" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" t="s">
@@ -3915,7 +3918,7 @@
       <c r="I8" t="s">
         <v>234</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>3</v>
       </c>
       <c r="M8" t="s">
@@ -3926,7 +3929,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -3935,7 +3938,7 @@
       <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" t="s">
@@ -3944,7 +3947,7 @@
       <c r="I9" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="M9" t="s">
@@ -3955,7 +3958,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -3964,7 +3967,7 @@
       <c r="D10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" t="s">
@@ -3973,7 +3976,7 @@
       <c r="I10" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>5</v>
       </c>
       <c r="M10" t="s">
@@ -4020,7 +4023,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -4029,7 +4032,7 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" t="s">
@@ -4040,7 +4043,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" t="s">
@@ -4049,7 +4052,7 @@
       <c r="D17" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>2</v>
       </c>
       <c r="H17" t="s">
@@ -4060,7 +4063,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" t="s">
@@ -4069,7 +4072,7 @@
       <c r="D18" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" t="s">
@@ -4080,7 +4083,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>4</v>
       </c>
       <c r="C19" t="s">
@@ -4089,7 +4092,7 @@
       <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>4</v>
       </c>
       <c r="H19" t="s">
@@ -4100,7 +4103,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" t="s">
@@ -4109,7 +4112,7 @@
       <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>5</v>
       </c>
       <c r="H20" t="s">
@@ -4146,7 +4149,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -4157,7 +4160,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
-      <c r="B28" s="4">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" t="s">
@@ -4168,7 +4171,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
-      <c r="B29" s="4">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29" t="s">
@@ -4179,7 +4182,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
-      <c r="B30" s="4">
+      <c r="B30" s="1">
         <v>4</v>
       </c>
       <c r="C30" t="s">
@@ -4190,7 +4193,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
-      <c r="B31" s="4">
+      <c r="B31" s="1">
         <v>5</v>
       </c>
       <c r="C31" t="s">
@@ -4228,7 +4231,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
-      <c r="B39" s="4">
+      <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -4239,7 +4242,7 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
-      <c r="B40" s="4">
+      <c r="B40" s="1">
         <v>2</v>
       </c>
       <c r="C40" t="s">
@@ -4250,7 +4253,7 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
-      <c r="B41" s="4">
+      <c r="B41" s="1">
         <v>3</v>
       </c>
       <c r="C41" t="s">
@@ -4261,7 +4264,7 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
-      <c r="B42" s="4">
+      <c r="B42" s="1">
         <v>4</v>
       </c>
       <c r="C42" t="s">
@@ -4272,7 +4275,7 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
-      <c r="B43" s="4">
+      <c r="B43" s="1">
         <v>5</v>
       </c>
       <c r="C43" t="s">
@@ -4283,7 +4286,7 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="4">
+      <c r="B44" s="1">
         <v>6</v>
       </c>
       <c r="C44" t="s">
@@ -4318,10 +4321,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:I56"/>
+  <dimension ref="B3:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
@@ -4349,383 +4352,439 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:3">
+    <row r="5" customHeight="1" spans="2:4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:3">
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:3">
+      <c r="D6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:3">
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:3">
-      <c r="B9" s="1">
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:3">
+      <c r="C13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:3">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:3">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:3">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:3">
+      <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="1">
+    <row r="20" customHeight="1" spans="2:3">
+      <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="1">
+      <c r="C20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:3">
+      <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:3">
-      <c r="B12" s="1">
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:3">
+      <c r="B22" s="1">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C22" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:2">
-      <c r="B13" s="1">
+    <row r="23" customHeight="1" spans="2:2">
+      <c r="B23" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:2">
-      <c r="B14" s="1">
+    <row r="24" customHeight="1" spans="2:2">
+      <c r="B24" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="2:3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="3" t="s">
+    <row r="37" customHeight="1" spans="3:3">
+      <c r="C37" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:3">
-      <c r="B28" s="4"/>
-      <c r="C28" t="s">
+    <row r="38" customHeight="1" spans="3:3">
+      <c r="C38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="2:4">
-      <c r="B29" s="2" t="s">
+    <row r="39" customHeight="1" spans="2:4">
+      <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="2:4">
-      <c r="B30" s="4">
+    <row r="40" customHeight="1" spans="2:4">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C40" t="s">
         <v>254</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="2:4">
-      <c r="B31" s="4">
+    <row r="41" customHeight="1" spans="2:4">
+      <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C41" t="s">
         <v>255</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D41" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="2:4">
-      <c r="B32" s="4">
+    <row r="42" customHeight="1" spans="2:4">
+      <c r="B42" s="1">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C42" t="s">
         <v>250</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D42" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="2:4">
-      <c r="B33" s="4">
+    <row r="43" customHeight="1" spans="2:4">
+      <c r="B43" s="1">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C43" t="s">
         <v>251</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="2:4">
-      <c r="B34" s="4">
+    <row r="44" customHeight="1" spans="2:4">
+      <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C44" t="s">
         <v>261</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D44" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="2:4">
-      <c r="B35" s="4">
+    <row r="45" customHeight="1" spans="2:4">
+      <c r="B45" s="1">
         <v>6</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C45" t="s">
         <v>258</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D45" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="2:8">
-      <c r="B39" s="4"/>
-      <c r="C39" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:8">
-      <c r="B40" s="4"/>
-      <c r="C40" t="s">
+    <row r="49" customHeight="1" spans="3:8">
+      <c r="C49" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:8">
+      <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="2:9">
-      <c r="B41" s="2" t="s">
+    <row r="51" customHeight="1" spans="2:9">
+      <c r="B51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="2:9">
-      <c r="B42" s="4">
+    <row r="52" customHeight="1" spans="2:9">
+      <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C52" t="s">
         <v>254</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D52" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G52" s="1">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H52" t="s">
         <v>254</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="2:9">
-      <c r="B43" s="4">
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C53" t="s">
         <v>56</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D53" t="s">
         <v>257</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G53" s="1">
         <v>2</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H53" t="s">
         <v>56</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I53" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="2:9">
-      <c r="B44" s="4">
+    <row r="54" customHeight="1" spans="2:9">
+      <c r="B54" s="1">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
-        <v>273</v>
-      </c>
-      <c r="D44" t="s">
-        <v>274</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="C54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+      <c r="G54" s="1">
         <v>3</v>
       </c>
-      <c r="H44" t="s">
-        <v>273</v>
-      </c>
-      <c r="I44" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:9">
-      <c r="B45" s="4">
+      <c r="H54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:9">
+      <c r="B55" s="1">
         <v>4</v>
       </c>
-      <c r="C45" t="s">
-        <v>275</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D55" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G55" s="1">
         <v>4</v>
       </c>
-      <c r="H45" t="s">
-        <v>275</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H55" t="s">
+        <v>277</v>
+      </c>
+      <c r="I55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="2:9">
-      <c r="B46" s="4">
+    <row r="56" customHeight="1" spans="2:9">
+      <c r="B56" s="1">
         <v>5</v>
       </c>
-      <c r="C46" t="s">
-        <v>276</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C56" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" t="s">
         <v>75</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G56" s="1">
         <v>5</v>
       </c>
-      <c r="H46" t="s">
-        <v>276</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H56" t="s">
+        <v>278</v>
+      </c>
+      <c r="I56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="2:9">
-      <c r="B47" s="4">
+    <row r="57" customHeight="1" spans="2:9">
+      <c r="B57" s="1">
         <v>6</v>
       </c>
-      <c r="C47" t="s">
-        <v>277</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G57" s="1">
         <v>6</v>
       </c>
-      <c r="H47" t="s">
-        <v>277</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="H57" t="s">
+        <v>279</v>
+      </c>
+      <c r="I57" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="2:9">
-      <c r="B48" s="4">
+    <row r="58" customHeight="1" spans="2:9">
+      <c r="B58" s="1">
         <v>7</v>
       </c>
-      <c r="C48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C58" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G58" s="1">
         <v>7</v>
       </c>
-      <c r="H48" t="s">
-        <v>278</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H58" t="s">
+        <v>280</v>
+      </c>
+      <c r="I58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="2:9">
-      <c r="B49" s="4">
+    <row r="59" customHeight="1" spans="2:9">
+      <c r="B59" s="1">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
-        <v>279</v>
-      </c>
-      <c r="D49" t="s">
-        <v>280</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="C59" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" t="s">
+        <v>282</v>
+      </c>
+      <c r="G59" s="1">
         <v>8</v>
       </c>
-      <c r="H49" t="s">
-        <v>279</v>
-      </c>
-      <c r="I49" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="2:4">
-      <c r="B54" s="1" t="s">
+      <c r="H59" t="s">
         <v>281</v>
       </c>
-      <c r="C54" t="s">
+      <c r="I59" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:4">
+      <c r="B64" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D54" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:3">
-      <c r="C56" t="s">
-        <v>283</v>
+      <c r="D64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:3">
+      <c r="C66" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10620" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -14,27 +14,27 @@
     <sheet name="DWD" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$22</definedName>
-    <definedName name="当日已上市股票码表">Tinsight!$B$4</definedName>
-    <definedName name="当日已上市股票的历史日K">Tinsight!$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$24</definedName>
+    <definedName name="A股的筹码分布数据">Tinsight!$G$27</definedName>
+    <definedName name="北向持仓数据">Tinsight!$B$53</definedName>
     <definedName name="大A的主要指数日K">Tinsight!$G$13</definedName>
     <definedName name="当日大A行情温度">Tinsight!$L$13</definedName>
+    <definedName name="当日已上市股票的历史日K">Tinsight!$B$13</definedName>
+    <definedName name="当日已上市股票码表">Tinsight!$B$4</definedName>
+    <definedName name="跌停股票清单">DWD!$H$42</definedName>
+    <definedName name="个股的股东数">Tinsight!$B$40</definedName>
+    <definedName name="华泰股票行业明细">Tinsight!$Q$27</definedName>
+    <definedName name="汇总板块码表">DWD!$C$30</definedName>
+    <definedName name="美股_日K">Tvantage!$C$4</definedName>
     <definedName name="内盘主要期货数据日K">Tinsight!$B$27</definedName>
-    <definedName name="A股的筹码分布数据">Tinsight!$G$27</definedName>
-    <definedName name="行业分类_申万三级分类">Tinsight!$L$27</definedName>
-    <definedName name="华泰股票行业明细">Tinsight!$Q$27</definedName>
-    <definedName name="个股的股东数">Tinsight!$B$40</definedName>
-    <definedName name="北向持仓数据">Tinsight!$B$53</definedName>
-    <definedName name="美股_日K">Tvantage!$C$4</definedName>
+    <definedName name="通达信地区板块数据">TDX!$H$3</definedName>
+    <definedName name="通达信风格板块数据">TDX!$C$13</definedName>
     <definedName name="通达信概念板块数据">TDX!$C$3</definedName>
-    <definedName name="通达信地区板块数据">TDX!$H$3</definedName>
     <definedName name="通达信行业板块数据">TDX!$M$3</definedName>
-    <definedName name="通达信风格板块数据">TDX!$C$13</definedName>
     <definedName name="通达信指数板块数据">TDX!$H$13</definedName>
     <definedName name="小红书渠道个股板块数据">TDX!$C$24</definedName>
-    <definedName name="汇总板块码表">DWD!$C$37</definedName>
-    <definedName name="跌停股票清单">DWD!$H$49</definedName>
-    <definedName name="涨停股票清单">DWD!$C$49</definedName>
+    <definedName name="行业分类_申万三级分类">Tinsight!$L$27</definedName>
+    <definedName name="涨停股票清单">DWD!$C$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="324">
   <si>
     <t>序号</t>
   </si>
@@ -101,6 +101,15 @@
     <t>ods_north_bound_daily</t>
   </si>
   <si>
+    <t>从 ods_stock_code_daily_insight 计算得到</t>
+  </si>
+  <si>
+    <t>ods_stock_exchange_market</t>
+  </si>
+  <si>
+    <t>股票基本面数据 -- 所属交易所</t>
+  </si>
+  <si>
     <t>行情数据</t>
   </si>
   <si>
@@ -815,6 +824,9 @@
     <t>多渠道来源</t>
   </si>
   <si>
+    <t>汇总板块码表</t>
+  </si>
+  <si>
     <t>小红书渠道个股板块数据</t>
   </si>
   <si>
@@ -830,19 +842,76 @@
     <t>标的代码</t>
   </si>
   <si>
+    <t>source_table</t>
+  </si>
+  <si>
+    <t>来源表</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>汇总板块码表</t>
-  </si>
-  <si>
-    <t>source_table</t>
-  </si>
-  <si>
-    <t>来源表</t>
+    <t>股票基本面数据_资产数据</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_pepb_info</t>
+  </si>
+  <si>
+    <t>market_value</t>
+  </si>
+  <si>
+    <t>流通市值(亿)</t>
+  </si>
+  <si>
+    <t>total_asset</t>
+  </si>
+  <si>
+    <t>总资产(亿)</t>
+  </si>
+  <si>
+    <t>net_asset</t>
+  </si>
+  <si>
+    <t>净资产(亿)</t>
+  </si>
+  <si>
+    <t>total_capital</t>
+  </si>
+  <si>
+    <t>总股本(亿)</t>
+  </si>
+  <si>
+    <t>float_capital</t>
+  </si>
+  <si>
+    <t>流通股(亿)</t>
+  </si>
+  <si>
+    <t>shareholder_num</t>
+  </si>
+  <si>
+    <t>股东人数</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>市净率</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>市盈(动)</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>细分行业</t>
   </si>
   <si>
     <t xml:space="preserve">加一个标的_股本数  </t>
@@ -857,7 +926,7 @@
     <t>净资产</t>
   </si>
   <si>
-    <t>dwd_stock_base_info</t>
+    <t>股票基本面数据_所属交易所</t>
   </si>
   <si>
     <t>market</t>
@@ -866,13 +935,58 @@
     <t>市场特征主板创业板等</t>
   </si>
   <si>
-    <t>stock_type</t>
-  </si>
-  <si>
-    <t>stock_capital</t>
-  </si>
-  <si>
-    <t>net_asset</t>
+    <t>dwd_ashare_stock_base_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_code     </t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_name     </t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close          </t>
+  </si>
+  <si>
+    <t>最新收盘价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">market_value   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_value    </t>
+  </si>
+  <si>
+    <t>总市值(亿)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_asset    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">net_asset      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_capital  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">float_capital  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pb             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">market         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate_names    </t>
   </si>
   <si>
     <t>涨停股票清单</t>
@@ -924,8 +1038,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -945,13 +1074,29 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,7 +1239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,156 +1556,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,13 +1784,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>572135</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1691005</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1646,8 +1800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9990455" y="3601720"/>
-          <a:ext cx="1118870" cy="1770380"/>
+          <a:off x="9990455" y="4099560"/>
+          <a:ext cx="1118870" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -1669,6 +1823,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1930,12 +2085,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1950,31 +2105,31 @@
     <col min="11" max="11" width="21.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="20" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="19.95" customHeight="1"/>
+    <row r="2" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:7">
+    <row r="3" ht="19.95" customHeight="1" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1990,7 +2145,7 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="7" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
@@ -1998,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:7">
+    <row r="4" ht="19.95" customHeight="1" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2014,7 +2169,7 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="7" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
@@ -2022,7 +2177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:7">
+    <row r="5" ht="19.95" customHeight="1" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2038,7 +2193,7 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="7" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
@@ -2046,7 +2201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:7">
+    <row r="6" ht="19.95" customHeight="1" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2062,7 +2217,7 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="7" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
@@ -2070,434 +2225,457 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1"/>
-    <row r="8" ht="20" customHeight="1" spans="1:7">
-      <c r="A8" s="1">
+    <row r="7" ht="19.95" customHeight="1" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" ht="19.95" customHeight="1"/>
+    <row r="10" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="str">
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
+    <row r="11" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6" t="str">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="1:7">
-      <c r="A10" s="1">
+    <row r="12" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="str">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="1:7">
-      <c r="A11" s="1">
+    <row r="13" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="str">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="6:6">
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+    <row r="14" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6" t="str">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1"/>
-    <row r="15" ht="20" customHeight="1" spans="1:7">
-      <c r="A15" s="1">
+    <row r="16" ht="19.95" customHeight="1"/>
+    <row r="17" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6" t="str">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:7">
-      <c r="A16" s="1">
+    <row r="18" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6" t="str">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+    <row r="19" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6" t="str">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="7" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1" spans="1:12">
-      <c r="A18" s="1">
+    <row r="20" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="6" t="str">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="K18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="6" t="str">
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="7" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:7">
-      <c r="A19" s="1">
+    <row r="21" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="6" t="str">
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="7" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:7">
-      <c r="A20" s="1">
+    <row r="22" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="6" t="str">
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="7" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="20" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+    <row r="23" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="6" t="str">
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="7" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="1:7">
-      <c r="A22" s="1">
+    <row r="24" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="6" t="str">
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="7" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1" spans="6:6">
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="6:6">
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="6:6">
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="6:6">
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="6:6">
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="1:6">
-      <c r="A28" s="1">
+    <row r="25" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" ht="19.95" customHeight="1" spans="1:6">
+      <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="6" t="str">
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="7" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
-    <row r="29" ht="20" customHeight="1" spans="1:6">
-      <c r="A29" s="1">
+    <row r="31" ht="19.95" customHeight="1" spans="1:6">
+      <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="6" t="str">
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1" spans="1:6">
-      <c r="A30" s="1">
+    <row r="32" ht="19.95" customHeight="1" spans="1:6">
+      <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="6" t="str">
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="7" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="1:2">
-      <c r="A31" s="1">
+    <row r="33" ht="19.95" customHeight="1" spans="1:2">
+      <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" ht="20" customHeight="1"/>
-    <row r="33" ht="20" customHeight="1"/>
-    <row r="34" ht="20" customHeight="1"/>
-    <row r="35" ht="20" customHeight="1"/>
-    <row r="36" ht="20" customHeight="1"/>
-    <row r="37" ht="20" customHeight="1"/>
-    <row r="38" ht="20" customHeight="1"/>
-    <row r="39" ht="20" customHeight="1"/>
-    <row r="40" ht="20" customHeight="1"/>
-    <row r="41" ht="20" customHeight="1"/>
-    <row r="42" ht="20" customHeight="1"/>
-    <row r="43" ht="20" customHeight="1"/>
-    <row r="44" ht="20" customHeight="1"/>
-    <row r="45" ht="20" customHeight="1"/>
-    <row r="46" ht="20" customHeight="1"/>
-    <row r="47" ht="20" customHeight="1"/>
-    <row r="48" ht="20" customHeight="1"/>
-    <row r="49" ht="20" customHeight="1"/>
-    <row r="50" ht="20" customHeight="1"/>
-    <row r="51" ht="20" customHeight="1"/>
-    <row r="52" ht="20" customHeight="1"/>
-    <row r="53" ht="20" customHeight="1"/>
-    <row r="54" ht="20" customHeight="1"/>
-    <row r="55" ht="20" customHeight="1"/>
-    <row r="56" ht="20" customHeight="1"/>
-    <row r="57" ht="20" customHeight="1"/>
-    <row r="58" ht="20" customHeight="1"/>
-    <row r="59" ht="20" customHeight="1"/>
-    <row r="60" ht="20" customHeight="1"/>
-    <row r="61" ht="20" customHeight="1"/>
-    <row r="62" ht="20" customHeight="1"/>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" ht="19.95" customHeight="1"/>
+    <row r="35" ht="19.95" customHeight="1"/>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
+    <row r="38" ht="19.95" customHeight="1"/>
+    <row r="39" ht="19.95" customHeight="1"/>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
+    <row r="42" ht="19.95" customHeight="1"/>
+    <row r="43" ht="19.95" customHeight="1"/>
+    <row r="44" ht="19.95" customHeight="1"/>
+    <row r="45" ht="19.95" customHeight="1"/>
+    <row r="46" ht="19.95" customHeight="1"/>
+    <row r="47" ht="19.95" customHeight="1"/>
+    <row r="48" ht="19.95" customHeight="1"/>
+    <row r="49" ht="19.95" customHeight="1"/>
+    <row r="50" ht="19.95" customHeight="1"/>
+    <row r="51" ht="19.95" customHeight="1"/>
+    <row r="52" ht="19.95" customHeight="1"/>
+    <row r="53" ht="19.95" customHeight="1"/>
+    <row r="54" ht="19.95" customHeight="1"/>
+    <row r="55" ht="19.95" customHeight="1"/>
+    <row r="56" ht="19.95" customHeight="1"/>
+    <row r="57" ht="19.95" customHeight="1"/>
+    <row r="58" ht="19.95" customHeight="1"/>
+    <row r="59" ht="19.95" customHeight="1"/>
+    <row r="60" ht="19.95" customHeight="1"/>
+    <row r="61" ht="19.95" customHeight="1"/>
+    <row r="62" ht="19.95" customHeight="1"/>
+    <row r="63" ht="19.95" customHeight="1"/>
+    <row r="64" ht="19.95" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K22" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K24" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2512,11 +2690,11 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.22222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
@@ -2530,46 +2708,46 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>38</v>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -2577,10 +2755,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -2588,122 +2766,119 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="7:7">
-      <c r="G12" s="5"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>52</v>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>41</v>
+      <c r="L15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>56</v>
+      <c r="G16" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>58</v>
+      <c r="L16" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>62</v>
+      <c r="L17" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="M17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
@@ -2711,28 +2886,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>66</v>
+      <c r="G18" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
@@ -2740,28 +2915,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K19" s="1">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
@@ -2769,28 +2944,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K20" s="1">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
@@ -2798,28 +2973,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
@@ -2827,28 +3002,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K22" s="1">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
@@ -2856,161 +3031,161 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F23" s="1">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
-      <c r="B27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>95</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:17">
       <c r="B28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="G29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P29" s="2" t="s">
+      <c r="L29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>41</v>
+      <c r="Q29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>100</v>
+      <c r="B30" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>102</v>
+      <c r="G30" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>104</v>
+      <c r="L30" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="M30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P30" s="1">
         <v>1</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>105</v>
+      <c r="Q30" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="R30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>106</v>
+      <c r="B31" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>107</v>
+      <c r="G31" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P31" s="1">
         <v>2</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>111</v>
+      <c r="Q31" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="R31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -3018,37 +3193,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K32" s="1">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P32" s="1">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -3056,37 +3231,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K33" s="1">
         <v>4</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>122</v>
+      <c r="L33" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="M33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P33" s="1">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R33" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -3094,37 +3269,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K34" s="1">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P34" s="1">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -3132,37 +3307,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K35" s="1">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P35" s="1">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -3170,37 +3345,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F36" s="1">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K36" s="1">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P36" s="1">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -3208,34 +3383,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F37" s="1">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K37" s="1">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P37" s="1">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R37" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -3243,34 +3418,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K38" s="1">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P38" s="1">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="R38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="6:18">
@@ -3278,105 +3453,105 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K39" s="1">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M39" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P39" s="1">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="R39" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:18">
-      <c r="B40" s="3" t="s">
-        <v>160</v>
+      <c r="B40" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="F40" s="1">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H40" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P40" s="1">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="R40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:8">
       <c r="B41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F41" s="1">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>41</v>
+      <c r="B42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F42" s="1">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>169</v>
+      <c r="B43" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
@@ -3384,39 +3559,39 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H44" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="1">
         <v>3</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>58</v>
+      <c r="B45" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F45" s="1">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H45" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:8">
@@ -3424,19 +3599,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F46" s="1">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
@@ -3444,19 +3619,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F47" s="1">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H47" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
@@ -3464,19 +3639,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F48" s="1">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H48" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -3484,19 +3659,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F49" s="1">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="6:8">
@@ -3504,10 +3679,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="6:8">
@@ -3515,10 +3690,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="6:8">
@@ -3526,89 +3701,89 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H52" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:8">
-      <c r="B53" s="3" t="s">
-        <v>198</v>
+      <c r="B53" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="F53" s="1">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:8">
       <c r="B54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F54" s="1">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>41</v>
+      <c r="B55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F55" s="1">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H55" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="1">
         <v>1</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>111</v>
+      <c r="B56" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F56" s="1">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H56" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
       <c r="A57" s="1">
         <v>2</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>105</v>
+      <c r="B57" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -3617,10 +3792,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -3629,10 +3804,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -3655,7 +3830,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
@@ -3663,46 +3838,46 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="3" t="s">
-        <v>212</v>
+      <c r="C4" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:3">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>213</v>
+      <c r="C7" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>215</v>
+      <c r="C8" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -3710,10 +3885,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -3721,10 +3896,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -3732,10 +3907,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -3743,10 +3918,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3754,10 +3929,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3770,13 +3945,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:N54"/>
+  <dimension ref="B3:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="8.88888888888889" style="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
@@ -3789,56 +3964,56 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:13">
-      <c r="C3" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>222</v>
+      <c r="C3" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="3" t="s">
-        <v>223</v>
+      <c r="M3" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:13">
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>41</v>
+      <c r="M5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
@@ -3846,28 +4021,28 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
@@ -3875,28 +4050,28 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
@@ -3904,28 +4079,28 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:14">
@@ -3933,28 +4108,28 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
@@ -3962,64 +4137,64 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>243</v>
+      <c r="C13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
       <c r="C14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>41</v>
+      <c r="H15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
@@ -4027,19 +4202,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
@@ -4047,19 +4222,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I17" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -4067,19 +4242,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -4087,19 +4262,19 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G19" s="1">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -4107,209 +4282,338 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G20" s="1">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:8">
+      <c r="B23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:8">
+      <c r="C24" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:9">
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:4">
-      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:4">
+      <c r="H25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:9">
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:9">
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:4">
+        <v>62</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:9">
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:4">
+        <v>260</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>253</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:9">
       <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:4">
+        <v>261</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>254</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:9">
       <c r="B30" s="1">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:4">
+        <v>217</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>262</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:9">
       <c r="B31" s="1">
         <v>5</v>
       </c>
       <c r="C31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:3">
+      <c r="C35" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:3">
+      <c r="C36" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:4">
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>258</v>
       </c>
-      <c r="D31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" customHeight="1" spans="3:3">
-      <c r="C36" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:3">
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>41</v>
+      <c r="D38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="B39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
       <c r="B40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
       <c r="B41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
       <c r="B42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
       <c r="B43" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
       <c r="B44" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:4">
+      <c r="B45" s="1">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:4">
+      <c r="B46" s="1">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:4">
+      <c r="B47" s="1">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:4">
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>282</v>
+      </c>
+      <c r="D48" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:4">
+      <c r="B49" s="1">
+        <v>12</v>
+      </c>
       <c r="C49" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
-      </c>
-      <c r="E49" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:3">
-      <c r="C54" t="s">
-        <v>266</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:5">
+      <c r="C56" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" t="s">
+        <v>287</v>
+      </c>
+      <c r="E56" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:3">
+      <c r="C61" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4321,35 +4625,40 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:I66"/>
+  <dimension ref="B2:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="8.88888888888889" style="1"/>
-    <col min="3" max="3" width="26.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="90.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="19.7777777777778" customWidth="1"/>
     <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" customHeight="1" spans="3:3">
+      <c r="C2" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
     <row r="3" customHeight="1" spans="3:3">
-      <c r="C3" t="s">
-        <v>267</v>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
@@ -4357,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -4368,10 +4677,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -4379,10 +4688,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -4390,401 +4699,492 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:3">
+      <c r="C11" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:4">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:4">
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:4">
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:3">
-      <c r="C13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:4">
-      <c r="B14" s="2" t="s">
+    <row r="18" customHeight="1" spans="2:4">
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:4">
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:4">
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:4">
+      <c r="B21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:4">
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:4">
+      <c r="B23" s="1">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:4">
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:4">
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:4">
+      <c r="B26" s="1">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:4">
+      <c r="B27" s="1">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:3">
+      <c r="C30" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:3">
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:4">
+      <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:4">
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:4">
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:4">
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:4">
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:4">
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:8">
+      <c r="C42" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:8">
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:3">
-      <c r="B15" s="1">
+    </row>
+    <row r="44" customHeight="1" spans="2:9">
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:9">
+      <c r="B45" s="1">
         <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:3">
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:3">
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:3">
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:3">
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:3">
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:3">
-      <c r="B21" s="1">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:3">
-      <c r="B22" s="1">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:2">
-      <c r="B23" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:2">
-      <c r="B24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:3">
-      <c r="C37" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:4">
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>254</v>
-      </c>
-      <c r="D40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:4">
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:4">
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:4">
-      <c r="B43" s="1">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="1">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>261</v>
-      </c>
-      <c r="D44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:4">
-      <c r="B45" s="1">
-        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>258</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:8">
-      <c r="C49" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:8">
+        <v>62</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>258</v>
+      </c>
+      <c r="I45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:9">
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:9">
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>313</v>
+      </c>
+      <c r="I47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:9">
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>315</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>315</v>
+      </c>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:9">
+      <c r="B49" s="1">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>316</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:9">
+      <c r="B50" s="1">
+        <v>6</v>
+      </c>
       <c r="C50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>317</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6</v>
+      </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>317</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
-      <c r="B51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>41</v>
+      <c r="B51" s="1">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>318</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="1">
+        <v>7</v>
+      </c>
+      <c r="H51" t="s">
+        <v>318</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
       <c r="B52" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="I52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:9">
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" t="s">
-        <v>257</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2</v>
-      </c>
-      <c r="H53" t="s">
-        <v>56</v>
-      </c>
-      <c r="I53" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="2:9">
-      <c r="B54" s="1">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>275</v>
-      </c>
-      <c r="D54" t="s">
-        <v>276</v>
-      </c>
-      <c r="G54" s="1">
-        <v>3</v>
-      </c>
-      <c r="H54" t="s">
-        <v>275</v>
-      </c>
-      <c r="I54" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="2:9">
-      <c r="B55" s="1">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>277</v>
-      </c>
-      <c r="D55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="1">
-        <v>4</v>
-      </c>
-      <c r="H55" t="s">
-        <v>277</v>
-      </c>
-      <c r="I55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="2:9">
-      <c r="B56" s="1">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>278</v>
-      </c>
-      <c r="D56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" s="1">
-        <v>5</v>
-      </c>
-      <c r="H56" t="s">
-        <v>278</v>
-      </c>
-      <c r="I56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="2:9">
-      <c r="B57" s="1">
-        <v>6</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:4">
+      <c r="B57" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C57" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="1">
-        <v>6</v>
-      </c>
-      <c r="H57" t="s">
-        <v>279</v>
-      </c>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="2:9">
-      <c r="B58" s="1">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>280</v>
-      </c>
-      <c r="D58" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" s="1">
-        <v>7</v>
-      </c>
-      <c r="H58" t="s">
-        <v>280</v>
-      </c>
-      <c r="I58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="2:9">
-      <c r="B59" s="1">
-        <v>8</v>
-      </c>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:3">
       <c r="C59" t="s">
-        <v>281</v>
-      </c>
-      <c r="D59" t="s">
-        <v>282</v>
-      </c>
-      <c r="G59" s="1">
-        <v>8</v>
-      </c>
-      <c r="H59" t="s">
-        <v>281</v>
-      </c>
-      <c r="I59" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="2:4">
-      <c r="B64" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:3">
-      <c r="C66" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,17 @@
     <sheet name="DWD" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$29</definedName>
     <definedName name="A股的筹码分布数据">Tinsight!$G$27</definedName>
     <definedName name="北向持仓数据">Tinsight!$B$53</definedName>
     <definedName name="大A的主要指数日K">Tinsight!$G$13</definedName>
     <definedName name="当日大A行情温度">Tinsight!$L$13</definedName>
     <definedName name="当日已上市股票的历史日K">Tinsight!$B$13</definedName>
     <definedName name="当日已上市股票码表">Tinsight!$B$4</definedName>
-    <definedName name="跌停股票清单">DWD!$H$42</definedName>
+    <definedName name="跌停股票清单">DWD!$H$43</definedName>
     <definedName name="个股的股东数">Tinsight!$B$40</definedName>
     <definedName name="华泰股票行业明细">Tinsight!$Q$27</definedName>
-    <definedName name="汇总板块码表">DWD!$C$30</definedName>
+    <definedName name="汇总板块码表">DWD!$C$31</definedName>
     <definedName name="美股_日K">Tvantage!$C$4</definedName>
     <definedName name="内盘主要期货数据日K">Tinsight!$B$27</definedName>
     <definedName name="通达信地区板块数据">TDX!$H$3</definedName>
@@ -34,7 +34,10 @@
     <definedName name="通达信指数板块数据">TDX!$H$13</definedName>
     <definedName name="小红书渠道个股板块数据">TDX!$C$24</definedName>
     <definedName name="行业分类_申万三级分类">Tinsight!$L$27</definedName>
-    <definedName name="涨停股票清单">DWD!$C$42</definedName>
+    <definedName name="涨停股票清单">DWD!$C$43</definedName>
+    <definedName name="股票基本面数据_资产数据">TDX!$C$35</definedName>
+    <definedName name="股票基本面数据_所属交易所">DWD!$C$2</definedName>
+    <definedName name="股票基础信息大宽表">DWD!$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="336">
   <si>
     <t>序号</t>
   </si>
@@ -77,6 +80,9 @@
     <t>更新频率</t>
   </si>
   <si>
+    <t>数据源表</t>
+  </si>
+  <si>
     <t>ODS</t>
   </si>
   <si>
@@ -101,13 +107,13 @@
     <t>ods_north_bound_daily</t>
   </si>
   <si>
-    <t>从 ods_stock_code_daily_insight 计算得到</t>
-  </si>
-  <si>
     <t>ods_stock_exchange_market</t>
   </si>
   <si>
-    <t>股票基本面数据 -- 所属交易所</t>
+    <t>TDX</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_pepb_info</t>
   </si>
   <si>
     <t>行情数据</t>
@@ -128,6 +134,18 @@
     <t>ods_us_stock_daily_vantage</t>
   </si>
   <si>
+    <t>ods_exchange_rate_vantage_detail</t>
+  </si>
+  <si>
+    <t>汇率&amp;美元指数 日K</t>
+  </si>
+  <si>
+    <t>ods_exchange_dxy_vantage</t>
+  </si>
+  <si>
+    <t>美元指数 日K</t>
+  </si>
+  <si>
     <t>大盘情绪</t>
   </si>
   <si>
@@ -143,9 +161,6 @@
     <t>ods_astock_industry_detail</t>
   </si>
   <si>
-    <t>TDX</t>
-  </si>
-  <si>
     <t>ods_tdx_stock_concept_plate</t>
   </si>
   <si>
@@ -173,9 +188,30 @@
     <t>DWD</t>
   </si>
   <si>
+    <t>ods_tdx_stock_concept_plate
+ods_tdx_stock_style_plate
+ods_tdx_stock_industry_plate
+ods_tdx_stock_region_plate
+ods_tdx_stock_index_plate
+ods_stock_plate_redbook</t>
+  </si>
+  <si>
+    <t>dwd_ashare_stock_base_info</t>
+  </si>
+  <si>
+    <t>ods_stock_kline_daily_insight
+ods_tdx_stock_pepb_info
+ods_stock_exchange_market
+dwd_stock_a_total_plate</t>
+  </si>
+  <si>
     <t>dwd_stock_ZT_list</t>
   </si>
   <si>
+    <t>ods_stock_kline_daily_insight
+dwd_ashare_stock_base_info</t>
+  </si>
+  <si>
     <t>dwd_stock_DT_list</t>
   </si>
   <si>
@@ -728,6 +764,30 @@
     <t>volume</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>货币对</t>
+  </si>
+  <si>
+    <t>ymd</t>
+  </si>
+  <si>
+    <t>美元指数</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
     <t>通达信概念板块数据</t>
   </si>
   <si>
@@ -830,9 +890,6 @@
     <t>小红书渠道个股板块数据</t>
   </si>
   <si>
-    <t>ymd</t>
-  </si>
-  <si>
     <t>plate_name</t>
   </si>
   <si>
@@ -857,9 +914,6 @@
     <t>股票基本面数据_资产数据</t>
   </si>
   <si>
-    <t>ods_tdx_stock_pepb_info</t>
-  </si>
-  <si>
     <t>market_value</t>
   </si>
   <si>
@@ -935,7 +989,7 @@
     <t>市场特征主板创业板等</t>
   </si>
   <si>
-    <t>dwd_ashare_stock_base_info</t>
+    <t>股票基础信息大宽表</t>
   </si>
   <si>
     <t xml:space="preserve">stock_code     </t>
@@ -998,25 +1052,19 @@
     <t>last_close</t>
   </si>
   <si>
-    <t>昨日收盘</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
+    <t>昨日收盘价</t>
   </si>
   <si>
     <t>rate</t>
   </si>
   <si>
     <t>涨幅</t>
+  </si>
+  <si>
+    <t>total_value</t>
+  </si>
+  <si>
+    <t>plate_names</t>
   </si>
   <si>
     <t>对</t>
@@ -1038,14 +1086,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,22 +1098,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1230,7 +1255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1336,12 +1361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,133 +1575,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1696,26 +1715,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1784,13 +1803,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>572135</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1691005</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1800,7 +1819,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9990455" y="4099560"/>
+          <a:off x="11445875" y="5366385"/>
           <a:ext cx="1118870" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -2085,28 +2104,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="33.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="26.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="21.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.95" customHeight="1"/>
-    <row r="2" ht="19.95" customHeight="1" spans="1:7">
+    <row r="2" ht="19.95" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2116,17 +2136,20 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" spans="1:7">
@@ -2134,23 +2157,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="19.95" customHeight="1" spans="1:7">
@@ -2158,23 +2181,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="19.95" customHeight="1" spans="1:7">
@@ -2182,23 +2205,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="19.95" customHeight="1" spans="1:7">
@@ -2206,446 +2229,537 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="19.95" customHeight="1" spans="2:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="str">
+        <f>HYPERLINK("#股票基本面数据_所属交易所",股票基本面数据_所属交易所)</f>
+        <v>股票基本面数据_所属交易所</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" ht="19.95" customHeight="1"/>
-    <row r="10" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A10" s="1">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>HYPERLINK("#股票基本面数据_资产数据",股票基本面数据_资产数据)</f>
+        <v>股票基本面数据_资产数据</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" ht="19.95" customHeight="1"/>
+    <row r="12" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="7" t="str">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A11" s="1">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="str">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A12" s="1">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="str">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="7" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="19.95" customHeight="1" spans="2:6">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="19.95" customHeight="1" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="7" t="str">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="7" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="19.95" customHeight="1"/>
-    <row r="17" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A17" s="1">
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="19.95" customHeight="1"/>
+    <row r="22" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="7" t="str">
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="7" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A18" s="1">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A23" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="str">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="7" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A19" s="1">
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A24" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="7" t="str">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A20" s="1">
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A25" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="7" t="str">
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="7" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="7" t="str">
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="7" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
-    <row r="21" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A21" s="1">
+    <row r="26" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A26" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="7" t="str">
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="7" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A22" s="1">
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A27" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="7" t="str">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="7" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A23" s="1">
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A28" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="7" t="str">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="7" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A24" s="1">
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="7" t="str">
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="7" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" ht="19.95" customHeight="1" spans="1:6">
-      <c r="A30" s="1">
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" ht="19.95" customHeight="1" spans="6:6">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" ht="105" customHeight="1" spans="1:8">
+      <c r="A33" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="7" t="str">
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="7" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
-    </row>
-    <row r="31" ht="19.95" customHeight="1" spans="1:6">
-      <c r="A31" s="1">
+      <c r="H33" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" ht="67" customHeight="1" spans="1:8">
+      <c r="A34" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="str">
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f>HYPERLINK("#股票基础信息大宽表",股票基础信息大宽表)</f>
+        <v>股票基础信息大宽表</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" ht="40" customHeight="1" spans="1:8">
+      <c r="A35" s="1">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
-    </row>
-    <row r="32" ht="19.95" customHeight="1" spans="1:6">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="7" t="str">
+      <c r="H35" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" ht="42" customHeight="1" spans="1:8">
+      <c r="A36" s="1">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="7" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
-    </row>
-    <row r="33" ht="19.95" customHeight="1" spans="1:2">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1"/>
-    <row r="36" ht="19.95" customHeight="1"/>
+      <c r="H36" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="37" ht="19.95" customHeight="1"/>
     <row r="38" ht="19.95" customHeight="1"/>
     <row r="39" ht="19.95" customHeight="1"/>
@@ -2674,8 +2788,11 @@
     <row r="62" ht="19.95" customHeight="1"/>
     <row r="63" ht="19.95" customHeight="1"/>
     <row r="64" ht="19.95" customHeight="1"/>
+    <row r="65" ht="19.95" customHeight="1"/>
+    <row r="66" ht="19.95" customHeight="1"/>
+    <row r="67" ht="19.95" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K24" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K29" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2690,8 +2807,8 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
@@ -2708,24 +2825,24 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:2">
-      <c r="B4" s="4" t="s">
-        <v>41</v>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
@@ -2733,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
@@ -2744,10 +2861,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -2755,10 +2872,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -2766,61 +2883,61 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>55</v>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>44</v>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>44</v>
+      <c r="L15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -2828,28 +2945,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
@@ -2857,28 +2974,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
@@ -2886,28 +3003,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
@@ -2915,28 +3032,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K19" s="1">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
@@ -2944,28 +3061,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K20" s="1">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
@@ -2973,28 +3090,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K21" s="1">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
@@ -3002,28 +3119,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K22" s="1">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
@@ -3031,85 +3148,85 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
-      <c r="B27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>98</v>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:17">
       <c r="B28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Q28" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>44</v>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>44</v>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>44</v>
+      <c r="L29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>44</v>
+      <c r="Q29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
@@ -3117,37 +3234,37 @@
         <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P30" s="1">
         <v>1</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="R30" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
@@ -3155,37 +3272,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P31" s="1">
         <v>2</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="R31" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -3193,37 +3310,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K32" s="1">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P32" s="1">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="R32" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -3231,37 +3348,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K33" s="1">
         <v>4</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M33" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="P33" s="1">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
+        <v>135</v>
+      </c>
+      <c r="R33" t="s">
         <v>127</v>
-      </c>
-      <c r="R33" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -3269,37 +3386,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H34" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K34" s="1">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P34" s="1">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="R34" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -3307,37 +3424,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K35" s="1">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M35" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P35" s="1">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="R35" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -3345,37 +3462,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F36" s="1">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K36" s="1">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P36" s="1">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="R36" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -3383,34 +3500,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F37" s="1">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K37" s="1">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="M37" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="P37" s="1">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="R37" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -3418,34 +3535,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F38" s="1">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H38" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K38" s="1">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M38" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P38" s="1">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="R38" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="6:18">
@@ -3453,85 +3570,85 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H39" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K39" s="1">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="M39" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="P39" s="1">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="R39" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:18">
-      <c r="B40" s="4" t="s">
-        <v>163</v>
+      <c r="B40" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F40" s="1">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H40" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="P40" s="1">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="R40" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:8">
       <c r="B41" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F41" s="1">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H41" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>44</v>
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F42" s="1">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H42" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
@@ -3539,19 +3656,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F43" s="1">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H43" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
@@ -3559,19 +3676,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F44" s="1">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:8">
@@ -3579,19 +3696,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F45" s="1">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H45" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:8">
@@ -3599,19 +3716,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F46" s="1">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H46" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
@@ -3619,19 +3736,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F47" s="1">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H47" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
@@ -3639,19 +3756,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F48" s="1">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H48" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -3659,19 +3776,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F49" s="1">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H49" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="6:8">
@@ -3679,10 +3796,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H50" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="6:8">
@@ -3690,10 +3807,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H51" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="6:8">
@@ -3701,58 +3818,58 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H52" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:8">
-      <c r="B53" s="4" t="s">
-        <v>201</v>
+      <c r="B53" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="F53" s="1">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H53" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:8">
       <c r="B54" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F54" s="1">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H54" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>44</v>
+      <c r="B55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F55" s="1">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H55" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
@@ -3760,19 +3877,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F56" s="1">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H56" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
@@ -3780,10 +3897,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -3792,10 +3909,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -3804,10 +3921,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -3824,38 +3941,40 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:D13"/>
+  <dimension ref="B4:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="4" t="s">
-        <v>215</v>
+      <c r="C4" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:3">
-      <c r="C5" t="s">
-        <v>23</v>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>44</v>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -3863,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -3874,10 +3993,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -3885,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -3896,10 +4015,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -3907,10 +4026,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -3918,10 +4037,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -3929,11 +4048,137 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:8">
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:8">
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:9">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:9">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:9">
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:7">
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:7">
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:7">
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:7">
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3947,8 +4192,8 @@
   <sheetPr/>
   <dimension ref="B3:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -3964,56 +4209,56 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:13">
-      <c r="C3" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>225</v>
+      <c r="C3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="4" t="s">
-        <v>226</v>
+      <c r="M3" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:13">
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>44</v>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>44</v>
+      <c r="M5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
@@ -4021,28 +4266,28 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:14">
@@ -4050,28 +4295,28 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="N7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
@@ -4079,28 +4324,28 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:14">
@@ -4108,28 +4353,28 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
@@ -4137,64 +4382,64 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>246</v>
+      <c r="C13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:8">
       <c r="C14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:9">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>44</v>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:9">
@@ -4202,19 +4447,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
@@ -4222,19 +4467,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I17" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -4242,19 +4487,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="I18" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -4262,19 +4507,19 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -4282,69 +4527,69 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G20" s="1">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:8">
       <c r="B23" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>256</v>
+        <v>271</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="4" t="s">
-        <v>257</v>
+      <c r="C24" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:9">
       <c r="C25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>44</v>
+      <c r="H25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>44</v>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
@@ -4352,19 +4597,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="I27" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:9">
@@ -4372,19 +4617,19 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -4392,19 +4637,19 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -4412,19 +4657,19 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -4432,40 +4677,40 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D31" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G31" s="1">
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="5" t="s">
-        <v>266</v>
+      <c r="C35" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:3">
-      <c r="C36" s="2" t="s">
-        <v>267</v>
+      <c r="C36" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:4">
       <c r="B37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>44</v>
+      <c r="C37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
@@ -4473,10 +4718,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
@@ -4484,10 +4729,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
@@ -4495,10 +4740,10 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -4506,10 +4751,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -4517,10 +4762,10 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D42" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -4528,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -4539,10 +4784,10 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D44" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -4550,10 +4795,10 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -4561,10 +4806,10 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
@@ -4572,10 +4817,10 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="D47" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:4">
@@ -4583,10 +4828,10 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:4">
@@ -4594,26 +4839,26 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:5">
       <c r="C56" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D56" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="E56" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:3">
       <c r="C61" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4625,24 +4870,24 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I59"/>
+  <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="8.88888888888889" style="1"/>
     <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="90.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="19.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="3:3">
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="3:3">
@@ -4654,11 +4899,11 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
@@ -4666,10 +4911,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -4677,10 +4922,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -4688,10 +4933,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -4699,492 +4944,677 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:3">
-      <c r="C11" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:3">
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:4">
       <c r="B14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:4">
       <c r="B16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:4">
       <c r="B17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="B18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="D19" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
       <c r="B20" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
       <c r="B21" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
       <c r="B22" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
       <c r="B23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
       <c r="B24" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D24" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
       <c r="B25" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
       <c r="B26" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="D26" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
       <c r="B27" s="1">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:4">
+      <c r="B28" s="1">
         <v>15</v>
       </c>
-      <c r="C27" t="s">
-        <v>310</v>
-      </c>
-      <c r="D27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:3">
-      <c r="C30" s="4" t="s">
-        <v>256</v>
+      <c r="C28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:4">
-      <c r="B32" s="3" t="s">
+      <c r="C31" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:3">
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:4">
+      <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:4">
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
+      <c r="C33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
       <c r="B34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D34" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
       <c r="B35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:4">
       <c r="B36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:4">
       <c r="B37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D37" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:4">
+      <c r="B39" s="1">
         <v>6</v>
       </c>
-      <c r="C38" t="s">
-        <v>264</v>
-      </c>
-      <c r="D38" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:8">
-      <c r="C42" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="4" t="s">
-        <v>312</v>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:8">
-      <c r="C43" t="s">
-        <v>39</v>
+      <c r="C43" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:9">
-      <c r="B44" s="3" t="s">
+      <c r="H43" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:8">
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:9">
+      <c r="B45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:9">
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>258</v>
-      </c>
-      <c r="I45" t="s">
-        <v>62</v>
+      <c r="H45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
       <c r="B46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="G46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="I46" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
       <c r="B47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="D47" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="G47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="I47" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
       <c r="B48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="G48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:9">
       <c r="B49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="G49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="B50" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
       <c r="B51" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="G51" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
       <c r="B52" s="1">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" s="1">
+        <v>7</v>
+      </c>
+      <c r="H52" t="s">
+        <v>282</v>
+      </c>
+      <c r="I52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="1">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
-        <v>319</v>
-      </c>
-      <c r="D52" t="s">
-        <v>320</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="C53" t="s">
+        <v>331</v>
+      </c>
+      <c r="D53" t="s">
+        <v>316</v>
+      </c>
+      <c r="G53" s="1">
         <v>8</v>
       </c>
-      <c r="H52" t="s">
-        <v>319</v>
-      </c>
-      <c r="I52" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="2:4">
-      <c r="B57" s="1" t="s">
-        <v>321</v>
+      <c r="H53" t="s">
+        <v>331</v>
+      </c>
+      <c r="I53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:9">
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" t="s">
+        <v>285</v>
+      </c>
+      <c r="G54" s="4">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>284</v>
+      </c>
+      <c r="I54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:9">
+      <c r="B55" s="1">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="4">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>286</v>
+      </c>
+      <c r="I55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:9">
+      <c r="B56" s="1">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>288</v>
+      </c>
+      <c r="D56" t="s">
+        <v>289</v>
+      </c>
+      <c r="G56" s="4">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>288</v>
+      </c>
+      <c r="I56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:9">
+      <c r="B57" s="1">
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="D57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:3">
+        <v>291</v>
+      </c>
+      <c r="G57" s="4">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>290</v>
+      </c>
+      <c r="I57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:9">
+      <c r="B58" s="1">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" t="s">
+        <v>293</v>
+      </c>
+      <c r="G58" s="4">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>292</v>
+      </c>
+      <c r="I58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:9">
+      <c r="B59" s="1">
+        <v>14</v>
+      </c>
       <c r="C59" t="s">
-        <v>323</v>
+        <v>294</v>
+      </c>
+      <c r="D59" t="s">
+        <v>295</v>
+      </c>
+      <c r="G59" s="4">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>294</v>
+      </c>
+      <c r="I59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:9">
+      <c r="B60" s="1">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>296</v>
+      </c>
+      <c r="D60" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" s="4">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>296</v>
+      </c>
+      <c r="I60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:9">
+      <c r="B61" s="1">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" t="s">
+        <v>306</v>
+      </c>
+      <c r="G61" s="4">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>305</v>
+      </c>
+      <c r="I61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:9">
+      <c r="B62" s="1">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" t="s">
+        <v>275</v>
+      </c>
+      <c r="G62" s="4">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>332</v>
+      </c>
+      <c r="I62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:4">
+      <c r="B66" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:3">
+      <c r="C68" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
     <sheet name="Tinsight" sheetId="2" r:id="rId2"/>
     <sheet name="Tvantage" sheetId="3" r:id="rId3"/>
     <sheet name="TDX" sheetId="4" r:id="rId4"/>
-    <sheet name="DWD" sheetId="5" r:id="rId5"/>
+    <sheet name="ODS_DWD" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$29</definedName>
@@ -21,23 +22,23 @@
     <definedName name="当日大A行情温度">Tinsight!$L$13</definedName>
     <definedName name="当日已上市股票的历史日K">Tinsight!$B$13</definedName>
     <definedName name="当日已上市股票码表">Tinsight!$B$4</definedName>
-    <definedName name="跌停股票清单">DWD!$H$43</definedName>
+    <definedName name="跌停股票清单">ODS_DWD!$H$50</definedName>
     <definedName name="个股的股东数">Tinsight!$B$40</definedName>
     <definedName name="华泰股票行业明细">Tinsight!$Q$27</definedName>
-    <definedName name="汇总板块码表">DWD!$C$31</definedName>
+    <definedName name="汇总板块码表">ODS_DWD!$C$38</definedName>
     <definedName name="美股_日K">Tvantage!$C$4</definedName>
     <definedName name="内盘主要期货数据日K">Tinsight!$B$27</definedName>
-    <definedName name="通达信地区板块数据">TDX!$H$3</definedName>
-    <definedName name="通达信风格板块数据">TDX!$C$13</definedName>
-    <definedName name="通达信概念板块数据">TDX!$C$3</definedName>
-    <definedName name="通达信行业板块数据">TDX!$M$3</definedName>
-    <definedName name="通达信指数板块数据">TDX!$H$13</definedName>
-    <definedName name="小红书渠道个股板块数据">TDX!$C$24</definedName>
+    <definedName name="通达信地区板块数据">TDX!$H$6</definedName>
+    <definedName name="通达信风格板块数据">TDX!$C$16</definedName>
+    <definedName name="通达信概念板块数据">TDX!$C$6</definedName>
+    <definedName name="通达信行业板块数据">TDX!$M$6</definedName>
+    <definedName name="通达信指数板块数据">TDX!$H$16</definedName>
+    <definedName name="小红书渠道个股板块数据">TDX!$C$27</definedName>
     <definedName name="行业分类_申万三级分类">Tinsight!$L$27</definedName>
-    <definedName name="涨停股票清单">DWD!$C$43</definedName>
-    <definedName name="股票基本面数据_资产数据">TDX!$C$35</definedName>
-    <definedName name="股票基本面数据_所属交易所">DWD!$C$2</definedName>
-    <definedName name="股票基础信息大宽表">DWD!$C$11</definedName>
+    <definedName name="涨停股票清单">ODS_DWD!$C$50</definedName>
+    <definedName name="股票基本面数据_资产数据">TDX!$C$38</definedName>
+    <definedName name="股票基本面数据_所属交易所">ODS_DWD!$C$6</definedName>
+    <definedName name="股票基础信息大宽表">ODS_DWD!$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="339">
   <si>
     <t>序号</t>
   </si>
@@ -788,6 +789,18 @@
     <t>close</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业标签数据</t>
+    </r>
+  </si>
+  <si>
     <t>通达信概念板块数据</t>
   </si>
   <si>
@@ -980,6 +993,21 @@
     <t>净资产</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">ODS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+  </si>
+  <si>
     <t>股票基本面数据_所属交易所</t>
   </si>
   <si>
@@ -987,6 +1015,21 @@
   </si>
   <si>
     <t>市场特征主板创业板等</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DWD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
   </si>
   <si>
     <t>股票基础信息大宽表</t>
@@ -1086,13 +1129,20 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1254,13 +1304,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1575,159 +1656,177 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2106,16 +2205,16 @@
   <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12.1111111111111" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
@@ -2127,39 +2226,39 @@
   <sheetData>
     <row r="1" ht="19.95" customHeight="1"/>
     <row r="2" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -2168,7 +2267,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="str">
+      <c r="F3" s="13" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
@@ -2177,13 +2276,13 @@
       </c>
     </row>
     <row r="4" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -2192,7 +2291,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="str">
+      <c r="F4" s="13" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
@@ -2201,13 +2300,13 @@
       </c>
     </row>
     <row r="5" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -2216,7 +2315,7 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="str">
+      <c r="F5" s="13" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
@@ -2225,13 +2324,13 @@
       </c>
     </row>
     <row r="6" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
@@ -2240,7 +2339,7 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7" t="str">
+      <c r="F6" s="13" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
@@ -2249,22 +2348,22 @@
       </c>
     </row>
     <row r="7" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7" t="str">
+      <c r="F7" s="13" t="str">
         <f>HYPERLINK("#股票基本面数据_所属交易所",股票基本面数据_所属交易所)</f>
         <v>股票基本面数据_所属交易所</v>
       </c>
@@ -2276,13 +2375,13 @@
       </c>
     </row>
     <row r="8" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
@@ -2291,7 +2390,7 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="str">
+      <c r="F8" s="13" t="str">
         <f>HYPERLINK("#股票基本面数据_资产数据",股票基本面数据_资产数据)</f>
         <v>股票基本面数据_资产数据</v>
       </c>
@@ -2300,20 +2399,20 @@
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F9" s="7"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F10" s="7"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" ht="19.95" customHeight="1"/>
     <row r="12" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
@@ -2322,7 +2421,7 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="7" t="str">
+      <c r="F12" s="13" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
@@ -2331,13 +2430,13 @@
       </c>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
@@ -2346,7 +2445,7 @@
       <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="F13" s="13" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
@@ -2355,13 +2454,13 @@
       </c>
     </row>
     <row r="14" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
@@ -2370,7 +2469,7 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="7" t="str">
+      <c r="F14" s="13" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
@@ -2379,13 +2478,13 @@
       </c>
     </row>
     <row r="15" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -2394,7 +2493,7 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="7" t="str">
+      <c r="F15" s="13" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
@@ -2403,10 +2502,10 @@
       </c>
     </row>
     <row r="16" ht="19.95" customHeight="1" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
@@ -2415,15 +2514,15 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="19.95" customHeight="1" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
@@ -2432,24 +2531,24 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F18" s="7"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F19" s="7"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
@@ -2458,7 +2557,7 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="7" t="str">
+      <c r="F20" s="13" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
@@ -2468,13 +2567,13 @@
     </row>
     <row r="21" ht="19.95" customHeight="1"/>
     <row r="22" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
@@ -2483,7 +2582,7 @@
       <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="7" t="str">
+      <c r="F22" s="13" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
@@ -2492,13 +2591,13 @@
       </c>
     </row>
     <row r="23" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
@@ -2507,7 +2606,7 @@
       <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="7" t="str">
+      <c r="F23" s="13" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
@@ -2516,13 +2615,13 @@
       </c>
     </row>
     <row r="24" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>15</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
@@ -2531,7 +2630,7 @@
       <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="7" t="str">
+      <c r="F24" s="13" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
@@ -2540,13 +2639,13 @@
       </c>
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>16</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
@@ -2555,29 +2654,29 @@
       <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="7" t="str">
+      <c r="F25" s="13" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="7" t="str">
+      <c r="L25" s="13" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
     <row r="26" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>17</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
@@ -2586,7 +2685,7 @@
       <c r="E26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="str">
+      <c r="F26" s="13" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
@@ -2595,13 +2694,13 @@
       </c>
     </row>
     <row r="27" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>18</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
@@ -2610,7 +2709,7 @@
       <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="7" t="str">
+      <c r="F27" s="13" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
@@ -2619,13 +2718,13 @@
       </c>
     </row>
     <row r="28" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>19</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
@@ -2634,7 +2733,7 @@
       <c r="E28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="7" t="str">
+      <c r="F28" s="13" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
@@ -2643,13 +2742,13 @@
       </c>
     </row>
     <row r="29" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>20</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
@@ -2658,7 +2757,7 @@
       <c r="E29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="7" t="str">
+      <c r="F29" s="13" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
@@ -2667,96 +2766,96 @@
       </c>
     </row>
     <row r="30" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F30" s="7"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F31" s="7"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F32" s="7"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" ht="105" customHeight="1" spans="1:8">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>26</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="7" t="str">
+      <c r="F33" s="13" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" ht="67" customHeight="1" spans="1:8">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>27</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34"/>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="7" t="str">
+      <c r="F34" s="13" t="str">
         <f>HYPERLINK("#股票基础信息大宽表",股票基础信息大宽表)</f>
         <v>股票基础信息大宽表</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:8">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>28</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="7" t="str">
+      <c r="F35" s="13" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:8">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>29</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="7" t="str">
+      <c r="F36" s="13" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2807,13 +2906,13 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
@@ -2825,31 +2924,31 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="s">
@@ -2857,10 +2956,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C8" t="s">
@@ -2868,7 +2967,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -2879,7 +2978,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -2890,79 +2989,79 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="12" t="s">
         <v>67</v>
       </c>
       <c r="H16" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="12" t="s">
         <v>69</v>
       </c>
       <c r="M16" t="s">
@@ -2970,16 +3069,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>2</v>
       </c>
       <c r="G17" t="s">
@@ -2988,10 +3087,10 @@
       <c r="H17" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="12" t="s">
         <v>73</v>
       </c>
       <c r="M17" t="s">
@@ -2999,7 +3098,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -3008,16 +3107,16 @@
       <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="12" t="s">
         <v>77</v>
       </c>
       <c r="H18" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>3</v>
       </c>
       <c r="L18" t="s">
@@ -3028,7 +3127,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -3037,7 +3136,7 @@
       <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>4</v>
       </c>
       <c r="G19" t="s">
@@ -3046,7 +3145,7 @@
       <c r="H19" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <v>4</v>
       </c>
       <c r="L19" t="s">
@@ -3057,7 +3156,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -3066,7 +3165,7 @@
       <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>5</v>
       </c>
       <c r="G20" t="s">
@@ -3075,7 +3174,7 @@
       <c r="H20" t="s">
         <v>81</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <v>5</v>
       </c>
       <c r="L20" t="s">
@@ -3086,7 +3185,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -3095,7 +3194,7 @@
       <c r="C21" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>6</v>
       </c>
       <c r="G21" t="s">
@@ -3104,7 +3203,7 @@
       <c r="H21" t="s">
         <v>86</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <v>6</v>
       </c>
       <c r="L21" t="s">
@@ -3115,7 +3214,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>7</v>
       </c>
       <c r="B22" t="s">
@@ -3124,7 +3223,7 @@
       <c r="C22" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>7</v>
       </c>
       <c r="G22" t="s">
@@ -3133,7 +3232,7 @@
       <c r="H22" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <v>7</v>
       </c>
       <c r="L22" t="s">
@@ -3144,7 +3243,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -3153,7 +3252,7 @@
       <c r="C23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -3164,103 +3263,103 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:17">
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>1</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C30" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="12" t="s">
         <v>113</v>
       </c>
       <c r="H30" t="s">
         <v>114</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <v>1</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="12" t="s">
         <v>115</v>
       </c>
       <c r="M30" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="2">
         <v>1</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="12" t="s">
         <v>116</v>
       </c>
       <c r="R30" t="s">
@@ -3268,25 +3367,25 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>2</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C31" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="12" t="s">
         <v>118</v>
       </c>
       <c r="H31" t="s">
         <v>119</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <v>2</v>
       </c>
       <c r="L31" t="s">
@@ -3295,10 +3394,10 @@
       <c r="M31" t="s">
         <v>121</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="2">
         <v>2</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="12" t="s">
         <v>122</v>
       </c>
       <c r="R31" t="s">
@@ -3306,7 +3405,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>3</v>
       </c>
       <c r="B32" t="s">
@@ -3315,7 +3414,7 @@
       <c r="C32" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>3</v>
       </c>
       <c r="G32" t="s">
@@ -3324,7 +3423,7 @@
       <c r="H32" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="2">
         <v>3</v>
       </c>
       <c r="L32" t="s">
@@ -3333,7 +3432,7 @@
       <c r="M32" t="s">
         <v>127</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="2">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
@@ -3344,7 +3443,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -3353,7 +3452,7 @@
       <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>4</v>
       </c>
       <c r="G33" t="s">
@@ -3362,16 +3461,16 @@
       <c r="H33" t="s">
         <v>132</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="2">
         <v>4</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="12" t="s">
         <v>133</v>
       </c>
       <c r="M33" t="s">
         <v>134</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="2">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
@@ -3382,7 +3481,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -3391,7 +3490,7 @@
       <c r="C34" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>5</v>
       </c>
       <c r="G34" t="s">
@@ -3400,7 +3499,7 @@
       <c r="H34" t="s">
         <v>138</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="2">
         <v>5</v>
       </c>
       <c r="L34" t="s">
@@ -3409,7 +3508,7 @@
       <c r="M34" t="s">
         <v>140</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="2">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
@@ -3420,7 +3519,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>6</v>
       </c>
       <c r="B35" t="s">
@@ -3429,7 +3528,7 @@
       <c r="C35" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>6</v>
       </c>
       <c r="G35" t="s">
@@ -3438,7 +3537,7 @@
       <c r="H35" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <v>6</v>
       </c>
       <c r="L35" t="s">
@@ -3447,7 +3546,7 @@
       <c r="M35" t="s">
         <v>146</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="2">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
@@ -3458,7 +3557,7 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -3467,7 +3566,7 @@
       <c r="C36" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>7</v>
       </c>
       <c r="G36" t="s">
@@ -3476,7 +3575,7 @@
       <c r="H36" t="s">
         <v>150</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="2">
         <v>7</v>
       </c>
       <c r="L36" t="s">
@@ -3485,7 +3584,7 @@
       <c r="M36" t="s">
         <v>152</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="2">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
@@ -3496,13 +3595,13 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>154</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>8</v>
       </c>
       <c r="G37" t="s">
@@ -3511,7 +3610,7 @@
       <c r="H37" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="2">
         <v>8</v>
       </c>
       <c r="L37" t="s">
@@ -3520,7 +3619,7 @@
       <c r="M37" t="s">
         <v>158</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="2">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
@@ -3531,13 +3630,13 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>160</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>9</v>
       </c>
       <c r="G38" t="s">
@@ -3546,7 +3645,7 @@
       <c r="H38" t="s">
         <v>162</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="2">
         <v>9</v>
       </c>
       <c r="L38" t="s">
@@ -3555,7 +3654,7 @@
       <c r="M38" t="s">
         <v>164</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="2">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
@@ -3566,7 +3665,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="6:18">
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>10</v>
       </c>
       <c r="G39" t="s">
@@ -3575,7 +3674,7 @@
       <c r="H39" t="s">
         <v>167</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="2">
         <v>10</v>
       </c>
       <c r="L39" t="s">
@@ -3584,7 +3683,7 @@
       <c r="M39" t="s">
         <v>169</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="2">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
@@ -3595,10 +3694,10 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:18">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -3607,7 +3706,7 @@
       <c r="H40" t="s">
         <v>173</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="2">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
@@ -3618,10 +3717,10 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:8">
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>12</v>
       </c>
       <c r="G41" t="s">
@@ -3632,16 +3731,16 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>13</v>
       </c>
       <c r="G42" t="s">
@@ -3652,16 +3751,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="12" t="s">
         <v>180</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>14</v>
       </c>
       <c r="G43" t="s">
@@ -3672,7 +3771,7 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -3681,7 +3780,7 @@
       <c r="C44" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -3692,16 +3791,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>3</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>16</v>
       </c>
       <c r="G45" t="s">
@@ -3712,7 +3811,7 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>4</v>
       </c>
       <c r="B46" t="s">
@@ -3721,7 +3820,7 @@
       <c r="C46" t="s">
         <v>188</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>17</v>
       </c>
       <c r="G46" t="s">
@@ -3732,7 +3831,7 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -3741,7 +3840,7 @@
       <c r="C47" t="s">
         <v>192</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>18</v>
       </c>
       <c r="G47" t="s">
@@ -3752,7 +3851,7 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>6</v>
       </c>
       <c r="B48" t="s">
@@ -3761,7 +3860,7 @@
       <c r="C48" t="s">
         <v>196</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>19</v>
       </c>
       <c r="G48" t="s">
@@ -3772,7 +3871,7 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -3781,7 +3880,7 @@
       <c r="C49" t="s">
         <v>200</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>20</v>
       </c>
       <c r="G49" t="s">
@@ -3792,7 +3891,7 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="6:8">
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>21</v>
       </c>
       <c r="G50" t="s">
@@ -3803,7 +3902,7 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="6:8">
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>22</v>
       </c>
       <c r="G51" t="s">
@@ -3814,7 +3913,7 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="6:8">
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>23</v>
       </c>
       <c r="G52" t="s">
@@ -3825,10 +3924,10 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:8">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>24</v>
       </c>
       <c r="G53" t="s">
@@ -3839,10 +3938,10 @@
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:8">
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>25</v>
       </c>
       <c r="G54" t="s">
@@ -3853,16 +3952,16 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>26</v>
       </c>
       <c r="G55" t="s">
@@ -3873,16 +3972,16 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>1</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>27</v>
       </c>
       <c r="G56" t="s">
@@ -3893,19 +3992,19 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>2</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="12" t="s">
         <v>116</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>3</v>
       </c>
       <c r="B58" t="s">
@@ -3914,10 +4013,10 @@
       <c r="C58" t="s">
         <v>220</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>4</v>
       </c>
       <c r="B59" t="s">
@@ -3926,10 +4025,10 @@
       <c r="C59" t="s">
         <v>222</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" customHeight="1" spans="6:6">
-      <c r="F60" s="1"/>
+      <c r="F60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3949,7 +4048,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
@@ -3957,31 +4056,31 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:3">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>224</v>
       </c>
       <c r="D7" t="s">
@@ -3989,10 +4088,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
         <v>226</v>
       </c>
       <c r="D8" t="s">
@@ -4000,7 +4099,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -4011,7 +4110,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -4022,7 +4121,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -4033,7 +4132,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>6</v>
       </c>
       <c r="C12" t="s">
@@ -4044,7 +4143,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>7</v>
       </c>
       <c r="C13" t="s">
@@ -4055,57 +4154,57 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="12" t="s">
         <v>232</v>
       </c>
       <c r="D21" t="s">
         <v>233</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="12" t="s">
         <v>234</v>
       </c>
       <c r="I21" t="s">
@@ -4113,19 +4212,19 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="12" t="s">
         <v>234</v>
       </c>
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="12" t="s">
         <v>232</v>
       </c>
       <c r="I22" t="s">
@@ -4133,7 +4232,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:7">
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -4142,10 +4241,10 @@
       <c r="D23" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>4</v>
       </c>
       <c r="C24" t="s">
@@ -4154,10 +4253,10 @@
       <c r="D24" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" customHeight="1" spans="2:7">
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>5</v>
       </c>
       <c r="C25" t="s">
@@ -4166,10 +4265,10 @@
       <c r="D25" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" customHeight="1" spans="2:7">
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>6</v>
       </c>
       <c r="C26" t="s">
@@ -4178,7 +4277,7 @@
       <c r="D26" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4190,678 +4289,713 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:N61"/>
+  <dimension ref="A3:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="2"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="2"/>
     <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
     <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
     <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="3:13">
-      <c r="C3" s="2" t="s">
+    <row r="3" customHeight="1" spans="1:13">
+      <c r="A3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:13">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:13">
+      <c r="C6" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="3:13">
-      <c r="C4" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:13">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="3" t="s">
+    <row r="8" customHeight="1" spans="2:14">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N8" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:14">
-      <c r="B6" s="1">
+    <row r="9" customHeight="1" spans="2:14">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L9" s="2">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M9" t="s">
         <v>115</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:14">
-      <c r="B7" s="1">
+    <row r="10" customHeight="1" spans="2:14">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="1">
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:14">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:14">
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:14">
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>261</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:8">
+      <c r="C16" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:8">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:9">
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:9">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:9">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" t="s">
         <v>247</v>
       </c>
-      <c r="I7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="G20" s="2">
         <v>2</v>
       </c>
-      <c r="M7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:14">
-      <c r="B8" s="1">
+      <c r="H20" t="s">
+        <v>265</v>
+      </c>
+      <c r="I20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:9">
+      <c r="B21" s="2">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="C21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="2">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>252</v>
-      </c>
-      <c r="I8" t="s">
-        <v>253</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="H21" t="s">
+        <v>268</v>
+      </c>
+      <c r="I21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:9">
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:9">
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>271</v>
+      </c>
+      <c r="I23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:8">
+      <c r="B26" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:8">
+      <c r="C27" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:9">
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:9">
+      <c r="B29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:9">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>275</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:9">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" t="s">
+        <v>276</v>
+      </c>
+      <c r="G31" s="2">
         <v>3</v>
       </c>
-      <c r="M8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="1">
+      <c r="H31" t="s">
+        <v>270</v>
+      </c>
+      <c r="I31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:9">
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" t="s">
+        <v>277</v>
+      </c>
+      <c r="G32" s="2">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="H32" t="s">
+        <v>271</v>
+      </c>
+      <c r="I32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:9">
+      <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
-        <v>256</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>278</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:9">
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>280</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:3">
+      <c r="C38" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:3">
+      <c r="C39" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:4">
+      <c r="B40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:4">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:4">
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:4">
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:4">
+      <c r="B44" s="2">
         <v>4</v>
       </c>
-      <c r="M9" t="s">
-        <v>257</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="1">
+      <c r="C44" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:4">
+      <c r="B45" s="2">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="1">
-        <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>260</v>
-      </c>
-      <c r="N10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:8">
-      <c r="C13" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:8">
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:9">
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:9">
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:9">
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>264</v>
-      </c>
-      <c r="I17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" t="s">
-        <v>251</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>267</v>
-      </c>
-      <c r="I18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>269</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>270</v>
-      </c>
-      <c r="I20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:8">
-      <c r="B23" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:8">
-      <c r="C24" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:9">
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:9">
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>234</v>
-      </c>
-      <c r="I26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:9">
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>274</v>
-      </c>
-      <c r="I27" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:9">
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G28" s="1">
-        <v>3</v>
-      </c>
-      <c r="H28" t="s">
-        <v>269</v>
-      </c>
-      <c r="I28" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" t="s">
-        <v>276</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="1">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>270</v>
-      </c>
-      <c r="D30" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" s="1">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="1">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>279</v>
-      </c>
-      <c r="D31" t="s">
-        <v>280</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="C45" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:4">
+      <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="H31" t="s">
-        <v>279</v>
-      </c>
-      <c r="I31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:3">
-      <c r="C36" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="2:4">
-      <c r="B37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:4">
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:4">
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:4">
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:4">
-      <c r="B41" s="1">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>282</v>
-      </c>
-      <c r="D41" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:4">
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>284</v>
-      </c>
-      <c r="D42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:4">
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C46" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="1">
+      <c r="D46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:4">
+      <c r="B47" s="2">
         <v>7</v>
       </c>
-      <c r="C44" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C47" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:4">
-      <c r="B45" s="1">
+      <c r="D47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:4">
+      <c r="B48" s="2">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C48" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:4">
-      <c r="B46" s="1">
+      <c r="D48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:4">
+      <c r="B49" s="2">
         <v>9</v>
       </c>
-      <c r="C46" t="s">
-        <v>292</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C49" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:4">
-      <c r="B47" s="1">
+      <c r="D49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:4">
+      <c r="B50" s="2">
         <v>10</v>
       </c>
-      <c r="C47" t="s">
-        <v>294</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C50" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:4">
-      <c r="B48" s="1">
+      <c r="D50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:4">
+      <c r="B51" s="2">
         <v>11</v>
       </c>
-      <c r="C48" t="s">
-        <v>296</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C51" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:4">
-      <c r="B49" s="1">
+      <c r="D51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:4">
+      <c r="B52" s="2">
         <v>12</v>
       </c>
-      <c r="C49" t="s">
-        <v>298</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C52" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:5">
-      <c r="C56" t="s">
+      <c r="D52" t="s">
         <v>300</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="59" customHeight="1" spans="3:5">
+      <c r="C59" t="s">
         <v>301</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D59" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:3">
-      <c r="C61" t="s">
+      <c r="E59" t="s">
         <v>303</v>
       </c>
     </row>
+    <row r="64" customHeight="1" spans="3:3">
+      <c r="C64" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:M4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4870,751 +5004,908 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I68"/>
+  <dimension ref="A2:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="2"/>
     <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="3:3">
-      <c r="C2" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="3:3">
-      <c r="C3" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:3">
+      <c r="C6" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:3">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:4">
-      <c r="B4" s="3" t="s">
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:4">
-      <c r="B5" s="1">
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:4">
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:2">
+      <c r="B17"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:3">
+      <c r="C18" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:3">
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:4">
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:4">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:4">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:4">
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:4">
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:4">
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:4">
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:4">
+      <c r="B27" s="2">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:4">
+      <c r="B28" s="2">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:4">
+      <c r="B29" s="2">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:4">
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:4">
+      <c r="B31" s="2">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:4">
+      <c r="B32" s="2">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:4">
+      <c r="B33" s="2">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:4">
+      <c r="B34" s="2">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
+      <c r="D34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:4">
+      <c r="B35" s="2">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>327</v>
+      </c>
+      <c r="D35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:3">
+      <c r="C38" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:3">
+      <c r="C39" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:4">
+      <c r="B40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:4">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:4">
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:4">
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:4">
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:4">
+      <c r="B45" s="2">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:4">
+      <c r="B46" s="2">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:8">
+      <c r="C50" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:8">
+      <c r="C51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:9">
+      <c r="B52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:9">
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>270</v>
+      </c>
+      <c r="I54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:9">
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="2">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>271</v>
+      </c>
+      <c r="I55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:9">
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>330</v>
+      </c>
+      <c r="D56" t="s">
+        <v>331</v>
+      </c>
+      <c r="G56" s="2">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>330</v>
+      </c>
+      <c r="I56" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:9">
+      <c r="B57" s="2">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="2">
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>239</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:9">
+      <c r="B58" s="2">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" t="s">
+        <v>333</v>
+      </c>
+      <c r="G58" s="2">
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>332</v>
+      </c>
+      <c r="I58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:9">
+      <c r="B59" s="2">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" t="s">
+        <v>284</v>
+      </c>
+      <c r="G59" s="2">
+        <v>7</v>
+      </c>
+      <c r="H59" t="s">
+        <v>283</v>
+      </c>
+      <c r="I59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:9">
+      <c r="B60" s="2">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>334</v>
+      </c>
+      <c r="D60" t="s">
+        <v>319</v>
+      </c>
+      <c r="G60" s="2">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>334</v>
+      </c>
+      <c r="I60" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:9">
+      <c r="B61" s="2">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" t="s">
+        <v>286</v>
+      </c>
+      <c r="G61" s="2">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>285</v>
+      </c>
+      <c r="I61" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:9">
+      <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" t="s">
+        <v>288</v>
+      </c>
+      <c r="G62" s="2">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>287</v>
+      </c>
+      <c r="I62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:9">
+      <c r="B63" s="2">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>289</v>
+      </c>
+      <c r="D63" t="s">
+        <v>290</v>
+      </c>
+      <c r="G63" s="2">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>289</v>
+      </c>
+      <c r="I63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:9">
+      <c r="B64" s="2">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" t="s">
+        <v>292</v>
+      </c>
+      <c r="G64" s="2">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>291</v>
+      </c>
+      <c r="I64" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="2:9">
+      <c r="B65" s="2">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" t="s">
+        <v>294</v>
+      </c>
+      <c r="G65" s="2">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>293</v>
+      </c>
+      <c r="I65" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:9">
+      <c r="B66" s="2">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" t="s">
+        <v>296</v>
+      </c>
+      <c r="G66" s="2">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>295</v>
+      </c>
+      <c r="I66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:9">
+      <c r="B67" s="2">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" t="s">
+        <v>298</v>
+      </c>
+      <c r="G67" s="2">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>297</v>
+      </c>
+      <c r="I67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:9">
+      <c r="B68" s="2">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>307</v>
+      </c>
+      <c r="D68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" s="2">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>307</v>
+      </c>
+      <c r="I68" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:9">
+      <c r="B69" s="2">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>335</v>
+      </c>
+      <c r="D69" t="s">
+        <v>276</v>
+      </c>
+      <c r="G69" s="2">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>335</v>
+      </c>
+      <c r="I69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:4">
+      <c r="B73" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:3">
+      <c r="C75" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="A2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C4:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="32.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
+    <col min="5" max="8" width="20.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" customHeight="1" spans="3:4">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="3:4">
       <c r="C5" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:4">
       <c r="C6" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:4">
       <c r="C7" t="s">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:4">
       <c r="C8" t="s">
-        <v>305</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:3">
-      <c r="C11" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:3">
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:4">
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:4">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:4">
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:4">
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>312</v>
-      </c>
-      <c r="D17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:4">
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:4">
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:4">
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:4">
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:4">
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>319</v>
-      </c>
-      <c r="D22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:4">
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:4">
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>292</v>
-      </c>
-      <c r="D24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:4">
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>321</v>
-      </c>
-      <c r="D25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:4">
-      <c r="B26" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:4">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D26" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:4">
-      <c r="B27" s="1">
+      <c r="D9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:4">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:4">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:4">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
-        <v>323</v>
-      </c>
-      <c r="D27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:4">
-      <c r="B28" s="1">
+      <c r="D12" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:4">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:3">
-      <c r="C31" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:3">
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:4">
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:4">
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:4">
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D35" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="2:4">
-      <c r="B36" s="1">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="2:4">
-      <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:4">
-      <c r="B38" s="1">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:4">
-      <c r="B39" s="1">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>279</v>
-      </c>
-      <c r="D39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:8">
-      <c r="C43" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:8">
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:9">
-      <c r="B45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:9">
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>234</v>
-      </c>
-      <c r="I46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:9">
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="1">
-        <v>2</v>
-      </c>
-      <c r="H47" t="s">
-        <v>269</v>
-      </c>
-      <c r="I47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:9">
-      <c r="B48" s="1">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3</v>
-      </c>
-      <c r="H48" t="s">
-        <v>270</v>
-      </c>
-      <c r="I48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:9">
-      <c r="B49" s="1">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>327</v>
-      </c>
-      <c r="D49" t="s">
-        <v>328</v>
-      </c>
-      <c r="G49" s="1">
-        <v>4</v>
-      </c>
-      <c r="H49" t="s">
-        <v>327</v>
-      </c>
-      <c r="I49" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:9">
-      <c r="B50" s="1">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="1">
-        <v>5</v>
-      </c>
-      <c r="H50" t="s">
-        <v>239</v>
-      </c>
-      <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:9">
-      <c r="B51" s="1">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>329</v>
-      </c>
-      <c r="D51" t="s">
-        <v>330</v>
-      </c>
-      <c r="G51" s="1">
-        <v>6</v>
-      </c>
-      <c r="H51" t="s">
-        <v>329</v>
-      </c>
-      <c r="I51" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:9">
-      <c r="B52" s="1">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" t="s">
-        <v>283</v>
-      </c>
-      <c r="G52" s="1">
-        <v>7</v>
-      </c>
-      <c r="H52" t="s">
-        <v>282</v>
-      </c>
-      <c r="I52" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:9">
-      <c r="B53" s="1">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>331</v>
-      </c>
-      <c r="D53" t="s">
-        <v>316</v>
-      </c>
-      <c r="G53" s="1">
-        <v>8</v>
-      </c>
-      <c r="H53" t="s">
-        <v>331</v>
-      </c>
-      <c r="I53" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="2:9">
-      <c r="B54" s="1">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>284</v>
-      </c>
-      <c r="D54" t="s">
-        <v>285</v>
-      </c>
-      <c r="G54" s="4">
-        <v>9</v>
-      </c>
-      <c r="H54" t="s">
-        <v>284</v>
-      </c>
-      <c r="I54" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="2:9">
-      <c r="B55" s="1">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>286</v>
-      </c>
-      <c r="D55" t="s">
-        <v>287</v>
-      </c>
-      <c r="G55" s="4">
-        <v>10</v>
-      </c>
-      <c r="H55" t="s">
-        <v>286</v>
-      </c>
-      <c r="I55" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="2:9">
-      <c r="B56" s="1">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>288</v>
-      </c>
-      <c r="D56" t="s">
-        <v>289</v>
-      </c>
-      <c r="G56" s="4">
-        <v>11</v>
-      </c>
-      <c r="H56" t="s">
-        <v>288</v>
-      </c>
-      <c r="I56" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="2:9">
-      <c r="B57" s="1">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
-        <v>290</v>
-      </c>
-      <c r="D57" t="s">
-        <v>291</v>
-      </c>
-      <c r="G57" s="4">
-        <v>12</v>
-      </c>
-      <c r="H57" t="s">
-        <v>290</v>
-      </c>
-      <c r="I57" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="2:9">
-      <c r="B58" s="1">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>292</v>
-      </c>
-      <c r="D58" t="s">
-        <v>293</v>
-      </c>
-      <c r="G58" s="4">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s">
-        <v>292</v>
-      </c>
-      <c r="I58" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="2:9">
-      <c r="B59" s="1">
-        <v>14</v>
-      </c>
-      <c r="C59" t="s">
-        <v>294</v>
-      </c>
-      <c r="D59" t="s">
-        <v>295</v>
-      </c>
-      <c r="G59" s="4">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>294</v>
-      </c>
-      <c r="I59" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="2:9">
-      <c r="B60" s="1">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>296</v>
-      </c>
-      <c r="D60" t="s">
-        <v>297</v>
-      </c>
-      <c r="G60" s="4">
-        <v>15</v>
-      </c>
-      <c r="H60" t="s">
-        <v>296</v>
-      </c>
-      <c r="I60" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="2:9">
-      <c r="B61" s="1">
-        <v>16</v>
-      </c>
-      <c r="C61" t="s">
-        <v>305</v>
-      </c>
-      <c r="D61" t="s">
-        <v>306</v>
-      </c>
-      <c r="G61" s="4">
-        <v>16</v>
-      </c>
-      <c r="H61" t="s">
-        <v>305</v>
-      </c>
-      <c r="I61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="2:9">
-      <c r="B62" s="1">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s">
-        <v>332</v>
-      </c>
-      <c r="D62" t="s">
-        <v>275</v>
-      </c>
-      <c r="G62" s="4">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s">
-        <v>332</v>
-      </c>
-      <c r="I62" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="2:4">
-      <c r="B66" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:3">
-      <c r="C68" t="s">
-        <v>335</v>
+      <c r="D13" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="343">
   <si>
     <t>序号</t>
   </si>
@@ -214,6 +214,19 @@
   </si>
   <si>
     <t>dwd_stock_DT_list</t>
+  </si>
+  <si>
+    <t>DMART</t>
+  </si>
+  <si>
+    <t>dmart_stock_zt_details</t>
+  </si>
+  <si>
+    <t>股票涨停明细（所属板块）</t>
+  </si>
+  <si>
+    <t>dwd_ashare_stock_base_info
+dwd_stock_ZT_list</t>
   </si>
   <si>
     <t>当日已上市股票码表</t>
@@ -994,6 +1007,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ODS </t>
     </r>
     <r>
@@ -1018,6 +1038,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">DWD </t>
     </r>
     <r>
@@ -1786,7 +1813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1799,9 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1811,15 +1835,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1831,6 +1849,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2205,10 +2226,10 @@
   <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2226,28 +2247,28 @@
   <sheetData>
     <row r="1" ht="19.95" customHeight="1"/>
     <row r="2" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2267,7 +2288,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="13" t="str">
+      <c r="F3" s="10" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
@@ -2291,7 +2312,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="str">
+      <c r="F4" s="10" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
@@ -2315,7 +2336,7 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="str">
+      <c r="F5" s="10" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
@@ -2339,7 +2360,7 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="10" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
@@ -2357,13 +2378,13 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="10" t="str">
         <f>HYPERLINK("#股票基本面数据_所属交易所",股票基本面数据_所属交易所)</f>
         <v>股票基本面数据_所属交易所</v>
       </c>
@@ -2390,7 +2411,7 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="10" t="str">
         <f>HYPERLINK("#股票基本面数据_资产数据",股票基本面数据_资产数据)</f>
         <v>股票基本面数据_资产数据</v>
       </c>
@@ -2399,10 +2420,10 @@
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F9" s="13"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F10" s="13"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" ht="19.95" customHeight="1"/>
     <row r="12" ht="19.95" customHeight="1" spans="1:7">
@@ -2421,7 +2442,7 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="10" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
@@ -2445,7 +2466,7 @@
       <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="13" t="str">
+      <c r="F13" s="10" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
@@ -2469,7 +2490,7 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="13" t="str">
+      <c r="F14" s="10" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
@@ -2493,7 +2514,7 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="13" t="str">
+      <c r="F15" s="10" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
@@ -2514,7 +2535,7 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2531,15 +2552,15 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F18" s="13"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F19" s="13"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:7">
       <c r="A20" s="2">
@@ -2557,7 +2578,7 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="13" t="str">
+      <c r="F20" s="10" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
@@ -2582,7 +2603,7 @@
       <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="13" t="str">
+      <c r="F22" s="10" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
@@ -2606,7 +2627,7 @@
       <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="13" t="str">
+      <c r="F23" s="10" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
@@ -2630,7 +2651,7 @@
       <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="13" t="str">
+      <c r="F24" s="10" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
@@ -2654,17 +2675,17 @@
       <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="13" t="str">
+      <c r="F25" s="10" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="13" t="str">
+      <c r="L25" s="10" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
@@ -2685,7 +2706,7 @@
       <c r="E26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="13" t="str">
+      <c r="F26" s="10" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
@@ -2709,7 +2730,7 @@
       <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="13" t="str">
+      <c r="F27" s="10" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
@@ -2733,7 +2754,7 @@
       <c r="E28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="13" t="str">
+      <c r="F28" s="10" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
@@ -2757,7 +2778,7 @@
       <c r="E29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="13" t="str">
+      <c r="F29" s="10" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
@@ -2766,13 +2787,13 @@
       </c>
     </row>
     <row r="30" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F30" s="13"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F31" s="13"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F32" s="13"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" ht="105" customHeight="1" spans="1:8">
       <c r="A33" s="2">
@@ -2784,14 +2805,14 @@
       <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="13" t="str">
+      <c r="F33" s="10" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2806,14 +2827,14 @@
         <v>9</v>
       </c>
       <c r="D34"/>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="13" t="str">
+      <c r="F34" s="10" t="str">
         <f>HYPERLINK("#股票基础信息大宽表",股票基础信息大宽表)</f>
         <v>股票基础信息大宽表</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2827,14 +2848,14 @@
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="13" t="str">
+      <c r="F35" s="10" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2848,21 +2869,37 @@
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="13" t="str">
+      <c r="F36" s="10" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" ht="19.95" customHeight="1"/>
     <row r="38" ht="19.95" customHeight="1"/>
     <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="40" ht="39" customHeight="1" spans="2:8">
+      <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="41" ht="19.95" customHeight="1"/>
     <row r="42" ht="19.95" customHeight="1"/>
     <row r="43" ht="19.95" customHeight="1"/>
@@ -2907,7 +2944,7 @@
   <dimension ref="A4:R60"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
@@ -2924,46 +2961,46 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:2">
-      <c r="B4" s="5" t="s">
-        <v>49</v>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
-      <c r="B5" s="5" t="s">
-        <v>50</v>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>52</v>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>53</v>
+      <c r="B7" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>55</v>
+      <c r="B8" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
@@ -2971,10 +3008,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -2982,119 +3019,119 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:12">
-      <c r="B13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>63</v>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:12">
-      <c r="B14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>66</v>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>52</v>
+      <c r="L15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>55</v>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>67</v>
+      <c r="G16" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>69</v>
+      <c r="L16" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>53</v>
+      <c r="B17" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K17" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>73</v>
+      <c r="L17" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
@@ -3102,28 +3139,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>77</v>
+      <c r="G18" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K18" s="2">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
@@ -3131,28 +3168,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
@@ -3160,28 +3197,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K20" s="2">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
@@ -3189,28 +3226,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F21" s="2">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K21" s="2">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
@@ -3218,28 +3255,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K22" s="2">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
@@ -3247,161 +3284,161 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F23" s="2">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
-      <c r="B27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>106</v>
+      <c r="B27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:17">
-      <c r="B28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>110</v>
+      <c r="B28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="6" t="s">
+      <c r="G29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P29" s="6" t="s">
+      <c r="L29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>52</v>
+      <c r="Q29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="2">
         <v>1</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>111</v>
+      <c r="B30" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>113</v>
+      <c r="G30" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>115</v>
+      <c r="L30" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P30" s="2">
         <v>1</v>
       </c>
-      <c r="Q30" s="12" t="s">
-        <v>116</v>
+      <c r="Q30" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="R30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="2">
         <v>2</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>117</v>
+      <c r="B31" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>118</v>
+      <c r="G31" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K31" s="2">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P31" s="2">
         <v>2</v>
       </c>
-      <c r="Q31" s="12" t="s">
-        <v>122</v>
+      <c r="Q31" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="R31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -3409,37 +3446,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F32" s="2">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K32" s="2">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P32" s="2">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="R32" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -3447,37 +3484,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F33" s="2">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K33" s="2">
         <v>4</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>133</v>
+      <c r="L33" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P33" s="2">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="R33" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -3485,37 +3522,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F34" s="2">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K34" s="2">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M34" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P34" s="2">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="R34" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -3523,37 +3560,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F35" s="2">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K35" s="2">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M35" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P35" s="2">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -3561,37 +3598,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K36" s="2">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M36" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P36" s="2">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="R36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -3599,34 +3636,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F37" s="2">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H37" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K37" s="2">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P37" s="2">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="R37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -3634,34 +3671,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F38" s="2">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H38" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K38" s="2">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M38" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P38" s="2">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="R38" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="6:18">
@@ -3669,105 +3706,105 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H39" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K39" s="2">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M39" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P39" s="2">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="R39" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:18">
-      <c r="B40" s="5" t="s">
-        <v>171</v>
+      <c r="B40" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="F40" s="2">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P40" s="2">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="R40" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:8">
-      <c r="B41" s="5" t="s">
-        <v>175</v>
+      <c r="B41" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="F41" s="2">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>52</v>
+      <c r="B42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F42" s="2">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>180</v>
+      <c r="B43" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F43" s="2">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H43" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
@@ -3775,39 +3812,39 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F44" s="2">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="2">
         <v>3</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>69</v>
+      <c r="B45" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:8">
@@ -3815,19 +3852,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F46" s="2">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
@@ -3835,19 +3872,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F47" s="2">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H47" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:8">
@@ -3855,19 +3892,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F48" s="2">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H48" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -3875,19 +3912,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F49" s="2">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="6:8">
@@ -3895,10 +3932,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H50" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="6:8">
@@ -3906,10 +3943,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="6:8">
@@ -3917,89 +3954,89 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H52" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:8">
-      <c r="B53" s="5" t="s">
-        <v>209</v>
+      <c r="B53" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F53" s="2">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:8">
-      <c r="B54" s="5" t="s">
-        <v>212</v>
+      <c r="B54" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="F54" s="2">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H54" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>52</v>
+      <c r="B55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F55" s="2">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H55" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="2">
         <v>1</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>122</v>
+      <c r="B56" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H56" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
       <c r="A57" s="2">
         <v>2</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>116</v>
+      <c r="B57" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -4008,10 +4045,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -4020,10 +4057,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -4043,7 +4080,7 @@
   <dimension ref="B4:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
@@ -4056,46 +4093,46 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="5" t="s">
-        <v>223</v>
+      <c r="C4" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:3">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>52</v>
+      <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>224</v>
+      <c r="C7" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>226</v>
+      <c r="C8" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -4103,10 +4140,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -4114,10 +4151,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -4125,10 +4162,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -4136,10 +4173,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4147,88 +4184,88 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>52</v>
+      <c r="H20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>232</v>
+      <c r="C21" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>234</v>
+      <c r="H21" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>234</v>
+      <c r="C22" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>232</v>
+      <c r="H22" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:7">
@@ -4236,10 +4273,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -4248,10 +4285,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -4260,10 +4297,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -4272,10 +4309,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -4291,8 +4328,8 @@
   <sheetPr/>
   <dimension ref="A3:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -4308,47 +4345,47 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="3:13">
-      <c r="C6" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>242</v>
+      <c r="C6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="5" t="s">
-        <v>243</v>
+      <c r="M6" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:13">
@@ -4364,32 +4401,32 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:14">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="H8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>52</v>
+      <c r="M8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:14">
@@ -4397,28 +4434,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
@@ -4426,28 +4463,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L10" s="2">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:14">
@@ -4455,28 +4492,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L11" s="2">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N11" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
@@ -4484,28 +4521,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L12" s="2">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
@@ -4513,36 +4550,36 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G13" s="2">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L13" s="2">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>263</v>
+      <c r="C16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:8">
@@ -4554,23 +4591,23 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>52</v>
+      <c r="H18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -4578,19 +4615,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -4598,19 +4635,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -4618,19 +4655,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G21" s="2">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I21" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -4638,19 +4675,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -4658,32 +4695,32 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G23" s="2">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:8">
-      <c r="B26" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>273</v>
+      <c r="B26" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="5" t="s">
-        <v>274</v>
+      <c r="C27" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -4693,34 +4730,34 @@
       <c r="C28" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>52</v>
+      <c r="H28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>52</v>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -4728,19 +4765,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -4748,19 +4785,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G31" s="2">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I31" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -4768,19 +4805,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I32" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -4788,19 +4825,19 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G33" s="2">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -4808,40 +4845,40 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D34" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" s="5" t="s">
-        <v>282</v>
+      <c r="C38" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>52</v>
+      <c r="C40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -4849,10 +4886,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -4860,10 +4897,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -4871,10 +4908,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -4882,10 +4919,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D44" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -4893,10 +4930,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -4904,10 +4941,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D46" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
@@ -4915,10 +4952,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D47" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:4">
@@ -4926,10 +4963,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:4">
@@ -4937,10 +4974,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D49" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:4">
@@ -4948,10 +4985,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D50" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:4">
@@ -4959,10 +4996,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D51" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:4">
@@ -4970,26 +5007,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D52" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:5">
       <c r="C59" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D59" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:3">
       <c r="C64" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5007,7 +5044,7 @@
   <dimension ref="A2:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -5021,47 +5058,47 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+        <v>309</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="3:3">
-      <c r="C6" s="5" t="s">
-        <v>306</v>
+      <c r="C6" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:3">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>52</v>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -5069,10 +5106,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -5080,10 +5117,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -5091,10 +5128,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -5102,58 +5139,58 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="2:2">
       <c r="B17"/>
     </row>
     <row r="18" customHeight="1" spans="3:3">
-      <c r="C18" s="5" t="s">
-        <v>310</v>
+      <c r="C18" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:3">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -5161,10 +5198,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -5172,10 +5209,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -5183,10 +5220,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -5194,10 +5231,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D24" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -5205,10 +5242,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D25" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -5216,10 +5253,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -5227,10 +5264,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -5238,10 +5275,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -5249,10 +5286,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D29" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -5260,10 +5297,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -5271,10 +5308,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -5282,10 +5319,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D32" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -5293,10 +5330,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -5304,10 +5341,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -5315,31 +5352,31 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" s="5" t="s">
-        <v>273</v>
+      <c r="C38" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>52</v>
+      <c r="C40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -5347,10 +5384,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -5358,10 +5395,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D42" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -5369,10 +5406,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -5380,10 +5417,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D44" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -5391,10 +5428,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -5402,48 +5439,48 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:8">
-      <c r="C50" s="5" t="s">
-        <v>328</v>
+      <c r="C50" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="5" t="s">
-        <v>329</v>
+      <c r="H50" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:8">
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="6" t="s">
+      <c r="C52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>52</v>
+      <c r="H52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -5451,19 +5488,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -5471,19 +5508,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I54" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -5491,19 +5528,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G55" s="2">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I55" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -5511,19 +5548,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G56" s="2">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -5531,19 +5568,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -5551,19 +5588,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D58" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G58" s="2">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I58" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -5571,19 +5608,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G59" s="2">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I59" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -5591,19 +5628,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D60" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G60" s="2">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I60" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -5611,19 +5648,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D61" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G61" s="2">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I61" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -5631,19 +5668,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D62" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G62" s="2">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I62" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -5651,19 +5688,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G63" s="2">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I63" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -5671,19 +5708,19 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G64" s="2">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I64" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:9">
@@ -5691,19 +5728,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D65" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G65" s="2">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I65" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:9">
@@ -5711,19 +5748,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G66" s="2">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I66" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:9">
@@ -5731,19 +5768,19 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D67" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G67" s="2">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I67" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:9">
@@ -5751,19 +5788,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G68" s="2">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I68" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:9">
@@ -5771,35 +5808,35 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D69" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G69" s="2">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I69" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:4">
       <c r="B73" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="3:3">
       <c r="C75" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5818,7 +5855,7 @@
   <dimension ref="C4:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
@@ -5833,7 +5870,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:4">
@@ -5841,7 +5878,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
@@ -5849,7 +5886,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:4">
@@ -5857,7 +5894,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:4">
@@ -5865,7 +5902,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:4">
@@ -5873,7 +5910,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:4">
@@ -5881,7 +5918,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
@@ -5889,7 +5926,7 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
@@ -5897,7 +5934,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
@@ -5905,7 +5942,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448"/>
+    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="TDX" sheetId="4" r:id="rId4"/>
     <sheet name="ODS_DWD" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$29</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="374">
   <si>
     <t>序号</t>
   </si>
@@ -1145,6 +1146,123 @@
   <si>
     <t>北证的数据呢？ 能不能找到北证的stock_code</t>
   </si>
+  <si>
+    <t>数据准备模块</t>
+  </si>
+  <si>
+    <t>datas_prepare</t>
+  </si>
+  <si>
+    <t>下载 insight 当日数据</t>
+  </si>
+  <si>
+    <r>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的stock代码合集(除去ST|退|B的股票)</t>
+    </r>
+  </si>
+  <si>
+    <t>setup_data_prepare.py</t>
+  </si>
+  <si>
+    <t>save_insight_now</t>
+  </si>
+  <si>
+    <t>SaveInsightData.get_stock_codes()</t>
+  </si>
+  <si>
+    <t>ymd, htsc_code, name, exchange</t>
+  </si>
+  <si>
+    <t>获取上述股票的当月日K(当月15天内的日K，如果小于15号，就是月初至今)</t>
+  </si>
+  <si>
+    <t>SaveInsightData.get_stock_kline()</t>
+  </si>
+  <si>
+    <t>ods_stock_kline_daily_insight_now</t>
+  </si>
+  <si>
+    <t>htsc_code,ymd,open,close,high,low,num_trades,volume</t>
+  </si>
+  <si>
+    <t>获取主要股指（查询当月至今的指数）</t>
+  </si>
+  <si>
+    <t>SaveInsightData.get_index_a_share()</t>
+  </si>
+  <si>
+    <t>大盘涨跌概览</t>
+  </si>
+  <si>
+    <t>SaveInsightData.get_limit_summary()</t>
+  </si>
+  <si>
+    <t>期货__内盘</t>
+  </si>
+  <si>
+    <t>SaveInsightData.get_future_inside()</t>
+  </si>
+  <si>
+    <t>筹码概览</t>
+  </si>
+  <si>
+    <t>SaveInsightData.get_chouma_datas()</t>
+  </si>
+  <si>
+    <t>获取A股的行业分类数据, 是行业数据</t>
+  </si>
+  <si>
+    <t>SaveInsightData.get_Ashare_industry_overview()</t>
+  </si>
+  <si>
+    <t>获取A股的行业分类数据, 是stock_code &amp; industry 关联后的大表数据</t>
+  </si>
+  <si>
+    <t>SaveInsightData.get_Ashare_industry_detail()</t>
+  </si>
+  <si>
+    <t>个股股东数</t>
+  </si>
+  <si>
+    <t>SaveInsightData.get_shareholder_north_bound_num()</t>
+  </si>
+  <si>
+    <t>merge_insight</t>
+  </si>
+  <si>
+    <t>dwd_cal</t>
+  </si>
+  <si>
+    <t>dmart_cal</t>
+  </si>
+  <si>
+    <t>save_insight_history</t>
+  </si>
+  <si>
+    <t>send_logfile_email</t>
+  </si>
 </sst>
 </file>
 
@@ -1156,8 +1274,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1170,14 +1296,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1337,6 +1455,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1813,8 +1939,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1823,19 +1952,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1849,9 +1975,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2226,16 +2349,16 @@
   <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.1111111111111" style="2" customWidth="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="12.1111111111111" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
@@ -2256,30 +2379,30 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -2296,14 +2419,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A4" s="2">
+    <row r="4" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -2320,14 +2443,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A5" s="2">
+    <row r="5" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -2344,14 +2467,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A6" s="2">
+    <row r="6" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
@@ -2369,13 +2492,13 @@
       </c>
     </row>
     <row r="7" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2395,14 +2518,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A8" s="2">
+    <row r="8" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
@@ -2419,21 +2542,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="19.95" customHeight="1" spans="6:6">
+    <row r="9" ht="19.95" customHeight="1" spans="1:8">
       <c r="F9" s="10"/>
     </row>
-    <row r="10" ht="19.95" customHeight="1" spans="6:6">
+    <row r="10" ht="19.95" customHeight="1" spans="1:8">
       <c r="F10" s="10"/>
     </row>
     <row r="11" ht="19.95" customHeight="1"/>
-    <row r="12" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A12" s="2">
+    <row r="12" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
@@ -2450,14 +2573,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A13" s="2">
+    <row r="13" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
@@ -2474,14 +2597,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A14" s="2">
+    <row r="14" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
@@ -2498,14 +2621,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A15" s="2">
+    <row r="15" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -2522,11 +2645,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="19.95" customHeight="1" spans="2:6">
-      <c r="B16" s="2" t="s">
+    <row r="16" ht="19.95" customHeight="1" spans="1:8">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
@@ -2539,11 +2662,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="19.95" customHeight="1" spans="2:6">
-      <c r="B17" s="2" t="s">
+    <row r="17" ht="19.95" customHeight="1" spans="1:12">
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
@@ -2556,20 +2679,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="19.95" customHeight="1" spans="6:6">
+    <row r="18" ht="19.95" customHeight="1" spans="1:12">
       <c r="F18" s="10"/>
     </row>
-    <row r="19" ht="19.95" customHeight="1" spans="6:6">
+    <row r="19" ht="19.95" customHeight="1" spans="1:12">
       <c r="F19" s="10"/>
     </row>
-    <row r="20" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A20" s="2">
+    <row r="20" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
@@ -2587,14 +2710,14 @@
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1"/>
-    <row r="22" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A22" s="2">
+    <row r="22" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
@@ -2611,14 +2734,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A23" s="2">
+    <row r="23" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
@@ -2635,14 +2758,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A24" s="2">
+    <row r="24" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
@@ -2660,13 +2783,13 @@
       </c>
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
@@ -2682,7 +2805,7 @@
       <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="10" t="str">
@@ -2690,14 +2813,14 @@
         <v>汇总板块码表</v>
       </c>
     </row>
-    <row r="26" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A26" s="2">
+    <row r="26" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
@@ -2714,14 +2837,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A27" s="2">
+    <row r="27" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
@@ -2738,14 +2861,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A28" s="2">
+    <row r="28" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
@@ -2762,14 +2885,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A29" s="2">
+    <row r="29" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
@@ -2786,26 +2909,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="19.95" customHeight="1" spans="6:6">
+    <row r="30" ht="19.95" customHeight="1" spans="1:12">
       <c r="F30" s="10"/>
     </row>
-    <row r="31" ht="19.95" customHeight="1" spans="6:6">
+    <row r="31" ht="19.95" customHeight="1" spans="1:12">
       <c r="F31" s="10"/>
     </row>
-    <row r="32" ht="19.95" customHeight="1" spans="6:6">
+    <row r="32" ht="19.95" customHeight="1" spans="1:12">
       <c r="F32" s="10"/>
     </row>
     <row r="33" ht="105" customHeight="1" spans="1:8">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="10" t="str">
@@ -2817,17 +2940,16 @@
       </c>
     </row>
     <row r="34" ht="67" customHeight="1" spans="1:8">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D34"/>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="10" t="str">
@@ -2839,16 +2961,16 @@
       </c>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:8">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="10" t="str">
@@ -2860,16 +2982,16 @@
       </c>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:8">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="10" t="str">
@@ -2883,20 +3005,20 @@
     <row r="37" ht="19.95" customHeight="1"/>
     <row r="38" ht="19.95" customHeight="1"/>
     <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="39" customHeight="1" spans="2:8">
-      <c r="B40" s="2" t="s">
+    <row r="40" ht="39" customHeight="1" spans="1:8">
+      <c r="B40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F40" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2949,7 +3071,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
@@ -2960,29 +3082,29 @@
     <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customHeight="1" spans="2:2">
-      <c r="B4" s="4" t="s">
+    <row r="4" customHeight="1" spans="1:13">
+      <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:2">
-      <c r="B5" s="4" t="s">
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="2">
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2992,8 +3114,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="2">
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -3003,8 +3125,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="2">
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -3014,8 +3136,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="2">
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -3025,25 +3147,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:12">
-      <c r="B13" s="4" t="s">
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:12">
-      <c r="B14" s="4" t="s">
+    <row r="14" customHeight="1" spans="1:13">
+      <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3051,33 +3173,33 @@
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -3086,7 +3208,7 @@
       <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -3095,7 +3217,7 @@
       <c r="H16" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <v>1</v>
       </c>
       <c r="L16" s="9" t="s">
@@ -3105,8 +3227,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="2">
+    <row r="17" customHeight="1" spans="1:18">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3115,7 +3237,7 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" t="s">
@@ -3124,7 +3246,7 @@
       <c r="H17" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="3">
         <v>2</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -3134,8 +3256,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="2">
+    <row r="18" customHeight="1" spans="1:18">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -3144,7 +3266,7 @@
       <c r="C18" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -3153,7 +3275,7 @@
       <c r="H18" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <v>3</v>
       </c>
       <c r="L18" t="s">
@@ -3163,8 +3285,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="2">
+    <row r="19" customHeight="1" spans="1:18">
+      <c r="A19" s="3">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -3173,7 +3295,7 @@
       <c r="C19" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>4</v>
       </c>
       <c r="G19" t="s">
@@ -3182,7 +3304,7 @@
       <c r="H19" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="3">
         <v>4</v>
       </c>
       <c r="L19" t="s">
@@ -3192,8 +3314,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="2">
+    <row r="20" customHeight="1" spans="1:18">
+      <c r="A20" s="3">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -3202,7 +3324,7 @@
       <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>5</v>
       </c>
       <c r="G20" t="s">
@@ -3211,7 +3333,7 @@
       <c r="H20" t="s">
         <v>85</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="3">
         <v>5</v>
       </c>
       <c r="L20" t="s">
@@ -3221,8 +3343,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="2">
+    <row r="21" customHeight="1" spans="1:18">
+      <c r="A21" s="3">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -3231,7 +3353,7 @@
       <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>6</v>
       </c>
       <c r="G21" t="s">
@@ -3240,7 +3362,7 @@
       <c r="H21" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="3">
         <v>6</v>
       </c>
       <c r="L21" t="s">
@@ -3250,8 +3372,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="2">
+    <row r="22" customHeight="1" spans="1:18">
+      <c r="A22" s="3">
         <v>7</v>
       </c>
       <c r="B22" t="s">
@@ -3260,7 +3382,7 @@
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>7</v>
       </c>
       <c r="G22" t="s">
@@ -3269,7 +3391,7 @@
       <c r="H22" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="3">
         <v>7</v>
       </c>
       <c r="L22" t="s">
@@ -3279,8 +3401,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="2">
+    <row r="23" customHeight="1" spans="1:18">
+      <c r="A23" s="3">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -3289,7 +3411,7 @@
       <c r="C23" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -3299,31 +3421,31 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="2:17">
-      <c r="B27" s="4" t="s">
+    <row r="27" customHeight="1" spans="1:18">
+      <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:17">
-      <c r="B28" s="4" t="s">
+    <row r="28" customHeight="1" spans="1:18">
+      <c r="B28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3331,42 +3453,42 @@
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -3375,7 +3497,7 @@
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
@@ -3384,7 +3506,7 @@
       <c r="H30" t="s">
         <v>118</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="3">
         <v>1</v>
       </c>
       <c r="L30" s="9" t="s">
@@ -3393,7 +3515,7 @@
       <c r="M30" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="3">
         <v>1</v>
       </c>
       <c r="Q30" s="9" t="s">
@@ -3404,7 +3526,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -3413,7 +3535,7 @@
       <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31" s="9" t="s">
@@ -3422,7 +3544,7 @@
       <c r="H31" t="s">
         <v>123</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="3">
         <v>2</v>
       </c>
       <c r="L31" t="s">
@@ -3431,7 +3553,7 @@
       <c r="M31" t="s">
         <v>125</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="3">
         <v>2</v>
       </c>
       <c r="Q31" s="9" t="s">
@@ -3442,7 +3564,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>3</v>
       </c>
       <c r="B32" t="s">
@@ -3451,7 +3573,7 @@
       <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>3</v>
       </c>
       <c r="G32" t="s">
@@ -3460,7 +3582,7 @@
       <c r="H32" t="s">
         <v>129</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="3">
         <v>3</v>
       </c>
       <c r="L32" t="s">
@@ -3469,7 +3591,7 @@
       <c r="M32" t="s">
         <v>131</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="3">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
@@ -3480,7 +3602,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -3489,7 +3611,7 @@
       <c r="C33" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" t="s">
@@ -3498,7 +3620,7 @@
       <c r="H33" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="3">
         <v>4</v>
       </c>
       <c r="L33" s="9" t="s">
@@ -3507,7 +3629,7 @@
       <c r="M33" t="s">
         <v>138</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="3">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
@@ -3518,7 +3640,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -3527,7 +3649,7 @@
       <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>5</v>
       </c>
       <c r="G34" t="s">
@@ -3536,7 +3658,7 @@
       <c r="H34" t="s">
         <v>142</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="3">
         <v>5</v>
       </c>
       <c r="L34" t="s">
@@ -3545,7 +3667,7 @@
       <c r="M34" t="s">
         <v>144</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="3">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
@@ -3556,7 +3678,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>6</v>
       </c>
       <c r="B35" t="s">
@@ -3565,7 +3687,7 @@
       <c r="C35" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>6</v>
       </c>
       <c r="G35" t="s">
@@ -3574,7 +3696,7 @@
       <c r="H35" t="s">
         <v>148</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="3">
         <v>6</v>
       </c>
       <c r="L35" t="s">
@@ -3583,7 +3705,7 @@
       <c r="M35" t="s">
         <v>150</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="3">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
@@ -3594,7 +3716,7 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -3603,7 +3725,7 @@
       <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>7</v>
       </c>
       <c r="G36" t="s">
@@ -3612,7 +3734,7 @@
       <c r="H36" t="s">
         <v>154</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="3">
         <v>7</v>
       </c>
       <c r="L36" t="s">
@@ -3621,7 +3743,7 @@
       <c r="M36" t="s">
         <v>156</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="3">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
@@ -3632,13 +3754,13 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>8</v>
       </c>
       <c r="G37" t="s">
@@ -3647,7 +3769,7 @@
       <c r="H37" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="3">
         <v>8</v>
       </c>
       <c r="L37" t="s">
@@ -3656,7 +3778,7 @@
       <c r="M37" t="s">
         <v>162</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="3">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
@@ -3667,13 +3789,13 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>9</v>
       </c>
       <c r="G38" t="s">
@@ -3682,7 +3804,7 @@
       <c r="H38" t="s">
         <v>166</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="3">
         <v>9</v>
       </c>
       <c r="L38" t="s">
@@ -3691,7 +3813,7 @@
       <c r="M38" t="s">
         <v>168</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="3">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
@@ -3701,8 +3823,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="6:18">
-      <c r="F39" s="2">
+    <row r="39" customHeight="1" spans="1:18">
+      <c r="F39" s="3">
         <v>10</v>
       </c>
       <c r="G39" t="s">
@@ -3711,7 +3833,7 @@
       <c r="H39" t="s">
         <v>171</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="3">
         <v>10</v>
       </c>
       <c r="L39" t="s">
@@ -3720,7 +3842,7 @@
       <c r="M39" t="s">
         <v>173</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="3">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
@@ -3730,11 +3852,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:18">
-      <c r="B40" s="4" t="s">
+    <row r="40" customHeight="1" spans="1:18">
+      <c r="B40" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -3743,7 +3865,7 @@
       <c r="H40" t="s">
         <v>177</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="3">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
@@ -3753,11 +3875,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="2:8">
-      <c r="B41" s="4" t="s">
+    <row r="41" customHeight="1" spans="1:18">
+      <c r="B41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>12</v>
       </c>
       <c r="G41" t="s">
@@ -3767,17 +3889,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:8">
+    <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>13</v>
       </c>
       <c r="G42" t="s">
@@ -3787,8 +3909,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="2">
+    <row r="43" customHeight="1" spans="1:18">
+      <c r="A43" s="3">
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -3797,7 +3919,7 @@
       <c r="C43" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>14</v>
       </c>
       <c r="G43" t="s">
@@ -3807,8 +3929,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="2">
+    <row r="44" customHeight="1" spans="1:18">
+      <c r="A44" s="3">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -3817,7 +3939,7 @@
       <c r="C44" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -3827,8 +3949,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="2">
+    <row r="45" customHeight="1" spans="1:18">
+      <c r="A45" s="3">
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -3837,7 +3959,7 @@
       <c r="C45" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>16</v>
       </c>
       <c r="G45" t="s">
@@ -3847,8 +3969,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="2">
+    <row r="46" customHeight="1" spans="1:18">
+      <c r="A46" s="3">
         <v>4</v>
       </c>
       <c r="B46" t="s">
@@ -3857,7 +3979,7 @@
       <c r="C46" t="s">
         <v>192</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>17</v>
       </c>
       <c r="G46" t="s">
@@ -3867,8 +3989,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="2">
+    <row r="47" customHeight="1" spans="1:18">
+      <c r="A47" s="3">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -3877,7 +3999,7 @@
       <c r="C47" t="s">
         <v>196</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>18</v>
       </c>
       <c r="G47" t="s">
@@ -3887,8 +4009,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="2">
+    <row r="48" customHeight="1" spans="1:18">
+      <c r="A48" s="3">
         <v>6</v>
       </c>
       <c r="B48" t="s">
@@ -3897,7 +4019,7 @@
       <c r="C48" t="s">
         <v>200</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>19</v>
       </c>
       <c r="G48" t="s">
@@ -3908,7 +4030,7 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -3917,7 +4039,7 @@
       <c r="C49" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>20</v>
       </c>
       <c r="G49" t="s">
@@ -3927,8 +4049,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="6:8">
-      <c r="F50" s="2">
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="F50" s="3">
         <v>21</v>
       </c>
       <c r="G50" t="s">
@@ -3938,8 +4060,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="6:8">
-      <c r="F51" s="2">
+    <row r="51" customHeight="1" spans="1:8">
+      <c r="F51" s="3">
         <v>22</v>
       </c>
       <c r="G51" t="s">
@@ -3949,8 +4071,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="6:8">
-      <c r="F52" s="2">
+    <row r="52" customHeight="1" spans="1:8">
+      <c r="F52" s="3">
         <v>23</v>
       </c>
       <c r="G52" t="s">
@@ -3960,11 +4082,11 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="2:8">
-      <c r="B53" s="4" t="s">
+    <row r="53" customHeight="1" spans="1:8">
+      <c r="B53" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>24</v>
       </c>
       <c r="G53" t="s">
@@ -3974,11 +4096,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="2:8">
-      <c r="B54" s="4" t="s">
+    <row r="54" customHeight="1" spans="1:8">
+      <c r="B54" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>25</v>
       </c>
       <c r="G54" t="s">
@@ -3992,13 +4114,13 @@
       <c r="A55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>26</v>
       </c>
       <c r="G55" t="s">
@@ -4009,7 +4131,7 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -4018,7 +4140,7 @@
       <c r="C56" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>27</v>
       </c>
       <c r="G56" t="s">
@@ -4028,8 +4150,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="2">
+    <row r="57" customHeight="1" spans="1:8">
+      <c r="A57" s="3">
         <v>2</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -4038,10 +4160,10 @@
       <c r="C57" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="2">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="3">
         <v>3</v>
       </c>
       <c r="B58" t="s">
@@ -4050,10 +4172,10 @@
       <c r="C58" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="2">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="3">
         <v>4</v>
       </c>
       <c r="B59" t="s">
@@ -4062,10 +4184,10 @@
       <c r="C59" t="s">
         <v>226</v>
       </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" customHeight="1" spans="6:6">
-      <c r="F60" s="2"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="F60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4085,20 +4207,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="4" t="s">
+    <row r="4" customHeight="1" spans="2:4">
+      <c r="C4" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="3:3">
-      <c r="C5" s="4" t="s">
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4106,15 +4228,15 @@
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -4125,7 +4247,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -4136,7 +4258,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -4147,7 +4269,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -4158,7 +4280,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -4169,7 +4291,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>6</v>
       </c>
       <c r="C12" t="s">
@@ -4180,7 +4302,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>7</v>
       </c>
       <c r="C13" t="s">
@@ -4190,21 +4312,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:8">
-      <c r="C18" s="4" t="s">
+    <row r="18" customHeight="1" spans="2:9">
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:8">
-      <c r="C19" s="4" t="s">
+    <row r="19" customHeight="1" spans="2:9">
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4212,24 +4334,24 @@
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -4238,7 +4360,7 @@
       <c r="D21" t="s">
         <v>237</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
@@ -4249,7 +4371,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -4258,7 +4380,7 @@
       <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
@@ -4268,8 +4390,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="2:7">
-      <c r="B23" s="2">
+    <row r="23" customHeight="1" spans="2:9">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -4278,10 +4400,10 @@
       <c r="D23" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="2">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:9">
+      <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" t="s">
@@ -4290,10 +4412,10 @@
       <c r="D24" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:7">
-      <c r="B25" s="2">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:9">
+      <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" t="s">
@@ -4302,10 +4424,10 @@
       <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:7">
-      <c r="B26" s="2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:9">
+      <c r="B26" s="3">
         <v>6</v>
       </c>
       <c r="C26" t="s">
@@ -4314,7 +4436,7 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4334,17 +4456,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="2"/>
+    <col min="2" max="2" width="8.88888888888889" style="3"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="2"/>
+    <col min="7" max="7" width="8.88888888888889" style="3"/>
     <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
     <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
     <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="1:13">
+    <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="7" t="s">
         <v>244</v>
       </c>
@@ -4361,7 +4483,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -4376,61 +4498,61 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="3:13">
-      <c r="C6" s="4" t="s">
+    <row r="6" customHeight="1" spans="1:14">
+      <c r="C6" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:13">
+    <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3"/>
       <c r="M7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:14">
+    <row r="8" customHeight="1" spans="1:14">
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="2">
+    <row r="9" customHeight="1" spans="1:14">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -4439,7 +4561,7 @@
       <c r="D9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" t="s">
@@ -4448,7 +4570,7 @@
       <c r="I9" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" t="s">
@@ -4458,8 +4580,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="2">
+    <row r="10" customHeight="1" spans="1:14">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" t="s">
@@ -4468,7 +4590,7 @@
       <c r="D10" t="s">
         <v>251</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" t="s">
@@ -4477,7 +4599,7 @@
       <c r="I10" t="s">
         <v>253</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" t="s">
@@ -4487,8 +4609,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:14">
-      <c r="B11" s="2">
+    <row r="11" customHeight="1" spans="1:14">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -4497,7 +4619,7 @@
       <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -4506,7 +4628,7 @@
       <c r="I11" t="s">
         <v>258</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
@@ -4516,8 +4638,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:14">
-      <c r="B12" s="2">
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="B12" s="3">
         <v>4</v>
       </c>
       <c r="C12" t="s">
@@ -4526,7 +4648,7 @@
       <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
@@ -4535,7 +4657,7 @@
       <c r="I12" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
@@ -4545,8 +4667,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:14">
-      <c r="B13" s="2">
+    <row r="13" customHeight="1" spans="1:14">
+      <c r="B13" s="3">
         <v>5</v>
       </c>
       <c r="C13" t="s">
@@ -4555,7 +4677,7 @@
       <c r="D13" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
@@ -4564,7 +4686,7 @@
       <c r="I13" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
@@ -4574,15 +4696,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:8">
-      <c r="C16" s="4" t="s">
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="C16" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:8">
+    <row r="17" customHeight="1" spans="2:9">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -4594,24 +4716,24 @@
       <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -4620,7 +4742,7 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" t="s">
@@ -4631,7 +4753,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
       <c r="C20" t="s">
@@ -4640,7 +4762,7 @@
       <c r="D20" t="s">
         <v>251</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="H20" t="s">
@@ -4651,7 +4773,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>3</v>
       </c>
       <c r="C21" t="s">
@@ -4660,7 +4782,7 @@
       <c r="D21" t="s">
         <v>256</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>3</v>
       </c>
       <c r="H21" t="s">
@@ -4671,7 +4793,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" t="s">
@@ -4680,7 +4802,7 @@
       <c r="D22" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="H22" t="s">
@@ -4691,7 +4813,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -4700,7 +4822,7 @@
       <c r="D23" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" t="s">
@@ -4710,33 +4832,33 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="2:8">
+    <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:8">
-      <c r="C27" s="4" t="s">
+    <row r="27" customHeight="1" spans="2:9">
+      <c r="C27" s="1" t="s">
         <v>278</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:9">
+    <row r="28" customHeight="1" spans="2:9">
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4744,13 +4866,13 @@
       <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" t="s">
@@ -4761,7 +4883,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -4770,7 +4892,7 @@
       <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="3">
         <v>2</v>
       </c>
       <c r="H30" t="s">
@@ -4781,7 +4903,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" t="s">
@@ -4790,7 +4912,7 @@
       <c r="D31" t="s">
         <v>280</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>3</v>
       </c>
       <c r="H31" t="s">
@@ -4801,7 +4923,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>3</v>
       </c>
       <c r="C32" t="s">
@@ -4810,7 +4932,7 @@
       <c r="D32" t="s">
         <v>281</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
         <v>4</v>
       </c>
       <c r="H32" t="s">
@@ -4821,7 +4943,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>4</v>
       </c>
       <c r="C33" t="s">
@@ -4830,7 +4952,7 @@
       <c r="D33" t="s">
         <v>229</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
         <v>5</v>
       </c>
       <c r="H33" t="s">
@@ -4841,7 +4963,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>5</v>
       </c>
       <c r="C34" t="s">
@@ -4850,7 +4972,7 @@
       <c r="D34" t="s">
         <v>285</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="3">
         <v>6</v>
       </c>
       <c r="H34" t="s">
@@ -4860,29 +4982,29 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" s="4" t="s">
+    <row r="38" customHeight="1" spans="2:9">
+      <c r="C38" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:3">
+    <row r="39" customHeight="1" spans="2:9">
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:4">
+    <row r="40" customHeight="1" spans="2:9">
       <c r="B40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="2:4">
-      <c r="B41" s="2">
+    <row r="41" customHeight="1" spans="2:9">
+      <c r="B41" s="3">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -4892,8 +5014,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="2:4">
-      <c r="B42" s="2">
+    <row r="42" customHeight="1" spans="2:9">
+      <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="C42" t="s">
@@ -4903,8 +5025,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="2:4">
-      <c r="B43" s="2">
+    <row r="43" customHeight="1" spans="2:9">
+      <c r="B43" s="3">
         <v>3</v>
       </c>
       <c r="C43" t="s">
@@ -4914,8 +5036,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="2">
+    <row r="44" customHeight="1" spans="2:9">
+      <c r="B44" s="3">
         <v>4</v>
       </c>
       <c r="C44" t="s">
@@ -4925,8 +5047,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="2:4">
-      <c r="B45" s="2">
+    <row r="45" customHeight="1" spans="2:9">
+      <c r="B45" s="3">
         <v>5</v>
       </c>
       <c r="C45" t="s">
@@ -4936,8 +5058,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="2:4">
-      <c r="B46" s="2">
+    <row r="46" customHeight="1" spans="2:9">
+      <c r="B46" s="3">
         <v>6</v>
       </c>
       <c r="C46" t="s">
@@ -4947,8 +5069,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="2:4">
-      <c r="B47" s="2">
+    <row r="47" customHeight="1" spans="2:9">
+      <c r="B47" s="3">
         <v>7</v>
       </c>
       <c r="C47" t="s">
@@ -4958,8 +5080,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="2:4">
-      <c r="B48" s="2">
+    <row r="48" customHeight="1" spans="2:9">
+      <c r="B48" s="3">
         <v>8</v>
       </c>
       <c r="C48" t="s">
@@ -4969,8 +5091,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="2:4">
-      <c r="B49" s="2">
+    <row r="49" customHeight="1" spans="2:5">
+      <c r="B49" s="3">
         <v>9</v>
       </c>
       <c r="C49" t="s">
@@ -4980,8 +5102,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="2:4">
-      <c r="B50" s="2">
+    <row r="50" customHeight="1" spans="2:5">
+      <c r="B50" s="3">
         <v>10</v>
       </c>
       <c r="C50" t="s">
@@ -4991,8 +5113,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="2:4">
-      <c r="B51" s="2">
+    <row r="51" customHeight="1" spans="2:5">
+      <c r="B51" s="3">
         <v>11</v>
       </c>
       <c r="C51" t="s">
@@ -5002,8 +5124,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="2:4">
-      <c r="B52" s="2">
+    <row r="52" customHeight="1" spans="2:5">
+      <c r="B52" s="3">
         <v>12</v>
       </c>
       <c r="C52" t="s">
@@ -5013,7 +5135,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="3:5">
+    <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
         <v>305</v>
       </c>
@@ -5024,7 +5146,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="3:3">
+    <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
         <v>308</v>
       </c>
@@ -5049,7 +5171,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="2"/>
+    <col min="2" max="2" width="8.88888888888889" style="3"/>
     <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
@@ -5057,52 +5179,52 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:3">
-      <c r="C6" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="C6" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:3">
-      <c r="C7" s="4" t="s">
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:4">
+    <row r="8" customHeight="1" spans="1:9">
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="2">
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -5112,8 +5234,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="2">
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" t="s">
@@ -5123,8 +5245,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="2">
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -5134,8 +5256,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="2">
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="B12" s="3">
         <v>4</v>
       </c>
       <c r="C12" t="s">
@@ -5169,16 +5291,16 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" customHeight="1" spans="2:2">
+    <row r="17" customHeight="1" spans="2:4">
       <c r="B17"/>
     </row>
-    <row r="18" customHeight="1" spans="3:3">
-      <c r="C18" s="4" t="s">
+    <row r="18" customHeight="1" spans="2:4">
+      <c r="C18" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:3">
-      <c r="C19" s="4" t="s">
+    <row r="19" customHeight="1" spans="2:4">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5186,15 +5308,15 @@
       <c r="B20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -5205,7 +5327,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>2</v>
       </c>
       <c r="C22" t="s">
@@ -5216,7 +5338,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -5227,7 +5349,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" t="s">
@@ -5238,7 +5360,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" t="s">
@@ -5249,7 +5371,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>6</v>
       </c>
       <c r="C26" t="s">
@@ -5260,7 +5382,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>7</v>
       </c>
       <c r="C27" t="s">
@@ -5271,7 +5393,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -5282,7 +5404,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>9</v>
       </c>
       <c r="C29" t="s">
@@ -5293,7 +5415,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>10</v>
       </c>
       <c r="C30" t="s">
@@ -5304,7 +5426,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>11</v>
       </c>
       <c r="C31" t="s">
@@ -5315,7 +5437,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>12</v>
       </c>
       <c r="C32" t="s">
@@ -5326,7 +5448,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>13</v>
       </c>
       <c r="C33" t="s">
@@ -5337,7 +5459,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>14</v>
       </c>
       <c r="C34" t="s">
@@ -5348,7 +5470,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>15</v>
       </c>
       <c r="C35" t="s">
@@ -5358,13 +5480,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" s="4" t="s">
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="C38" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="4" t="s">
+    <row r="39" customHeight="1" spans="2:4">
+      <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5372,15 +5494,15 @@
       <c r="B40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -5391,7 +5513,7 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="C42" t="s">
@@ -5402,7 +5524,7 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>3</v>
       </c>
       <c r="C43" t="s">
@@ -5413,7 +5535,7 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>4</v>
       </c>
       <c r="C44" t="s">
@@ -5424,7 +5546,7 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>5</v>
       </c>
       <c r="C45" t="s">
@@ -5435,7 +5557,7 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>6</v>
       </c>
       <c r="C46" t="s">
@@ -5445,21 +5567,21 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="3:8">
-      <c r="C50" s="4" t="s">
+    <row r="50" customHeight="1" spans="2:9">
+      <c r="C50" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="4" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="3:8">
-      <c r="C51" s="4" t="s">
+    <row r="51" customHeight="1" spans="2:9">
+      <c r="C51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="4" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5467,24 +5589,24 @@
       <c r="B52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>1</v>
       </c>
       <c r="C53" t="s">
@@ -5493,7 +5615,7 @@
       <c r="D53" t="s">
         <v>58</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="3">
         <v>1</v>
       </c>
       <c r="H53" t="s">
@@ -5504,7 +5626,7 @@
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="C54" t="s">
@@ -5513,7 +5635,7 @@
       <c r="D54" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="3">
         <v>2</v>
       </c>
       <c r="H54" t="s">
@@ -5524,7 +5646,7 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>3</v>
       </c>
       <c r="C55" t="s">
@@ -5533,7 +5655,7 @@
       <c r="D55" t="s">
         <v>133</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="3">
         <v>3</v>
       </c>
       <c r="H55" t="s">
@@ -5544,7 +5666,7 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>4</v>
       </c>
       <c r="C56" t="s">
@@ -5553,7 +5675,7 @@
       <c r="D56" t="s">
         <v>335</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="3">
         <v>4</v>
       </c>
       <c r="H56" t="s">
@@ -5564,7 +5686,7 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>5</v>
       </c>
       <c r="C57" t="s">
@@ -5573,7 +5695,7 @@
       <c r="D57" t="s">
         <v>85</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="3">
         <v>5</v>
       </c>
       <c r="H57" t="s">
@@ -5584,7 +5706,7 @@
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>6</v>
       </c>
       <c r="C58" t="s">
@@ -5593,7 +5715,7 @@
       <c r="D58" t="s">
         <v>337</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="3">
         <v>6</v>
       </c>
       <c r="H58" t="s">
@@ -5604,7 +5726,7 @@
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>7</v>
       </c>
       <c r="C59" t="s">
@@ -5613,7 +5735,7 @@
       <c r="D59" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="3">
         <v>7</v>
       </c>
       <c r="H59" t="s">
@@ -5624,7 +5746,7 @@
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>8</v>
       </c>
       <c r="C60" t="s">
@@ -5633,7 +5755,7 @@
       <c r="D60" t="s">
         <v>323</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="3">
         <v>8</v>
       </c>
       <c r="H60" t="s">
@@ -5644,7 +5766,7 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>9</v>
       </c>
       <c r="C61" t="s">
@@ -5653,7 +5775,7 @@
       <c r="D61" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="3">
         <v>9</v>
       </c>
       <c r="H61" t="s">
@@ -5664,7 +5786,7 @@
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>10</v>
       </c>
       <c r="C62" t="s">
@@ -5673,7 +5795,7 @@
       <c r="D62" t="s">
         <v>292</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="3">
         <v>10</v>
       </c>
       <c r="H62" t="s">
@@ -5684,7 +5806,7 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>11</v>
       </c>
       <c r="C63" t="s">
@@ -5693,7 +5815,7 @@
       <c r="D63" t="s">
         <v>294</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="3">
         <v>11</v>
       </c>
       <c r="H63" t="s">
@@ -5704,7 +5826,7 @@
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>12</v>
       </c>
       <c r="C64" t="s">
@@ -5713,7 +5835,7 @@
       <c r="D64" t="s">
         <v>296</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="3">
         <v>12</v>
       </c>
       <c r="H64" t="s">
@@ -5724,7 +5846,7 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:9">
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>13</v>
       </c>
       <c r="C65" t="s">
@@ -5733,7 +5855,7 @@
       <c r="D65" t="s">
         <v>298</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="3">
         <v>13</v>
       </c>
       <c r="H65" t="s">
@@ -5744,7 +5866,7 @@
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:9">
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>14</v>
       </c>
       <c r="C66" t="s">
@@ -5753,7 +5875,7 @@
       <c r="D66" t="s">
         <v>300</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="3">
         <v>14</v>
       </c>
       <c r="H66" t="s">
@@ -5764,7 +5886,7 @@
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:9">
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>15</v>
       </c>
       <c r="C67" t="s">
@@ -5773,7 +5895,7 @@
       <c r="D67" t="s">
         <v>302</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="3">
         <v>15</v>
       </c>
       <c r="H67" t="s">
@@ -5784,7 +5906,7 @@
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:9">
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>16</v>
       </c>
       <c r="C68" t="s">
@@ -5793,7 +5915,7 @@
       <c r="D68" t="s">
         <v>312</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="3">
         <v>16</v>
       </c>
       <c r="H68" t="s">
@@ -5804,7 +5926,7 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:9">
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>17</v>
       </c>
       <c r="C69" t="s">
@@ -5813,7 +5935,7 @@
       <c r="D69" t="s">
         <v>280</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="3">
         <v>17</v>
       </c>
       <c r="H69" t="s">
@@ -5823,8 +5945,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="2:4">
-      <c r="B73" s="2" t="s">
+    <row r="73" customHeight="1" spans="2:9">
+      <c r="B73" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C73" t="s">
@@ -5834,7 +5956,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="3:3">
+    <row r="75" customHeight="1" spans="2:9">
       <c r="C75" t="s">
         <v>342</v>
       </c>
@@ -5866,10 +5988,10 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:4">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5906,10 +6028,10 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:4">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5930,19 +6052,192 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C5:I86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="48.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="42.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9">
+      <c r="C5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="F7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="D8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H8" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="I9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="H13" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="H14" t="s">
+        <v>352</v>
+      </c>
+      <c r="I14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="I15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" ht="13" customHeight="1" spans="6:8">
+      <c r="H49" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="H50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="H55" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="H56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8">
+      <c r="F62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448" activeTab="6"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="387">
   <si>
     <t>序号</t>
   </si>
@@ -1157,6 +1157,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>获取</t>
     </r>
     <r>
@@ -1207,49 +1215,88 @@
     <t>htsc_code,ymd,open,close,high,low,num_trades,volume</t>
   </si>
   <si>
-    <t>获取主要股指（查询当月至今的指数）</t>
+    <t>获取主要股指（查询当月初至今的指数）</t>
   </si>
   <si>
     <t>SaveInsightData.get_index_a_share()</t>
   </si>
   <si>
-    <t>大盘涨跌概览</t>
+    <t>ods_index_a_share_insight_now</t>
+  </si>
+  <si>
+    <t>htsc_code,name,ymd,open,close,high,low,volume</t>
+  </si>
+  <si>
+    <t>大盘涨跌概览（查询当月初至今的大盘涨跌情况）</t>
   </si>
   <si>
     <t>SaveInsightData.get_limit_summary()</t>
   </si>
   <si>
-    <t>期货__内盘</t>
+    <t>ods_stock_limit_summary_insight_now</t>
+  </si>
+  <si>
+    <t>ymd,name,today_ZT,today_DT,yesterday_ZT,yesterday_DT,yesterday_ZT_rate</t>
+  </si>
+  <si>
+    <t>期货__内盘（查询2月前月初至今的大盘涨跌情况）</t>
   </si>
   <si>
     <t>SaveInsightData.get_future_inside()</t>
   </si>
   <si>
-    <t>筹码概览</t>
+    <t>ods_future_inside_insight_now</t>
+  </si>
+  <si>
+    <t>htsc_code,ymd,open,close,high,low,volume,open_interest,settle</t>
+  </si>
+  <si>
+    <t>筹码概览（查询当日的筹码数据）</t>
   </si>
   <si>
     <t>SaveInsightData.get_chouma_datas()</t>
   </si>
   <si>
-    <t>获取A股的行业分类数据, 是行业数据</t>
+    <t>获取申万三级行业分类数据（查询当日的分类）</t>
   </si>
   <si>
     <t>SaveInsightData.get_Ashare_industry_overview()</t>
   </si>
   <si>
+    <t>ymd,classified,industry_name,industry_code,l1_code,l1_name,l2_code,l2_name,l3_code,l3_name</t>
+  </si>
+  <si>
     <t>获取A股的行业分类数据, 是stock_code &amp; industry 关联后的大表数据</t>
   </si>
   <si>
     <t>SaveInsightData.get_Ashare_industry_detail()</t>
   </si>
   <si>
+    <t>ymd,htsc_code,name,industry_name,industry_code,l1_code,l1_name,l2_code,l2_name,l3_code,l3_name</t>
+  </si>
+  <si>
     <t>个股股东数</t>
   </si>
   <si>
     <t>SaveInsightData.get_shareholder_north_bound_num()</t>
   </si>
   <si>
+    <t>ods_shareholder_num_now</t>
+  </si>
+  <si>
+    <t>htsc_code,name,ymd,total_sh,avg_share,pct_of_total_sh,pct_of_avg_sh</t>
+  </si>
+  <si>
+    <t>合并 insight 当日跑批的数据至历史数据中</t>
+  </si>
+  <si>
+    <t>获取当前已上市股票过去3年到今天的历史kline</t>
+  </si>
+  <si>
     <t>merge_insight</t>
+  </si>
+  <si>
+    <t>merge_stock_kline</t>
   </si>
   <si>
     <t>dwd_cal</t>
@@ -2395,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="19.95" customHeight="1" spans="1:8">
+    <row r="3" ht="19.95" customHeight="1" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2419,7 +2466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:8">
+    <row r="4" ht="19.95" customHeight="1" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2443,7 +2490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="19.95" customHeight="1" spans="1:8">
+    <row r="5" ht="19.95" customHeight="1" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2467,7 +2514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="19.95" customHeight="1" spans="1:8">
+    <row r="6" ht="19.95" customHeight="1" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2518,7 +2565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="19.95" customHeight="1" spans="1:8">
+    <row r="8" ht="19.95" customHeight="1" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2542,14 +2589,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="19.95" customHeight="1" spans="1:8">
+    <row r="9" ht="19.95" customHeight="1" spans="6:6">
       <c r="F9" s="10"/>
     </row>
-    <row r="10" ht="19.95" customHeight="1" spans="1:8">
+    <row r="10" ht="19.95" customHeight="1" spans="6:6">
       <c r="F10" s="10"/>
     </row>
     <row r="11" ht="19.95" customHeight="1"/>
-    <row r="12" ht="19.95" customHeight="1" spans="1:8">
+    <row r="12" ht="19.95" customHeight="1" spans="1:7">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2573,7 +2620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="19.95" customHeight="1" spans="1:8">
+    <row r="13" ht="19.95" customHeight="1" spans="1:7">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2597,7 +2644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="19.95" customHeight="1" spans="1:8">
+    <row r="14" ht="19.95" customHeight="1" spans="1:7">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -2621,7 +2668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="19.95" customHeight="1" spans="1:8">
+    <row r="15" ht="19.95" customHeight="1" spans="1:7">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2645,7 +2692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="19.95" customHeight="1" spans="1:8">
+    <row r="16" ht="19.95" customHeight="1" spans="2:6">
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +2709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="19.95" customHeight="1" spans="1:12">
+    <row r="17" ht="19.95" customHeight="1" spans="2:6">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2679,13 +2726,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="19.95" customHeight="1" spans="1:12">
+    <row r="18" ht="19.95" customHeight="1" spans="6:6">
       <c r="F18" s="10"/>
     </row>
-    <row r="19" ht="19.95" customHeight="1" spans="1:12">
+    <row r="19" ht="19.95" customHeight="1" spans="6:6">
       <c r="F19" s="10"/>
     </row>
-    <row r="20" ht="19.95" customHeight="1" spans="1:12">
+    <row r="20" ht="19.95" customHeight="1" spans="1:7">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2710,7 +2757,7 @@
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1"/>
-    <row r="22" ht="19.95" customHeight="1" spans="1:12">
+    <row r="22" ht="19.95" customHeight="1" spans="1:7">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2734,7 +2781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="19.95" customHeight="1" spans="1:12">
+    <row r="23" ht="19.95" customHeight="1" spans="1:7">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2758,7 +2805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="19.95" customHeight="1" spans="1:12">
+    <row r="24" ht="19.95" customHeight="1" spans="1:7">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2813,7 +2860,7 @@
         <v>汇总板块码表</v>
       </c>
     </row>
-    <row r="26" ht="19.95" customHeight="1" spans="1:12">
+    <row r="26" ht="19.95" customHeight="1" spans="1:7">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2837,7 +2884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="19.95" customHeight="1" spans="1:12">
+    <row r="27" ht="19.95" customHeight="1" spans="1:7">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2861,7 +2908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="19.95" customHeight="1" spans="1:12">
+    <row r="28" ht="19.95" customHeight="1" spans="1:7">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2885,7 +2932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="19.95" customHeight="1" spans="1:12">
+    <row r="29" ht="19.95" customHeight="1" spans="1:7">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2909,13 +2956,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="19.95" customHeight="1" spans="1:12">
+    <row r="30" ht="19.95" customHeight="1" spans="6:6">
       <c r="F30" s="10"/>
     </row>
-    <row r="31" ht="19.95" customHeight="1" spans="1:12">
+    <row r="31" ht="19.95" customHeight="1" spans="6:6">
       <c r="F31" s="10"/>
     </row>
-    <row r="32" ht="19.95" customHeight="1" spans="1:12">
+    <row r="32" ht="19.95" customHeight="1" spans="6:6">
       <c r="F32" s="10"/>
     </row>
     <row r="33" ht="105" customHeight="1" spans="1:8">
@@ -3005,7 +3052,7 @@
     <row r="37" ht="19.95" customHeight="1"/>
     <row r="38" ht="19.95" customHeight="1"/>
     <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="39" customHeight="1" spans="1:8">
+    <row r="40" ht="39" customHeight="1" spans="2:8">
       <c r="B40" s="3" t="s">
         <v>49</v>
       </c>
@@ -3082,17 +3129,17 @@
     <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" customHeight="1" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:13">
+    <row r="5" customHeight="1" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:13">
+    <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3103,7 +3150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:13">
+    <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3114,7 +3161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:13">
+    <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -3125,7 +3172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:13">
+    <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -3136,7 +3183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:13">
+    <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -3147,7 +3194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:13">
+    <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,7 +3205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:13">
+    <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
@@ -3227,7 +3274,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:18">
+    <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3256,7 +3303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:18">
+    <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -3285,7 +3332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:18">
+    <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -3314,7 +3361,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:18">
+    <row r="20" customHeight="1" spans="1:13">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -3343,7 +3390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:18">
+    <row r="21" customHeight="1" spans="1:13">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -3372,7 +3419,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:18">
+    <row r="22" customHeight="1" spans="1:13">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -3401,7 +3448,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:18">
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -3421,7 +3468,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:18">
+    <row r="27" customHeight="1" spans="2:17">
       <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
@@ -3435,7 +3482,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:18">
+    <row r="28" customHeight="1" spans="2:17">
       <c r="B28" s="1" t="s">
         <v>111</v>
       </c>
@@ -3823,7 +3870,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:18">
+    <row r="39" customHeight="1" spans="6:18">
       <c r="F39" s="3">
         <v>10</v>
       </c>
@@ -3852,7 +3899,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:18">
+    <row r="40" customHeight="1" spans="2:18">
       <c r="B40" s="1" t="s">
         <v>175</v>
       </c>
@@ -3875,7 +3922,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:18">
+    <row r="41" customHeight="1" spans="2:8">
       <c r="B41" s="1" t="s">
         <v>179</v>
       </c>
@@ -3889,7 +3936,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:18">
+    <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -3909,7 +3956,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:18">
+    <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -3929,7 +3976,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:18">
+    <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -3949,7 +3996,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:18">
+    <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="3">
         <v>3</v>
       </c>
@@ -3969,7 +4016,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:18">
+    <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="3">
         <v>4</v>
       </c>
@@ -3989,7 +4036,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:18">
+    <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="3">
         <v>5</v>
       </c>
@@ -4009,7 +4056,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:18">
+    <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -4049,7 +4096,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:8">
+    <row r="50" customHeight="1" spans="6:8">
       <c r="F50" s="3">
         <v>21</v>
       </c>
@@ -4060,7 +4107,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:8">
+    <row r="51" customHeight="1" spans="6:8">
       <c r="F51" s="3">
         <v>22</v>
       </c>
@@ -4071,7 +4118,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:8">
+    <row r="52" customHeight="1" spans="6:8">
       <c r="F52" s="3">
         <v>23</v>
       </c>
@@ -4082,7 +4129,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:8">
+    <row r="53" customHeight="1" spans="2:8">
       <c r="B53" s="1" t="s">
         <v>213</v>
       </c>
@@ -4096,7 +4143,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:8">
+    <row r="54" customHeight="1" spans="2:8">
       <c r="B54" s="1" t="s">
         <v>216</v>
       </c>
@@ -4150,7 +4197,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:8">
+    <row r="57" customHeight="1" spans="1:6">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -4162,7 +4209,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" customHeight="1" spans="1:8">
+    <row r="58" customHeight="1" spans="1:6">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -4174,7 +4221,7 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" customHeight="1" spans="1:8">
+    <row r="59" customHeight="1" spans="1:6">
       <c r="A59" s="3">
         <v>4</v>
       </c>
@@ -4186,7 +4233,7 @@
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" customHeight="1" spans="1:8">
+    <row r="60" customHeight="1" spans="6:6">
       <c r="F60" s="3"/>
     </row>
   </sheetData>
@@ -4214,12 +4261,12 @@
     <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customHeight="1" spans="2:4">
+    <row r="4" customHeight="1" spans="3:3">
       <c r="C4" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:4">
+    <row r="5" customHeight="1" spans="3:3">
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4312,7 +4359,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:9">
+    <row r="18" customHeight="1" spans="3:8">
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
@@ -4321,7 +4368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="2:9">
+    <row r="19" customHeight="1" spans="3:8">
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
@@ -4390,7 +4437,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="2:9">
+    <row r="23" customHeight="1" spans="2:7">
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -4402,7 +4449,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" customHeight="1" spans="2:9">
+    <row r="24" customHeight="1" spans="2:7">
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -4414,7 +4461,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" customHeight="1" spans="2:9">
+    <row r="25" customHeight="1" spans="2:7">
       <c r="B25" s="3">
         <v>5</v>
       </c>
@@ -4426,7 +4473,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" customHeight="1" spans="2:9">
+    <row r="26" customHeight="1" spans="2:7">
       <c r="B26" s="3">
         <v>6</v>
       </c>
@@ -4466,7 +4513,7 @@
     <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="1:14">
+    <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>244</v>
       </c>
@@ -4483,7 +4530,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:14">
+    <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -4498,7 +4545,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:14">
+    <row r="6" customHeight="1" spans="3:13">
       <c r="C6" s="1" t="s">
         <v>245</v>
       </c>
@@ -4510,7 +4557,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:14">
+    <row r="7" customHeight="1" spans="3:13">
       <c r="C7" t="s">
         <v>34</v>
       </c>
@@ -4522,7 +4569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:14">
+    <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
@@ -4551,7 +4598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:14">
+    <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -4580,7 +4627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:14">
+    <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -4609,7 +4656,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:14">
+    <row r="11" customHeight="1" spans="2:14">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -4638,7 +4685,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:14">
+    <row r="12" customHeight="1" spans="2:14">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -4667,7 +4714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:14">
+    <row r="13" customHeight="1" spans="2:14">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -4696,7 +4743,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:14">
+    <row r="16" customHeight="1" spans="3:8">
       <c r="C16" s="1" t="s">
         <v>266</v>
       </c>
@@ -4704,7 +4751,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="2:9">
+    <row r="17" customHeight="1" spans="3:8">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -4832,7 +4879,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="2:9">
+    <row r="26" customHeight="1" spans="2:8">
       <c r="B26" s="5" t="s">
         <v>276</v>
       </c>
@@ -4840,7 +4887,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="2:9">
+    <row r="27" customHeight="1" spans="3:8">
       <c r="C27" s="1" t="s">
         <v>278</v>
       </c>
@@ -4848,7 +4895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:9">
+    <row r="28" customHeight="1" spans="3:9">
       <c r="C28" t="s">
         <v>41</v>
       </c>
@@ -4982,17 +5029,17 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="2:9">
+    <row r="38" customHeight="1" spans="3:3">
       <c r="C38" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="2:9">
+    <row r="39" customHeight="1" spans="3:3">
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:9">
+    <row r="40" customHeight="1" spans="2:4">
       <c r="B40" s="5" t="s">
         <v>0</v>
       </c>
@@ -5003,7 +5050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="2:9">
+    <row r="41" customHeight="1" spans="2:4">
       <c r="B41" s="3">
         <v>1</v>
       </c>
@@ -5014,7 +5061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="2:9">
+    <row r="42" customHeight="1" spans="2:4">
       <c r="B42" s="3">
         <v>2</v>
       </c>
@@ -5025,7 +5072,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="2:9">
+    <row r="43" customHeight="1" spans="2:4">
       <c r="B43" s="3">
         <v>3</v>
       </c>
@@ -5036,7 +5083,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="2:9">
+    <row r="44" customHeight="1" spans="2:4">
       <c r="B44" s="3">
         <v>4</v>
       </c>
@@ -5047,7 +5094,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="2:9">
+    <row r="45" customHeight="1" spans="2:4">
       <c r="B45" s="3">
         <v>5</v>
       </c>
@@ -5058,7 +5105,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="2:9">
+    <row r="46" customHeight="1" spans="2:4">
       <c r="B46" s="3">
         <v>6</v>
       </c>
@@ -5069,7 +5116,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="2:9">
+    <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="3">
         <v>7</v>
       </c>
@@ -5080,7 +5127,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="2:9">
+    <row r="48" customHeight="1" spans="2:4">
       <c r="B48" s="3">
         <v>8</v>
       </c>
@@ -5091,7 +5138,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="2:5">
+    <row r="49" customHeight="1" spans="2:4">
       <c r="B49" s="3">
         <v>9</v>
       </c>
@@ -5102,7 +5149,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="2:5">
+    <row r="50" customHeight="1" spans="2:4">
       <c r="B50" s="3">
         <v>10</v>
       </c>
@@ -5113,7 +5160,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="2:5">
+    <row r="51" customHeight="1" spans="2:4">
       <c r="B51" s="3">
         <v>11</v>
       </c>
@@ -5124,7 +5171,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="2:5">
+    <row r="52" customHeight="1" spans="2:4">
       <c r="B52" s="3">
         <v>12</v>
       </c>
@@ -5135,7 +5182,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="2:5">
+    <row r="59" customHeight="1" spans="3:5">
       <c r="C59" t="s">
         <v>305</v>
       </c>
@@ -5146,7 +5193,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="2:5">
+    <row r="64" customHeight="1" spans="3:3">
       <c r="C64" t="s">
         <v>308</v>
       </c>
@@ -5202,17 +5249,17 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="6" customHeight="1" spans="1:9">
+    <row r="6" customHeight="1" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
+    <row r="7" customHeight="1" spans="3:3">
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:9">
+    <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
@@ -5223,7 +5270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:9">
+    <row r="9" customHeight="1" spans="2:4">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -5234,7 +5281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:9">
+    <row r="10" customHeight="1" spans="2:4">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -5245,7 +5292,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:9">
+    <row r="11" customHeight="1" spans="2:4">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -5256,7 +5303,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:9">
+    <row r="12" customHeight="1" spans="2:4">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -5291,15 +5338,15 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" customHeight="1" spans="2:4">
+    <row r="17" customHeight="1" spans="2:2">
       <c r="B17"/>
     </row>
-    <row r="18" customHeight="1" spans="2:4">
+    <row r="18" customHeight="1" spans="3:3">
       <c r="C18" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="2:4">
+    <row r="19" customHeight="1" spans="3:3">
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
@@ -5480,12 +5527,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="2:4">
+    <row r="38" customHeight="1" spans="3:3">
       <c r="C38" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="2:4">
+    <row r="39" customHeight="1" spans="3:3">
       <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
@@ -5567,7 +5614,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="2:9">
+    <row r="50" customHeight="1" spans="3:8">
       <c r="C50" s="1" t="s">
         <v>332</v>
       </c>
@@ -5576,7 +5623,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="2:9">
+    <row r="51" customHeight="1" spans="3:8">
       <c r="C51" s="1" t="s">
         <v>46</v>
       </c>
@@ -5945,7 +5992,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="2:9">
+    <row r="73" customHeight="1" spans="2:4">
       <c r="B73" s="3" t="s">
         <v>340</v>
       </c>
@@ -5956,7 +6003,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="2:9">
+    <row r="75" customHeight="1" spans="3:3">
       <c r="C75" t="s">
         <v>342</v>
       </c>
@@ -6076,10 +6123,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:I86"/>
+  <dimension ref="C5:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6087,12 +6134,12 @@
     <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="8.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="48.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="42.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="32.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="9" max="9" width="47.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:9">
+    <row r="5" spans="3:4">
       <c r="C5" s="1" t="s">
         <v>343</v>
       </c>
@@ -6100,7 +6147,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="6:8">
       <c r="F7" s="1" t="s">
         <v>345</v>
       </c>
@@ -6108,11 +6155,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="3:9">
+    <row r="8" spans="4:9">
       <c r="D8" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>348</v>
       </c>
       <c r="H8" t="s">
@@ -6122,17 +6169,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="9:9">
       <c r="I9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
+    <row r="13" spans="8:8">
       <c r="H13" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="3:9">
+    <row r="14" spans="8:9">
       <c r="H14" t="s">
         <v>352</v>
       </c>
@@ -6140,7 +6187,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="3:9">
+    <row r="15" spans="9:9">
       <c r="I15" t="s">
         <v>354</v>
       </c>
@@ -6150,94 +6197,159 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="8:8">
+    <row r="20" spans="8:9">
       <c r="H20" t="s">
         <v>356</v>
       </c>
+      <c r="I20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9">
       <c r="H26" t="s">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="I26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9">
       <c r="H32" t="s">
-        <v>360</v>
+        <v>364</v>
+      </c>
+      <c r="I32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9">
       <c r="H38" t="s">
-        <v>362</v>
+        <v>368</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="44" spans="8:8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" ht="13" customHeight="1" spans="6:8">
+        <v>370</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" ht="13" customHeight="1" spans="8:8">
       <c r="H49" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="6:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9">
       <c r="H50" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="55" spans="6:8">
+        <v>373</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8">
       <c r="H55" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="56" spans="6:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9">
       <c r="H56" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" spans="6:8">
-      <c r="F62" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6">
-      <c r="F67" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6">
-      <c r="F79" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="86" spans="6:6">
-      <c r="F86" t="s">
-        <v>373</v>
+        <v>376</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" t="s">
+        <v>379</v>
+      </c>
+      <c r="H61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9">
+      <c r="F62" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="401">
   <si>
     <t>序号</t>
   </si>
@@ -1297,6 +1297,48 @@
   </si>
   <si>
     <t>merge_stock_kline</t>
+  </si>
+  <si>
+    <t>聚合主要股指</t>
+  </si>
+  <si>
+    <t>merge_index_a_share</t>
+  </si>
+  <si>
+    <t>聚合大盘涨跌停数据</t>
+  </si>
+  <si>
+    <t>merge_limit_summary</t>
+  </si>
+  <si>
+    <t>聚合内部期货市场数据</t>
+  </si>
+  <si>
+    <t>merge_future_inside</t>
+  </si>
+  <si>
+    <t>ods_future_inside_insight（缺6、7、8、9、10月）</t>
+  </si>
+  <si>
+    <t>htsc_code, ymd, open, close, high, low, volume, open_interest, settle</t>
+  </si>
+  <si>
+    <t>聚合A股市场的股东数据</t>
+  </si>
+  <si>
+    <t>merge_shareholder_num</t>
+  </si>
+  <si>
+    <t>name,htsc_code,ymd,total_sh,avg_share,pct_of_total_sh,pct_of_avg_sh</t>
+  </si>
+  <si>
+    <t>聚合A股市场的北向资金数据</t>
+  </si>
+  <si>
+    <t>merge_north_bound</t>
+  </si>
+  <si>
+    <t>htsc_code,ymd,sh_hkshare_hold,pct_total_share</t>
   </si>
   <si>
     <t>dwd_cal</t>
@@ -1499,17 +1541,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1986,11 +2028,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2404,8 +2449,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="12.1111111111111" style="3" customWidth="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="12.1111111111111" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
@@ -2417,13 +2462,13 @@
   <sheetData>
     <row r="1" ht="19.95" customHeight="1"/>
     <row r="2" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2442,14 +2487,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A3" s="3">
+    <row r="3" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -2458,7 +2503,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="11" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
@@ -2466,14 +2511,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A4" s="3">
+    <row r="4" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -2482,7 +2527,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="str">
+      <c r="F4" s="11" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
@@ -2490,14 +2535,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A5" s="3">
+    <row r="5" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -2506,7 +2551,7 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="str">
+      <c r="F5" s="11" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
@@ -2514,14 +2559,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A6" s="3">
+    <row r="6" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
@@ -2530,7 +2575,7 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10" t="str">
+      <c r="F6" s="11" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
@@ -2539,22 +2584,22 @@
       </c>
     </row>
     <row r="7" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="11" t="str">
         <f>HYPERLINK("#股票基本面数据_所属交易所",股票基本面数据_所属交易所)</f>
         <v>股票基本面数据_所属交易所</v>
       </c>
@@ -2565,14 +2610,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A8" s="3">
+    <row r="8" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
@@ -2581,7 +2626,7 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="11" t="str">
         <f>HYPERLINK("#股票基本面数据_资产数据",股票基本面数据_资产数据)</f>
         <v>股票基本面数据_资产数据</v>
       </c>
@@ -2589,21 +2634,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F10" s="10"/>
+    <row r="9" ht="19.95" customHeight="1" spans="1:8">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" ht="19.95" customHeight="1" spans="1:8">
+      <c r="F10" s="11"/>
     </row>
     <row r="11" ht="19.95" customHeight="1"/>
-    <row r="12" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A12" s="3">
+    <row r="12" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
@@ -2612,7 +2657,7 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="11" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
@@ -2620,14 +2665,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A13" s="3">
+    <row r="13" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A13" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
@@ -2636,7 +2681,7 @@
       <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="11" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
@@ -2644,14 +2689,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A14" s="3">
+    <row r="14" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A14" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
@@ -2660,7 +2705,7 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="10" t="str">
+      <c r="F14" s="11" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
@@ -2668,14 +2713,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A15" s="3">
+    <row r="15" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -2684,7 +2729,7 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="10" t="str">
+      <c r="F15" s="11" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
@@ -2692,11 +2737,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="19.95" customHeight="1" spans="2:6">
-      <c r="B16" s="3" t="s">
+    <row r="16" ht="19.95" customHeight="1" spans="1:8">
+      <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
@@ -2705,15 +2750,15 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="19.95" customHeight="1" spans="2:6">
-      <c r="B17" s="3" t="s">
+    <row r="17" ht="19.95" customHeight="1" spans="1:12">
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
@@ -2722,24 +2767,24 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A20" s="3">
+    <row r="18" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A20" s="4">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
@@ -2748,7 +2793,7 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="10" t="str">
+      <c r="F20" s="11" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
@@ -2757,14 +2802,14 @@
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1"/>
-    <row r="22" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A22" s="3">
+    <row r="22" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A22" s="4">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
@@ -2773,7 +2818,7 @@
       <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="10" t="str">
+      <c r="F22" s="11" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
@@ -2781,14 +2826,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A23" s="3">
+    <row r="23" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A23" s="4">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
@@ -2797,7 +2842,7 @@
       <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="10" t="str">
+      <c r="F23" s="11" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
@@ -2805,14 +2850,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A24" s="3">
+    <row r="24" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A24" s="4">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
@@ -2821,7 +2866,7 @@
       <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="10" t="str">
+      <c r="F24" s="11" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
@@ -2830,13 +2875,13 @@
       </c>
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
@@ -2845,7 +2890,7 @@
       <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="10" t="str">
+      <c r="F25" s="11" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
@@ -2855,19 +2900,19 @@
       <c r="K25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="10" t="str">
+      <c r="L25" s="11" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
-    <row r="26" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A26" s="3">
+    <row r="26" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A26" s="4">
         <v>17</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
@@ -2876,7 +2921,7 @@
       <c r="E26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="10" t="str">
+      <c r="F26" s="11" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
@@ -2884,14 +2929,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A27" s="3">
+    <row r="27" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A27" s="4">
         <v>18</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
@@ -2900,7 +2945,7 @@
       <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="10" t="str">
+      <c r="F27" s="11" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
@@ -2908,14 +2953,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A28" s="3">
+    <row r="28" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A28" s="4">
         <v>19</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
@@ -2924,7 +2969,7 @@
       <c r="E28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="10" t="str">
+      <c r="F28" s="11" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
@@ -2932,14 +2977,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A29" s="3">
+    <row r="29" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A29" s="4">
         <v>20</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
@@ -2948,7 +2993,7 @@
       <c r="E29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="10" t="str">
+      <c r="F29" s="11" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
@@ -2956,107 +3001,107 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" ht="19.95" customHeight="1" spans="6:6">
-      <c r="F32" s="10"/>
+    <row r="30" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F32" s="11"/>
     </row>
     <row r="33" ht="105" customHeight="1" spans="1:8">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>26</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="10" t="str">
+      <c r="F33" s="11" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" ht="67" customHeight="1" spans="1:8">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>27</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="10" t="str">
+      <c r="F34" s="11" t="str">
         <f>HYPERLINK("#股票基础信息大宽表",股票基础信息大宽表)</f>
         <v>股票基础信息大宽表</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:8">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>28</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="10" t="str">
+      <c r="F35" s="11" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:8">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>29</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="10" t="str">
+      <c r="F36" s="11" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" ht="19.95" customHeight="1"/>
     <row r="38" ht="19.95" customHeight="1"/>
     <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="39" customHeight="1" spans="2:8">
-      <c r="B40" s="3" t="s">
+    <row r="40" ht="39" customHeight="1" spans="1:8">
+      <c r="B40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3065,7 +3110,7 @@
       <c r="F40" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3118,7 +3163,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
@@ -3129,18 +3174,18 @@
     <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customHeight="1" spans="2:2">
+    <row r="4" customHeight="1" spans="1:13">
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:2">
+    <row r="5" customHeight="1" spans="1:13">
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="5" t="s">
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3150,30 +3195,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="3">
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="3">
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="3">
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -3183,8 +3228,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="3">
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -3194,7 +3239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:12">
+    <row r="13" customHeight="1" spans="1:13">
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
@@ -3205,7 +3250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:12">
+    <row r="14" customHeight="1" spans="1:13">
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
@@ -3217,7 +3262,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3226,7 +3271,7 @@
       <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3235,7 +3280,7 @@
       <c r="H15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -3246,45 +3291,45 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H16" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="10" t="s">
         <v>73</v>
       </c>
       <c r="M16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="3">
+    <row r="17" customHeight="1" spans="1:18">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" t="s">
@@ -3293,18 +3338,18 @@
       <c r="H17" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <v>2</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="10" t="s">
         <v>77</v>
       </c>
       <c r="M17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="3">
+    <row r="18" customHeight="1" spans="1:18">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -3313,16 +3358,16 @@
       <c r="C18" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>81</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <v>3</v>
       </c>
       <c r="L18" t="s">
@@ -3332,8 +3377,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="3">
+    <row r="19" customHeight="1" spans="1:18">
+      <c r="A19" s="4">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -3342,7 +3387,7 @@
       <c r="C19" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>4</v>
       </c>
       <c r="G19" t="s">
@@ -3351,7 +3396,7 @@
       <c r="H19" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <v>4</v>
       </c>
       <c r="L19" t="s">
@@ -3361,8 +3406,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="3">
+    <row r="20" customHeight="1" spans="1:18">
+      <c r="A20" s="4">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -3371,7 +3416,7 @@
       <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" t="s">
@@ -3380,7 +3425,7 @@
       <c r="H20" t="s">
         <v>85</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <v>5</v>
       </c>
       <c r="L20" t="s">
@@ -3390,8 +3435,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="3">
+    <row r="21" customHeight="1" spans="1:18">
+      <c r="A21" s="4">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -3400,7 +3445,7 @@
       <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>6</v>
       </c>
       <c r="G21" t="s">
@@ -3409,7 +3454,7 @@
       <c r="H21" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
         <v>6</v>
       </c>
       <c r="L21" t="s">
@@ -3419,8 +3464,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="3">
+    <row r="22" customHeight="1" spans="1:18">
+      <c r="A22" s="4">
         <v>7</v>
       </c>
       <c r="B22" t="s">
@@ -3429,7 +3474,7 @@
       <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>7</v>
       </c>
       <c r="G22" t="s">
@@ -3438,7 +3483,7 @@
       <c r="H22" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <v>7</v>
       </c>
       <c r="L22" t="s">
@@ -3448,8 +3493,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="3">
+    <row r="23" customHeight="1" spans="1:18">
+      <c r="A23" s="4">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -3458,7 +3503,7 @@
       <c r="C23" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>8</v>
       </c>
       <c r="G23" t="s">
@@ -3468,7 +3513,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="2:17">
+    <row r="27" customHeight="1" spans="1:18">
       <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
@@ -3482,7 +3527,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:17">
+    <row r="28" customHeight="1" spans="1:18">
       <c r="B28" s="1" t="s">
         <v>111</v>
       </c>
@@ -3497,7 +3542,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3506,7 +3551,7 @@
       <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3515,7 +3560,7 @@
       <c r="H29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -3524,7 +3569,7 @@
       <c r="M29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
@@ -3535,37 +3580,37 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H30" t="s">
         <v>118</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <v>1</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="10" t="s">
         <v>119</v>
       </c>
       <c r="M30" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="4">
         <v>1</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="10" t="s">
         <v>120</v>
       </c>
       <c r="R30" t="s">
@@ -3573,25 +3618,25 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>2</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>122</v>
       </c>
       <c r="H31" t="s">
         <v>123</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="4">
         <v>2</v>
       </c>
       <c r="L31" t="s">
@@ -3600,10 +3645,10 @@
       <c r="M31" t="s">
         <v>125</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="4">
         <v>2</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="10" t="s">
         <v>126</v>
       </c>
       <c r="R31" t="s">
@@ -3611,7 +3656,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>3</v>
       </c>
       <c r="B32" t="s">
@@ -3620,7 +3665,7 @@
       <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>3</v>
       </c>
       <c r="G32" t="s">
@@ -3629,7 +3674,7 @@
       <c r="H32" t="s">
         <v>129</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <v>3</v>
       </c>
       <c r="L32" t="s">
@@ -3638,7 +3683,7 @@
       <c r="M32" t="s">
         <v>131</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="4">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
@@ -3649,7 +3694,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -3658,7 +3703,7 @@
       <c r="C33" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>4</v>
       </c>
       <c r="G33" t="s">
@@ -3667,16 +3712,16 @@
       <c r="H33" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4">
         <v>4</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="10" t="s">
         <v>137</v>
       </c>
       <c r="M33" t="s">
         <v>138</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="4">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
@@ -3687,7 +3732,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -3696,7 +3741,7 @@
       <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>5</v>
       </c>
       <c r="G34" t="s">
@@ -3705,7 +3750,7 @@
       <c r="H34" t="s">
         <v>142</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="4">
         <v>5</v>
       </c>
       <c r="L34" t="s">
@@ -3714,7 +3759,7 @@
       <c r="M34" t="s">
         <v>144</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="4">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
@@ -3725,7 +3770,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>6</v>
       </c>
       <c r="B35" t="s">
@@ -3734,7 +3779,7 @@
       <c r="C35" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>6</v>
       </c>
       <c r="G35" t="s">
@@ -3743,7 +3788,7 @@
       <c r="H35" t="s">
         <v>148</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="4">
         <v>6</v>
       </c>
       <c r="L35" t="s">
@@ -3752,7 +3797,7 @@
       <c r="M35" t="s">
         <v>150</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="4">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
@@ -3763,7 +3808,7 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -3772,7 +3817,7 @@
       <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>7</v>
       </c>
       <c r="G36" t="s">
@@ -3781,7 +3826,7 @@
       <c r="H36" t="s">
         <v>154</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="4">
         <v>7</v>
       </c>
       <c r="L36" t="s">
@@ -3790,7 +3835,7 @@
       <c r="M36" t="s">
         <v>156</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="4">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
@@ -3801,13 +3846,13 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>8</v>
       </c>
       <c r="G37" t="s">
@@ -3816,7 +3861,7 @@
       <c r="H37" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="4">
         <v>8</v>
       </c>
       <c r="L37" t="s">
@@ -3825,7 +3870,7 @@
       <c r="M37" t="s">
         <v>162</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="4">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
@@ -3836,13 +3881,13 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>9</v>
       </c>
       <c r="G38" t="s">
@@ -3851,7 +3896,7 @@
       <c r="H38" t="s">
         <v>166</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="4">
         <v>9</v>
       </c>
       <c r="L38" t="s">
@@ -3860,7 +3905,7 @@
       <c r="M38" t="s">
         <v>168</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="4">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
@@ -3870,8 +3915,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="6:18">
-      <c r="F39" s="3">
+    <row r="39" customHeight="1" spans="1:18">
+      <c r="F39" s="4">
         <v>10</v>
       </c>
       <c r="G39" t="s">
@@ -3880,7 +3925,7 @@
       <c r="H39" t="s">
         <v>171</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="4">
         <v>10</v>
       </c>
       <c r="L39" t="s">
@@ -3889,7 +3934,7 @@
       <c r="M39" t="s">
         <v>173</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="4">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
@@ -3899,11 +3944,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:18">
+    <row r="40" customHeight="1" spans="1:18">
       <c r="B40" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>11</v>
       </c>
       <c r="G40" t="s">
@@ -3912,7 +3957,7 @@
       <c r="H40" t="s">
         <v>177</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="4">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
@@ -3922,11 +3967,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="2:8">
+    <row r="41" customHeight="1" spans="1:18">
       <c r="B41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>12</v>
       </c>
       <c r="G41" t="s">
@@ -3936,8 +3981,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="5" t="s">
+    <row r="42" customHeight="1" spans="1:18">
+      <c r="A42" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3946,7 +3991,7 @@
       <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>13</v>
       </c>
       <c r="G42" t="s">
@@ -3956,17 +4001,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="3">
+    <row r="43" customHeight="1" spans="1:18">
+      <c r="A43" s="4">
         <v>1</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C43" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>14</v>
       </c>
       <c r="G43" t="s">
@@ -3976,8 +4021,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="3">
+    <row r="44" customHeight="1" spans="1:18">
+      <c r="A44" s="4">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -3986,7 +4031,7 @@
       <c r="C44" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>15</v>
       </c>
       <c r="G44" t="s">
@@ -3996,17 +4041,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="3">
+    <row r="45" customHeight="1" spans="1:18">
+      <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>16</v>
       </c>
       <c r="G45" t="s">
@@ -4016,8 +4061,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="3">
+    <row r="46" customHeight="1" spans="1:18">
+      <c r="A46" s="4">
         <v>4</v>
       </c>
       <c r="B46" t="s">
@@ -4026,7 +4071,7 @@
       <c r="C46" t="s">
         <v>192</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>17</v>
       </c>
       <c r="G46" t="s">
@@ -4036,8 +4081,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="3">
+    <row r="47" customHeight="1" spans="1:18">
+      <c r="A47" s="4">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -4046,7 +4091,7 @@
       <c r="C47" t="s">
         <v>196</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>18</v>
       </c>
       <c r="G47" t="s">
@@ -4056,8 +4101,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="3">
+    <row r="48" customHeight="1" spans="1:18">
+      <c r="A48" s="4">
         <v>6</v>
       </c>
       <c r="B48" t="s">
@@ -4066,7 +4111,7 @@
       <c r="C48" t="s">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>19</v>
       </c>
       <c r="G48" t="s">
@@ -4077,7 +4122,7 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -4086,7 +4131,7 @@
       <c r="C49" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>20</v>
       </c>
       <c r="G49" t="s">
@@ -4096,8 +4141,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="6:8">
-      <c r="F50" s="3">
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="F50" s="4">
         <v>21</v>
       </c>
       <c r="G50" t="s">
@@ -4107,8 +4152,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="6:8">
-      <c r="F51" s="3">
+    <row r="51" customHeight="1" spans="1:8">
+      <c r="F51" s="4">
         <v>22</v>
       </c>
       <c r="G51" t="s">
@@ -4118,8 +4163,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="6:8">
-      <c r="F52" s="3">
+    <row r="52" customHeight="1" spans="1:8">
+      <c r="F52" s="4">
         <v>23</v>
       </c>
       <c r="G52" t="s">
@@ -4129,11 +4174,11 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="2:8">
+    <row r="53" customHeight="1" spans="1:8">
       <c r="B53" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <v>24</v>
       </c>
       <c r="G53" t="s">
@@ -4143,11 +4188,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="2:8">
+    <row r="54" customHeight="1" spans="1:8">
       <c r="B54" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>25</v>
       </c>
       <c r="G54" t="s">
@@ -4158,7 +4203,7 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4167,7 +4212,7 @@
       <c r="C55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>26</v>
       </c>
       <c r="G55" t="s">
@@ -4178,16 +4223,16 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>1</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C56" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>27</v>
       </c>
       <c r="G56" t="s">
@@ -4197,20 +4242,20 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="3">
+    <row r="57" customHeight="1" spans="1:8">
+      <c r="A57" s="4">
         <v>2</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="3">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="4">
         <v>3</v>
       </c>
       <c r="B58" t="s">
@@ -4219,10 +4264,10 @@
       <c r="C58" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="3">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="4">
         <v>4</v>
       </c>
       <c r="B59" t="s">
@@ -4231,10 +4276,10 @@
       <c r="C59" t="s">
         <v>226</v>
       </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" customHeight="1" spans="6:6">
-      <c r="F60" s="3"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="F60" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4254,25 +4299,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customHeight="1" spans="3:3">
+    <row r="4" customHeight="1" spans="2:4">
       <c r="C4" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="3:3">
+    <row r="5" customHeight="1" spans="2:4">
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4283,10 +4328,10 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>228</v>
       </c>
       <c r="D7" t="s">
@@ -4294,10 +4339,10 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D8" t="s">
@@ -4305,7 +4350,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -4316,7 +4361,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -4327,7 +4372,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -4338,7 +4383,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>6</v>
       </c>
       <c r="C12" t="s">
@@ -4349,7 +4394,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>7</v>
       </c>
       <c r="C13" t="s">
@@ -4359,26 +4404,26 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:8">
+    <row r="18" customHeight="1" spans="2:9">
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:8">
+    <row r="19" customHeight="1" spans="2:9">
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4387,7 +4432,7 @@
       <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -4398,19 +4443,19 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>236</v>
       </c>
       <c r="D21" t="s">
         <v>237</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="10" t="s">
         <v>238</v>
       </c>
       <c r="I21" t="s">
@@ -4418,27 +4463,27 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>238</v>
       </c>
       <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>2</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="10" t="s">
         <v>236</v>
       </c>
       <c r="I22" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="2:7">
-      <c r="B23" s="3">
+    <row r="23" customHeight="1" spans="2:9">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -4447,10 +4492,10 @@
       <c r="D23" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="3">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:9">
+      <c r="B24" s="4">
         <v>4</v>
       </c>
       <c r="C24" t="s">
@@ -4459,10 +4504,10 @@
       <c r="D24" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:7">
-      <c r="B25" s="3">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:9">
+      <c r="B25" s="4">
         <v>5</v>
       </c>
       <c r="C25" t="s">
@@ -4471,10 +4516,10 @@
       <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:7">
-      <c r="B26" s="3">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:9">
+      <c r="B26" s="4">
         <v>6</v>
       </c>
       <c r="C26" t="s">
@@ -4483,7 +4528,7 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4503,74 +4548,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="3"/>
+    <col min="2" max="2" width="8.88888888888889" style="4"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="3"/>
+    <col min="7" max="7" width="8.88888888888889" style="4"/>
     <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
     <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
     <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="7" t="s">
+    <row r="3" customHeight="1" spans="1:14">
+      <c r="A3" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:13">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:13">
+    <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="4"/>
       <c r="M7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:14">
-      <c r="B8" s="5" t="s">
+    <row r="8" customHeight="1" spans="1:14">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4579,7 +4624,7 @@
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -4588,7 +4633,7 @@
       <c r="I8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -4598,8 +4643,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="3">
+    <row r="9" customHeight="1" spans="1:14">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -4608,7 +4653,7 @@
       <c r="D9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" t="s">
@@ -4617,7 +4662,7 @@
       <c r="I9" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" t="s">
@@ -4627,8 +4672,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="3">
+    <row r="10" customHeight="1" spans="1:14">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" t="s">
@@ -4637,7 +4682,7 @@
       <c r="D10" t="s">
         <v>251</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" t="s">
@@ -4646,7 +4691,7 @@
       <c r="I10" t="s">
         <v>253</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="4">
         <v>2</v>
       </c>
       <c r="M10" t="s">
@@ -4656,8 +4701,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:14">
-      <c r="B11" s="3">
+    <row r="11" customHeight="1" spans="1:14">
+      <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -4666,7 +4711,7 @@
       <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -4675,7 +4720,7 @@
       <c r="I11" t="s">
         <v>258</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="4">
         <v>3</v>
       </c>
       <c r="M11" t="s">
@@ -4685,8 +4730,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:14">
-      <c r="B12" s="3">
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="B12" s="4">
         <v>4</v>
       </c>
       <c r="C12" t="s">
@@ -4695,7 +4740,7 @@
       <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" t="s">
@@ -4704,7 +4749,7 @@
       <c r="I12" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="4">
         <v>4</v>
       </c>
       <c r="M12" t="s">
@@ -4714,8 +4759,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:14">
-      <c r="B13" s="3">
+    <row r="13" customHeight="1" spans="1:14">
+      <c r="B13" s="4">
         <v>5</v>
       </c>
       <c r="C13" t="s">
@@ -4724,7 +4769,7 @@
       <c r="D13" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" t="s">
@@ -4733,7 +4778,7 @@
       <c r="I13" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="4">
         <v>5</v>
       </c>
       <c r="M13" t="s">
@@ -4743,7 +4788,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:8">
+    <row r="16" customHeight="1" spans="1:14">
       <c r="C16" s="1" t="s">
         <v>266</v>
       </c>
@@ -4751,7 +4796,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:8">
+    <row r="17" customHeight="1" spans="2:9">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -4760,7 +4805,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4769,7 +4814,7 @@
       <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -4780,7 +4825,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -4789,7 +4834,7 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" t="s">
@@ -4800,7 +4845,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>2</v>
       </c>
       <c r="C20" t="s">
@@ -4809,7 +4854,7 @@
       <c r="D20" t="s">
         <v>251</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" t="s">
@@ -4820,7 +4865,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
       <c r="C21" t="s">
@@ -4829,7 +4874,7 @@
       <c r="D21" t="s">
         <v>256</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="H21" t="s">
@@ -4840,7 +4885,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>4</v>
       </c>
       <c r="C22" t="s">
@@ -4849,7 +4894,7 @@
       <c r="D22" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>4</v>
       </c>
       <c r="H22" t="s">
@@ -4860,7 +4905,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -4869,7 +4914,7 @@
       <c r="D23" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>5</v>
       </c>
       <c r="H23" t="s">
@@ -4879,15 +4924,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="2:8">
-      <c r="B26" s="5" t="s">
+    <row r="26" customHeight="1" spans="2:9">
+      <c r="B26" s="6" t="s">
         <v>276</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:8">
+    <row r="27" customHeight="1" spans="2:9">
       <c r="C27" s="1" t="s">
         <v>278</v>
       </c>
@@ -4895,11 +4940,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:9">
+    <row r="28" customHeight="1" spans="2:9">
       <c r="C28" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -4910,7 +4955,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4919,7 +4964,7 @@
       <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" t="s">
@@ -4930,7 +4975,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -4939,7 +4984,7 @@
       <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <v>2</v>
       </c>
       <c r="H30" t="s">
@@ -4950,7 +4995,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>2</v>
       </c>
       <c r="C31" t="s">
@@ -4959,7 +5004,7 @@
       <c r="D31" t="s">
         <v>280</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" t="s">
@@ -4970,7 +5015,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>3</v>
       </c>
       <c r="C32" t="s">
@@ -4979,7 +5024,7 @@
       <c r="D32" t="s">
         <v>281</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <v>4</v>
       </c>
       <c r="H32" t="s">
@@ -4990,7 +5035,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>4</v>
       </c>
       <c r="C33" t="s">
@@ -4999,7 +5044,7 @@
       <c r="D33" t="s">
         <v>229</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <v>5</v>
       </c>
       <c r="H33" t="s">
@@ -5010,7 +5055,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>5</v>
       </c>
       <c r="C34" t="s">
@@ -5019,7 +5064,7 @@
       <c r="D34" t="s">
         <v>285</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="4">
         <v>6</v>
       </c>
       <c r="H34" t="s">
@@ -5029,18 +5074,18 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:3">
+    <row r="38" customHeight="1" spans="2:9">
       <c r="C38" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="8" t="s">
+    <row r="39" customHeight="1" spans="2:9">
+      <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:4">
-      <c r="B40" s="5" t="s">
+    <row r="40" customHeight="1" spans="2:9">
+      <c r="B40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -5050,8 +5095,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="2:4">
-      <c r="B41" s="3">
+    <row r="41" customHeight="1" spans="2:9">
+      <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -5061,8 +5106,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="2:4">
-      <c r="B42" s="3">
+    <row r="42" customHeight="1" spans="2:9">
+      <c r="B42" s="4">
         <v>2</v>
       </c>
       <c r="C42" t="s">
@@ -5072,8 +5117,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="2:4">
-      <c r="B43" s="3">
+    <row r="43" customHeight="1" spans="2:9">
+      <c r="B43" s="4">
         <v>3</v>
       </c>
       <c r="C43" t="s">
@@ -5083,8 +5128,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="3">
+    <row r="44" customHeight="1" spans="2:9">
+      <c r="B44" s="4">
         <v>4</v>
       </c>
       <c r="C44" t="s">
@@ -5094,8 +5139,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="2:4">
-      <c r="B45" s="3">
+    <row r="45" customHeight="1" spans="2:9">
+      <c r="B45" s="4">
         <v>5</v>
       </c>
       <c r="C45" t="s">
@@ -5105,8 +5150,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="2:4">
-      <c r="B46" s="3">
+    <row r="46" customHeight="1" spans="2:9">
+      <c r="B46" s="4">
         <v>6</v>
       </c>
       <c r="C46" t="s">
@@ -5116,8 +5161,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="2:4">
-      <c r="B47" s="3">
+    <row r="47" customHeight="1" spans="2:9">
+      <c r="B47" s="4">
         <v>7</v>
       </c>
       <c r="C47" t="s">
@@ -5127,8 +5172,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="2:4">
-      <c r="B48" s="3">
+    <row r="48" customHeight="1" spans="2:9">
+      <c r="B48" s="4">
         <v>8</v>
       </c>
       <c r="C48" t="s">
@@ -5138,8 +5183,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="2:4">
-      <c r="B49" s="3">
+    <row r="49" customHeight="1" spans="2:5">
+      <c r="B49" s="4">
         <v>9</v>
       </c>
       <c r="C49" t="s">
@@ -5149,8 +5194,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="2:4">
-      <c r="B50" s="3">
+    <row r="50" customHeight="1" spans="2:5">
+      <c r="B50" s="4">
         <v>10</v>
       </c>
       <c r="C50" t="s">
@@ -5160,8 +5205,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="2:4">
-      <c r="B51" s="3">
+    <row r="51" customHeight="1" spans="2:5">
+      <c r="B51" s="4">
         <v>11</v>
       </c>
       <c r="C51" t="s">
@@ -5171,8 +5216,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="2:4">
-      <c r="B52" s="3">
+    <row r="52" customHeight="1" spans="2:5">
+      <c r="B52" s="4">
         <v>12</v>
       </c>
       <c r="C52" t="s">
@@ -5182,7 +5227,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="3:5">
+    <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
         <v>305</v>
       </c>
@@ -5193,7 +5238,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="3:3">
+    <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
         <v>308</v>
       </c>
@@ -5218,7 +5263,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="3"/>
+    <col min="2" max="2" width="8.88888888888889" style="4"/>
     <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
@@ -5226,41 +5271,41 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
       <c r="C6" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:3">
+    <row r="7" customHeight="1" spans="1:9">
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="5" t="s">
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5270,8 +5315,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="3">
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -5281,8 +5326,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:4">
-      <c r="B10" s="3">
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" t="s">
@@ -5292,8 +5337,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:4">
-      <c r="B11" s="3">
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -5303,8 +5348,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:4">
-      <c r="B12" s="3">
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="B12" s="4">
         <v>4</v>
       </c>
       <c r="C12" t="s">
@@ -5315,44 +5360,44 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:4">
       <c r="B17"/>
     </row>
-    <row r="18" customHeight="1" spans="3:3">
+    <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:3">
+    <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5363,7 +5408,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -5374,7 +5419,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>2</v>
       </c>
       <c r="C22" t="s">
@@ -5385,7 +5430,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -5396,7 +5441,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>4</v>
       </c>
       <c r="C24" t="s">
@@ -5407,7 +5452,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>5</v>
       </c>
       <c r="C25" t="s">
@@ -5418,7 +5463,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>6</v>
       </c>
       <c r="C26" t="s">
@@ -5429,7 +5474,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>7</v>
       </c>
       <c r="C27" t="s">
@@ -5440,7 +5485,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -5451,7 +5496,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>9</v>
       </c>
       <c r="C29" t="s">
@@ -5462,7 +5507,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>10</v>
       </c>
       <c r="C30" t="s">
@@ -5473,7 +5518,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>11</v>
       </c>
       <c r="C31" t="s">
@@ -5484,7 +5529,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>12</v>
       </c>
       <c r="C32" t="s">
@@ -5495,7 +5540,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>13</v>
       </c>
       <c r="C33" t="s">
@@ -5506,7 +5551,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>14</v>
       </c>
       <c r="C34" t="s">
@@ -5517,7 +5562,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>15</v>
       </c>
       <c r="C35" t="s">
@@ -5527,18 +5572,18 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:3">
+    <row r="38" customHeight="1" spans="2:4">
       <c r="C38" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:3">
+    <row r="39" customHeight="1" spans="2:4">
       <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -5549,7 +5594,7 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -5560,7 +5605,7 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>2</v>
       </c>
       <c r="C42" t="s">
@@ -5571,7 +5616,7 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>3</v>
       </c>
       <c r="C43" t="s">
@@ -5582,7 +5627,7 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>4</v>
       </c>
       <c r="C44" t="s">
@@ -5593,7 +5638,7 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>5</v>
       </c>
       <c r="C45" t="s">
@@ -5604,7 +5649,7 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>6</v>
       </c>
       <c r="C46" t="s">
@@ -5614,26 +5659,26 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="3:8">
+    <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="3:8">
+    <row r="51" customHeight="1" spans="2:9">
       <c r="C51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="3"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -5642,7 +5687,7 @@
       <c r="D52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -5653,7 +5698,7 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>1</v>
       </c>
       <c r="C53" t="s">
@@ -5662,7 +5707,7 @@
       <c r="D53" t="s">
         <v>58</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="4">
         <v>1</v>
       </c>
       <c r="H53" t="s">
@@ -5673,7 +5718,7 @@
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>2</v>
       </c>
       <c r="C54" t="s">
@@ -5682,7 +5727,7 @@
       <c r="D54" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" t="s">
@@ -5693,7 +5738,7 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>3</v>
       </c>
       <c r="C55" t="s">
@@ -5702,7 +5747,7 @@
       <c r="D55" t="s">
         <v>133</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="4">
         <v>3</v>
       </c>
       <c r="H55" t="s">
@@ -5713,7 +5758,7 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>4</v>
       </c>
       <c r="C56" t="s">
@@ -5722,7 +5767,7 @@
       <c r="D56" t="s">
         <v>335</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="4">
         <v>4</v>
       </c>
       <c r="H56" t="s">
@@ -5733,7 +5778,7 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>5</v>
       </c>
       <c r="C57" t="s">
@@ -5742,7 +5787,7 @@
       <c r="D57" t="s">
         <v>85</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="4">
         <v>5</v>
       </c>
       <c r="H57" t="s">
@@ -5753,7 +5798,7 @@
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>6</v>
       </c>
       <c r="C58" t="s">
@@ -5762,7 +5807,7 @@
       <c r="D58" t="s">
         <v>337</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="4">
         <v>6</v>
       </c>
       <c r="H58" t="s">
@@ -5773,7 +5818,7 @@
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>7</v>
       </c>
       <c r="C59" t="s">
@@ -5782,7 +5827,7 @@
       <c r="D59" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="4">
         <v>7</v>
       </c>
       <c r="H59" t="s">
@@ -5793,7 +5838,7 @@
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>8</v>
       </c>
       <c r="C60" t="s">
@@ -5802,7 +5847,7 @@
       <c r="D60" t="s">
         <v>323</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="4">
         <v>8</v>
       </c>
       <c r="H60" t="s">
@@ -5813,7 +5858,7 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>9</v>
       </c>
       <c r="C61" t="s">
@@ -5822,7 +5867,7 @@
       <c r="D61" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="4">
         <v>9</v>
       </c>
       <c r="H61" t="s">
@@ -5833,7 +5878,7 @@
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>10</v>
       </c>
       <c r="C62" t="s">
@@ -5842,7 +5887,7 @@
       <c r="D62" t="s">
         <v>292</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="4">
         <v>10</v>
       </c>
       <c r="H62" t="s">
@@ -5853,7 +5898,7 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>11</v>
       </c>
       <c r="C63" t="s">
@@ -5862,7 +5907,7 @@
       <c r="D63" t="s">
         <v>294</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="4">
         <v>11</v>
       </c>
       <c r="H63" t="s">
@@ -5873,7 +5918,7 @@
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>12</v>
       </c>
       <c r="C64" t="s">
@@ -5882,7 +5927,7 @@
       <c r="D64" t="s">
         <v>296</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="4">
         <v>12</v>
       </c>
       <c r="H64" t="s">
@@ -5893,7 +5938,7 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:9">
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>13</v>
       </c>
       <c r="C65" t="s">
@@ -5902,7 +5947,7 @@
       <c r="D65" t="s">
         <v>298</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="4">
         <v>13</v>
       </c>
       <c r="H65" t="s">
@@ -5913,7 +5958,7 @@
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:9">
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>14</v>
       </c>
       <c r="C66" t="s">
@@ -5922,7 +5967,7 @@
       <c r="D66" t="s">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="4">
         <v>14</v>
       </c>
       <c r="H66" t="s">
@@ -5933,7 +5978,7 @@
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:9">
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>15</v>
       </c>
       <c r="C67" t="s">
@@ -5942,7 +5987,7 @@
       <c r="D67" t="s">
         <v>302</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="4">
         <v>15</v>
       </c>
       <c r="H67" t="s">
@@ -5953,7 +5998,7 @@
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:9">
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>16</v>
       </c>
       <c r="C68" t="s">
@@ -5962,7 +6007,7 @@
       <c r="D68" t="s">
         <v>312</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="4">
         <v>16</v>
       </c>
       <c r="H68" t="s">
@@ -5973,7 +6018,7 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:9">
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>17</v>
       </c>
       <c r="C69" t="s">
@@ -5982,7 +6027,7 @@
       <c r="D69" t="s">
         <v>280</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="4">
         <v>17</v>
       </c>
       <c r="H69" t="s">
@@ -5992,8 +6037,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="2:4">
-      <c r="B73" s="3" t="s">
+    <row r="73" customHeight="1" spans="2:9">
+      <c r="B73" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C73" t="s">
@@ -6003,7 +6048,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="3:3">
+    <row r="75" customHeight="1" spans="2:9">
       <c r="C75" t="s">
         <v>342</v>
       </c>
@@ -6035,10 +6080,10 @@
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:4">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6075,10 +6120,10 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:4">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6099,18 +6144,18 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6123,10 +6168,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:I96"/>
+  <dimension ref="C5:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6139,7 +6184,7 @@
     <col min="9" max="9" width="47.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
         <v>343</v>
       </c>
@@ -6147,7 +6192,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="6:8">
+    <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
         <v>345</v>
       </c>
@@ -6155,169 +6200,169 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
         <v>347</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="9:9">
+    <row r="9" spans="3:9">
       <c r="I9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="8:8">
+    <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="8:9">
-      <c r="H14" t="s">
+    <row r="14" spans="3:9">
+      <c r="H14" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="9:9">
+    <row r="15" spans="3:9">
       <c r="I15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
+    <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="20" spans="8:9">
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="8:9">
       <c r="I21" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
+    <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="26" spans="8:9">
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="8:9">
       <c r="I27" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="8:8">
+    <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="32" spans="8:9">
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="8:9">
       <c r="I33" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="8:8">
+    <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="38" spans="8:9">
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="8:8">
+    <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="44" spans="8:9">
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="9:9">
+    <row r="45" spans="8:9">
       <c r="I45" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="49" ht="13" customHeight="1" spans="8:8">
+    <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="8:9">
-      <c r="H50" t="s">
+    <row r="50" spans="6:9">
+      <c r="H50" s="1" t="s">
         <v>373</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="9:9">
+    <row r="51" spans="6:9">
       <c r="I51" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="8:8">
+    <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="56" spans="8:9">
-      <c r="H56" t="s">
+    <row r="56" spans="6:9">
+      <c r="H56" s="1" t="s">
         <v>376</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="57" spans="9:9">
+    <row r="57" spans="6:9">
       <c r="I57" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="61" spans="6:8">
-      <c r="F61" t="s">
+    <row r="61" spans="6:9">
+      <c r="F61" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>380</v>
       </c>
     </row>
@@ -6328,28 +6373,123 @@
       <c r="H62" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="6:6">
-      <c r="F77" t="s">
+    <row r="63" spans="6:9">
+      <c r="I63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9">
+      <c r="H65" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="83" spans="6:6">
-      <c r="F83" t="s">
+    <row r="66" spans="8:9">
+      <c r="H66" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="89" spans="6:6">
+      <c r="I66" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9">
+      <c r="I67" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9">
+      <c r="H69" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9">
+      <c r="H70" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9">
+      <c r="I71" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9">
+      <c r="H73" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9">
+      <c r="H74" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9">
+      <c r="I75" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9">
+      <c r="H77" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9">
+      <c r="H78" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9">
+      <c r="I79" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9">
+      <c r="H81" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9">
+      <c r="H82" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9">
+      <c r="I83" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9">
       <c r="F89" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="96" spans="6:6">
-      <c r="F96" t="s">
-        <v>386</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9">
+      <c r="F95" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448" activeTab="6"/>
+    <workbookView windowWidth="21203" windowHeight="6720" tabRatio="448" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="412">
   <si>
     <t>序号</t>
   </si>
@@ -1341,7 +1341,40 @@
     <t>htsc_code,ymd,sh_hkshare_hold,pct_total_share</t>
   </si>
   <si>
+    <t>汇总计算：DWD层逻辑</t>
+  </si>
+  <si>
+    <t>聚合股票的板块/概念 信息，可融合小红书等手工信息源</t>
+  </si>
+  <si>
     <t>dwd_cal</t>
+  </si>
+  <si>
+    <t>cal_ashare_plate</t>
+  </si>
+  <si>
+    <t>dwd_stock_a_total_plate（20241004、20250130）</t>
+  </si>
+  <si>
+    <t>ymd,plate_name,stock_code,stock_name,source_table,remark</t>
+  </si>
+  <si>
+    <t>计算股票所归属的交易所，判断其是主办、创业板、科创板、北交所等</t>
+  </si>
+  <si>
+    <t>cal_stock_exchange</t>
+  </si>
+  <si>
+    <t>计算股票基础信息，汇总表，名称、编码、板块、股本、市值、净资产</t>
+  </si>
+  <si>
+    <t>cal_stock_base_info</t>
+  </si>
+  <si>
+    <t>计算一只股票是否 涨停 / 跌停</t>
+  </si>
+  <si>
+    <t>cal_ZT_DT</t>
   </si>
   <si>
     <t>dmart_cal</t>
@@ -6168,10 +6201,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:I108"/>
+  <dimension ref="C5:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G85" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6472,24 +6505,73 @@
         <v>396</v>
       </c>
     </row>
+    <row r="87" spans="6:9">
+      <c r="F87" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9">
+      <c r="F88" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
     <row r="89" spans="6:9">
-      <c r="F89" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="95" spans="6:9">
-      <c r="F95" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6">
-      <c r="F101" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6">
-      <c r="F108" t="s">
-        <v>400</v>
+      <c r="I89" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9">
+      <c r="H92" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9">
+      <c r="H93" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9">
+      <c r="H96" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8">
+      <c r="H97" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8">
+      <c r="H100" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8">
+      <c r="H101" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="6:8">
+      <c r="F104" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8">
+      <c r="F110" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21203" windowHeight="6720" tabRatio="448" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="435">
   <si>
     <t>序号</t>
   </si>
@@ -1365,22 +1365,91 @@
     <t>cal_stock_exchange</t>
   </si>
   <si>
+    <t>ymd,stock_code, stock_name, market</t>
+  </si>
+  <si>
     <t>计算股票基础信息，汇总表，名称、编码、板块、股本、市值、净资产</t>
   </si>
   <si>
     <t>cal_stock_base_info</t>
   </si>
   <si>
+    <t>ymd,stock_code,stock_name,close,market_value,total_value,total_asset,net_asset,total_capital,float_capital,shareholder_num,pb,pe,market,plate_names,concept_plate,index_plate,industry_plate,style_plate,out_plate</t>
+  </si>
+  <si>
     <t>计算一只股票是否 涨停 / 跌停</t>
   </si>
   <si>
     <t>cal_ZT_DT</t>
   </si>
   <si>
+    <t>dwd_stock_zt_list</t>
+  </si>
+  <si>
+    <t>ymd,stock_code,stock_name,last_close,close,rate,market_value,total_value,total_asset,net_asset,total_capital,float_capital,shareholder_num,pb,pe,market,plate_names,</t>
+  </si>
+  <si>
+    <t>dwd_stock_dt_list</t>
+  </si>
+  <si>
+    <t>指标计算：MART层逻辑</t>
+  </si>
+  <si>
+    <t>涨停股票的明细</t>
+  </si>
+  <si>
     <t>dmart_cal</t>
   </si>
   <si>
+    <t>cal_zt_details</t>
+  </si>
+  <si>
+    <t>ymd,stock_code,stock_name,concept_plate,index_plate,industry_plate,style_plate,out_plate</t>
+  </si>
+  <si>
+    <t>涨停股票的明细的拆分</t>
+  </si>
+  <si>
+    <t>cal_zt_details_explode</t>
+  </si>
+  <si>
+    <t>dmart_stock_zt_details_expanded</t>
+  </si>
+  <si>
+    <t>补数：下载历史数据</t>
+  </si>
+  <si>
+    <t>当日上市的stock_codes，来获得全部(去除ST|退|B)股票的历史数据</t>
+  </si>
+  <si>
     <t>save_insight_history</t>
+  </si>
+  <si>
+    <t>get_stock_kline</t>
+  </si>
+  <si>
+    <t>主要股指全量数据数据</t>
+  </si>
+  <si>
+    <t>get_index_a_share</t>
+  </si>
+  <si>
+    <t>大盘涨跌停分析数据</t>
+  </si>
+  <si>
+    <t>get_limit_summary</t>
+  </si>
+  <si>
+    <t>期货市场历史数据</t>
+  </si>
+  <si>
+    <t>get_future_inside</t>
+  </si>
+  <si>
+    <t>股东数 &amp; 北向资金情况</t>
+  </si>
+  <si>
+    <t>get_shareholder_north_bound_num</t>
   </si>
   <si>
     <t>send_logfile_email</t>
@@ -6201,10 +6270,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:I117"/>
+  <dimension ref="C5:I158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G85" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E54" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6538,40 +6607,182 @@
       <c r="H93" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="96" spans="6:9">
-      <c r="H96" s="1" t="s">
+      <c r="I93" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9">
+      <c r="I94" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="97" spans="6:8">
+    <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="100" spans="6:8">
-      <c r="H100" s="1" t="s">
+    <row r="98" spans="6:9">
+      <c r="H98" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="101" spans="6:8">
+      <c r="I98" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9">
+      <c r="I99" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="104" spans="6:8">
-      <c r="F104" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="6:8">
-      <c r="F110" t="s">
+    <row r="102" spans="6:9">
+      <c r="H102" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="117" spans="6:6">
-      <c r="F117" t="s">
+      <c r="I102" s="1" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="6:9">
+      <c r="I103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="6:9">
+      <c r="I105" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="6:9">
+      <c r="I106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="6:9">
+      <c r="F109" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="110" spans="6:9">
+      <c r="F110" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="6:9">
+      <c r="I111" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="6:9">
+      <c r="H114" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="115" spans="6:9">
+      <c r="H115" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="6:9">
+      <c r="I116" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="6:9">
+      <c r="F120" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="6:9">
+      <c r="F121" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="6:9">
+      <c r="H124" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="6:9">
+      <c r="H125" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="6:9">
+      <c r="H128" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9">
+      <c r="H129" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="8:9">
+      <c r="H132" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="133" spans="8:9">
+      <c r="H133" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="8:9">
+      <c r="H136" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="137" spans="8:9">
+      <c r="H137" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="8:9">
+      <c r="I141" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6">
+      <c r="F158" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/Quant模型设计.xlsx
+++ b/Quant模型设计.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tinsight" sheetId="2" r:id="rId2"/>
     <sheet name="Tvantage" sheetId="3" r:id="rId3"/>
     <sheet name="TDX" sheetId="4" r:id="rId4"/>
-    <sheet name="ODS_DWD" sheetId="5" r:id="rId5"/>
+    <sheet name="ODS_DWD_DMART" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -23,10 +23,10 @@
     <definedName name="当日大A行情温度">Tinsight!$L$13</definedName>
     <definedName name="当日已上市股票的历史日K">Tinsight!$B$13</definedName>
     <definedName name="当日已上市股票码表">Tinsight!$B$4</definedName>
-    <definedName name="跌停股票清单">ODS_DWD!$H$50</definedName>
+    <definedName name="跌停股票清单">ODS_DWD_DMART!$H$50</definedName>
     <definedName name="个股的股东数">Tinsight!$B$40</definedName>
     <definedName name="华泰股票行业明细">Tinsight!$Q$27</definedName>
-    <definedName name="汇总板块码表">ODS_DWD!$C$38</definedName>
+    <definedName name="汇总板块码表">ODS_DWD_DMART!$C$38</definedName>
     <definedName name="美股_日K">Tvantage!$C$4</definedName>
     <definedName name="内盘主要期货数据日K">Tinsight!$B$27</definedName>
     <definedName name="通达信地区板块数据">TDX!$H$6</definedName>
@@ -36,10 +36,10 @@
     <definedName name="通达信指数板块数据">TDX!$H$16</definedName>
     <definedName name="小红书渠道个股板块数据">TDX!$C$27</definedName>
     <definedName name="行业分类_申万三级分类">Tinsight!$L$27</definedName>
-    <definedName name="涨停股票清单">ODS_DWD!$C$50</definedName>
+    <definedName name="涨停股票清单">ODS_DWD_DMART!$C$50</definedName>
     <definedName name="股票基本面数据_资产数据">TDX!$C$38</definedName>
-    <definedName name="股票基本面数据_所属交易所">ODS_DWD!$C$6</definedName>
-    <definedName name="股票基础信息大宽表">ODS_DWD!$C$18</definedName>
+    <definedName name="股票基本面数据_所属交易所">ODS_DWD_DMART!$C$6</definedName>
+    <definedName name="股票基础信息大宽表">ODS_DWD_DMART!$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="448">
   <si>
     <t>序号</t>
   </si>
@@ -228,6 +228,12 @@
   <si>
     <t>dwd_ashare_stock_base_info
 dwd_stock_ZT_list</t>
+  </si>
+  <si>
+    <t>dmart_stock_zt_details_expanded</t>
+  </si>
+  <si>
+    <t>股票涨停明细拆分</t>
   </si>
   <si>
     <t>当日已上市股票码表</t>
@@ -1145,6 +1151,54 @@
   </si>
   <si>
     <t>北证的数据呢？ 能不能找到北证的stock_code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DMART </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+  </si>
+  <si>
+    <t>股票涨停明细</t>
+  </si>
+  <si>
+    <t>concept_plate</t>
+  </si>
+  <si>
+    <t>概念板块</t>
+  </si>
+  <si>
+    <t>index_plate</t>
+  </si>
+  <si>
+    <t>指数板块</t>
+  </si>
+  <si>
+    <t>industry_plate</t>
+  </si>
+  <si>
+    <t>行业板块</t>
+  </si>
+  <si>
+    <t>style_plate</t>
+  </si>
+  <si>
+    <t>风格板块</t>
+  </si>
+  <si>
+    <t>out_plate</t>
+  </si>
+  <si>
+    <t>外部数据板块</t>
   </si>
   <si>
     <t>数据准备模块</t>
@@ -1411,9 +1465,6 @@
   </si>
   <si>
     <t>cal_zt_details_explode</t>
-  </si>
-  <si>
-    <t>dmart_stock_zt_details_expanded</t>
   </si>
   <si>
     <t>补数：下载历史数据</t>
@@ -2130,7 +2181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2154,6 +2205,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2544,9 +2598,9 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2605,7 +2659,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="12" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
@@ -2629,7 +2683,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="12" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
@@ -2653,7 +2707,7 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="str">
+      <c r="F5" s="12" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
@@ -2677,7 +2731,7 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="12" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
@@ -2695,13 +2749,13 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="12" t="str">
         <f>HYPERLINK("#股票基本面数据_所属交易所",股票基本面数据_所属交易所)</f>
         <v>股票基本面数据_所属交易所</v>
       </c>
@@ -2728,7 +2782,7 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="12" t="str">
         <f>HYPERLINK("#股票基本面数据_资产数据",股票基本面数据_资产数据)</f>
         <v>股票基本面数据_资产数据</v>
       </c>
@@ -2737,10 +2791,10 @@
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:8">
-      <c r="F9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="1:8">
-      <c r="F10" s="11"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="19.95" customHeight="1"/>
     <row r="12" ht="19.95" customHeight="1" spans="1:8">
@@ -2759,7 +2813,7 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="12" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
@@ -2783,7 +2837,7 @@
       <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="11" t="str">
+      <c r="F13" s="12" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
@@ -2807,7 +2861,7 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="11" t="str">
+      <c r="F14" s="12" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
@@ -2831,7 +2885,7 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="11" t="str">
+      <c r="F15" s="12" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
@@ -2852,7 +2906,7 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2869,15 +2923,15 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F18" s="11"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:12">
       <c r="A20" s="4">
@@ -2895,7 +2949,7 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="11" t="str">
+      <c r="F20" s="12" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
@@ -2920,7 +2974,7 @@
       <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="11" t="str">
+      <c r="F22" s="12" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
@@ -2944,7 +2998,7 @@
       <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="12" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
@@ -2968,7 +3022,7 @@
       <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="11" t="str">
+      <c r="F24" s="12" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
@@ -2992,7 +3046,7 @@
       <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="12" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
@@ -3002,7 +3056,7 @@
       <c r="K25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="11" t="str">
+      <c r="L25" s="12" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
@@ -3023,7 +3077,7 @@
       <c r="E26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="11" t="str">
+      <c r="F26" s="12" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
@@ -3047,7 +3101,7 @@
       <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="11" t="str">
+      <c r="F27" s="12" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
@@ -3071,7 +3125,7 @@
       <c r="E28" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="11" t="str">
+      <c r="F28" s="12" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
@@ -3095,7 +3149,7 @@
       <c r="E29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="11" t="str">
+      <c r="F29" s="12" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
@@ -3104,13 +3158,13 @@
       </c>
     </row>
     <row r="30" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F30" s="11"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F31" s="11"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F32" s="11"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" ht="105" customHeight="1" spans="1:8">
       <c r="A33" s="4">
@@ -3125,11 +3179,11 @@
       <c r="E33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="11" t="str">
+      <c r="F33" s="12" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3146,11 +3200,11 @@
       <c r="E34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="11" t="str">
+      <c r="F34" s="12" t="str">
         <f>HYPERLINK("#股票基础信息大宽表",股票基础信息大宽表)</f>
         <v>股票基础信息大宽表</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3167,11 +3221,11 @@
       <c r="E35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="11" t="str">
+      <c r="F35" s="12" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3188,11 +3242,11 @@
       <c r="E36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="11" t="str">
+      <c r="F36" s="12" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3212,11 +3266,21 @@
       <c r="F40" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" ht="19.95" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1" spans="1:8">
+      <c r="E41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="42" ht="19.95" customHeight="1"/>
     <row r="43" ht="19.95" customHeight="1"/>
     <row r="44" ht="19.95" customHeight="1"/>
@@ -3278,12 +3342,12 @@
   <sheetData>
     <row r="4" customHeight="1" spans="1:13">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
@@ -3291,32 +3355,32 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>57</v>
+      <c r="B7" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>59</v>
+      <c r="B8" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -3324,10 +3388,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">
@@ -3335,32 +3399,32 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -3368,86 +3432,86 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>59</v>
+      <c r="B16" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>71</v>
+      <c r="G16" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>73</v>
+      <c r="L16" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>57</v>
+      <c r="B17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>77</v>
+      <c r="L17" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -3455,28 +3519,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>81</v>
+      <c r="G18" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K18" s="4">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -3484,28 +3548,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K19" s="4">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -3513,28 +3577,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K20" s="4">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -3542,28 +3606,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F21" s="4">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K21" s="4">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -3571,28 +3635,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F22" s="4">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K22" s="4">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -3600,47 +3664,47 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F23" s="4">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -3648,113 +3712,113 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>115</v>
+      <c r="B30" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>117</v>
+      <c r="G30" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K30" s="4">
         <v>1</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>119</v>
+      <c r="L30" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="M30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P30" s="4">
         <v>1</v>
       </c>
-      <c r="Q30" s="10" t="s">
-        <v>120</v>
+      <c r="Q30" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="R30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>121</v>
+      <c r="B31" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>122</v>
+      <c r="G31" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K31" s="4">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P31" s="4">
         <v>2</v>
       </c>
-      <c r="Q31" s="10" t="s">
-        <v>126</v>
+      <c r="Q31" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="R31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -3762,37 +3826,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F32" s="4">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K32" s="4">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P32" s="4">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -3800,37 +3864,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F33" s="4">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K33" s="4">
         <v>4</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>137</v>
+      <c r="L33" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="M33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P33" s="4">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -3838,37 +3902,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F34" s="4">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K34" s="4">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P34" s="4">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="R34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -3876,37 +3940,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F35" s="4">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K35" s="4">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P35" s="4">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -3914,37 +3978,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F36" s="4">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K36" s="4">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P36" s="4">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -3952,34 +4016,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F37" s="4">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K37" s="4">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P37" s="4">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -3987,34 +4051,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F38" s="4">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K38" s="4">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P38" s="4">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="R38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -4022,65 +4086,65 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K39" s="4">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P39" s="4">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="R39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F40" s="4">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P40" s="4">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="R40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="B41" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F41" s="4">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
@@ -4088,39 +4152,39 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="4">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="4">
         <v>1</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>184</v>
+      <c r="B43" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F43" s="4">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -4128,39 +4192,39 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F44" s="4">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H44" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>73</v>
+      <c r="B45" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" s="4">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -4168,19 +4232,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F46" s="4">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -4188,19 +4252,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F47" s="4">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -4208,19 +4272,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F48" s="4">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -4228,19 +4292,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F49" s="4">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -4248,10 +4312,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -4259,10 +4323,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -4270,38 +4334,38 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H52" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="B53" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F53" s="4">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="B54" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F54" s="4">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -4309,50 +4373,50 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F55" s="4">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H55" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="4">
         <v>1</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>126</v>
+      <c r="B56" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F56" s="4">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="4">
         <v>2</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>120</v>
+      <c r="B57" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F57" s="4"/>
     </row>
@@ -4361,10 +4425,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F58" s="4"/>
     </row>
@@ -4373,10 +4437,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F59" s="4"/>
     </row>
@@ -4410,7 +4474,7 @@
   <sheetData>
     <row r="4" customHeight="1" spans="2:4">
       <c r="C4" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
@@ -4423,32 +4487,32 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>228</v>
+      <c r="C7" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>230</v>
+      <c r="C8" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -4456,10 +4520,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -4467,10 +4531,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -4478,10 +4542,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -4489,10 +4553,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4500,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -4529,59 +4593,59 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>236</v>
+      <c r="C21" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>238</v>
+      <c r="H21" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>238</v>
+      <c r="C22" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>236</v>
+      <c r="H22" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -4589,10 +4653,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -4601,10 +4665,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -4613,10 +4677,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -4625,10 +4689,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -4661,47 +4725,47 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="A3" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
@@ -4721,28 +4785,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -4750,28 +4814,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -4779,28 +4843,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L10" s="4">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -4808,28 +4872,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L11" s="4">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -4837,28 +4901,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L12" s="4">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -4866,36 +4930,36 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L13" s="4">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
       <c r="C16" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
@@ -4911,19 +4975,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -4931,19 +4995,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -4951,19 +5015,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -4971,19 +5035,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -4991,19 +5055,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -5011,32 +5075,32 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="4">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
       <c r="C27" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -5050,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -5061,19 +5125,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -5081,19 +5145,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -5101,19 +5165,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -5121,19 +5185,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -5141,19 +5205,19 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G33" s="4">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I33" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -5161,28 +5225,28 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G34" s="4">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:9">
       <c r="C38" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:9">
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5191,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
@@ -5202,10 +5266,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
@@ -5213,10 +5277,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D42" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
@@ -5224,10 +5288,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
@@ -5235,10 +5299,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -5246,10 +5310,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D45" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -5257,10 +5321,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -5268,10 +5332,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D47" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -5279,10 +5343,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D48" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
@@ -5290,10 +5354,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D49" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
@@ -5301,10 +5365,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D50" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
@@ -5312,10 +5376,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D51" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
@@ -5323,26 +5387,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D52" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D59" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E59" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5357,10 +5421,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I75"/>
+  <dimension ref="A2:I94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -5374,7 +5438,7 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5398,7 +5462,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="C6" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5411,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5422,10 +5486,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5433,10 +5497,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -5444,10 +5508,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -5455,15 +5519,15 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5490,7 +5554,7 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
@@ -5503,10 +5567,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -5514,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -5525,10 +5589,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -5536,10 +5600,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -5547,10 +5611,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D24" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -5558,10 +5622,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -5569,10 +5633,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -5580,10 +5644,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -5591,10 +5655,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -5602,10 +5666,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -5613,10 +5677,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D30" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -5624,10 +5688,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D31" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -5635,10 +5699,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -5646,10 +5710,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D33" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -5657,10 +5721,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D34" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -5668,15 +5732,15 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="C38" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
@@ -5689,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -5700,10 +5764,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -5711,10 +5775,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D42" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -5722,10 +5786,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -5733,10 +5797,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -5744,10 +5808,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D45" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -5755,19 +5819,19 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D46" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
@@ -5784,19 +5848,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -5804,19 +5868,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -5824,19 +5888,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -5844,19 +5908,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G55" s="4">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -5864,19 +5928,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G56" s="4">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -5884,19 +5948,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G57" s="4">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -5904,19 +5968,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D58" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G58" s="4">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I58" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -5924,19 +5988,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G59" s="4">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I59" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -5944,19 +6008,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G60" s="4">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I60" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -5964,19 +6028,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G61" s="4">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I61" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -5984,19 +6048,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G62" s="4">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I62" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -6004,19 +6068,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G63" s="4">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -6024,141 +6088,364 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D64" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G64" s="4">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I64" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="2:9">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:9">
       <c r="B65" s="4">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D65" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G65" s="4">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I65" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="2:9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:9">
       <c r="B66" s="4">
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D66" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G66" s="4">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I66" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="2:9">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:9">
       <c r="B67" s="4">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D67" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G67" s="4">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I67" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="2:9">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:9">
       <c r="B68" s="4">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G68" s="4">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I68" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="2:9">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:9">
       <c r="B69" s="4">
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D69" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G69" s="4">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I69" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="2:9">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:9">
       <c r="B73" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="2:9">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:9">
       <c r="C75" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:9">
+      <c r="A80" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:9">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:9">
+      <c r="C84" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:9">
+      <c r="C85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:9">
+      <c r="B86" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:9">
+      <c r="B87" s="4">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" s="8">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>240</v>
+      </c>
+      <c r="I87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:9">
+      <c r="B88" s="4">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>276</v>
+      </c>
+      <c r="D88" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="8">
+        <v>2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>276</v>
+      </c>
+      <c r="I88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:9">
+      <c r="B89" s="4">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+      <c r="G89" s="8">
+        <v>3</v>
+      </c>
+      <c r="H89" t="s">
+        <v>277</v>
+      </c>
+      <c r="I89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:9">
+      <c r="B90" s="4">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>347</v>
+      </c>
+      <c r="D90" t="s">
+        <v>348</v>
+      </c>
+      <c r="G90" s="8">
+        <v>4</v>
+      </c>
+      <c r="H90" t="s">
+        <v>347</v>
+      </c>
+      <c r="I90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:9">
+      <c r="B91" s="4">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>349</v>
+      </c>
+      <c r="D91" t="s">
+        <v>350</v>
+      </c>
+      <c r="G91" s="8">
+        <v>5</v>
+      </c>
+      <c r="H91" t="s">
+        <v>349</v>
+      </c>
+      <c r="I91" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:9">
+      <c r="B92" s="4">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>351</v>
+      </c>
+      <c r="D92" t="s">
+        <v>352</v>
+      </c>
+      <c r="G92" s="8">
+        <v>6</v>
+      </c>
+      <c r="H92" t="s">
+        <v>351</v>
+      </c>
+      <c r="I92" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:9">
+      <c r="B93" s="4">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93" t="s">
+        <v>354</v>
+      </c>
+      <c r="G93" s="8">
+        <v>7</v>
+      </c>
+      <c r="H93" t="s">
+        <v>353</v>
+      </c>
+      <c r="I93" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:9">
+      <c r="B94" s="4">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>355</v>
+      </c>
+      <c r="D94" t="s">
+        <v>356</v>
+      </c>
+      <c r="G94" s="8">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>355</v>
+      </c>
+      <c r="I94" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A15:I16"/>
     <mergeCell ref="A2:I3"/>
+    <mergeCell ref="A80:I81"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6186,7 +6473,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:4">
@@ -6194,7 +6481,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
@@ -6202,7 +6489,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:4">
@@ -6210,7 +6497,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:4">
@@ -6218,7 +6505,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:4">
@@ -6226,7 +6513,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:4">
@@ -6234,7 +6521,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
@@ -6242,7 +6529,7 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
@@ -6250,7 +6537,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
@@ -6258,7 +6545,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6272,8 +6559,8 @@
   <sheetPr/>
   <dimension ref="C5:I158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E54" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E93" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6288,29 +6575,29 @@
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -6318,89 +6605,89 @@
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>13</v>
@@ -6408,12 +6695,12 @@
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>32</v>
@@ -6421,17 +6708,17 @@
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>33</v>
@@ -6439,41 +6726,41 @@
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>20</v>
@@ -6481,17 +6768,17 @@
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>21</v>
@@ -6499,17 +6786,17 @@
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>30</v>
@@ -6517,35 +6804,35 @@
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>14</v>
@@ -6553,17 +6840,17 @@
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>15</v>
@@ -6571,41 +6858,41 @@
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>16</v>
@@ -6613,17 +6900,17 @@
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>44</v>
@@ -6631,51 +6918,51 @@
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>50</v>
@@ -6683,41 +6970,41 @@
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>421</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>20</v>
@@ -6725,12 +7012,12 @@
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>21</v>
@@ -6738,12 +7025,12 @@
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>30</v>
@@ -6751,12 +7038,12 @@
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>22</v>
@@ -6764,12 +7051,12 @@
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>14</v>
@@ -6782,7 +7069,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
